--- a/Project-diagram-of-dummy-insurance-system.xlsx
+++ b/Project-diagram-of-dummy-insurance-system.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9492"/>
+    <workbookView windowWidth="22451" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$141</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$255</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271">
   <si>
     <t>「dummy-insurance-system」のプロジェクト構成図</t>
   </si>
@@ -37,9 +37,6 @@
     <t>│  .classpath</t>
   </si>
   <si>
-    <t>│  .gitignore</t>
-  </si>
-  <si>
     <t>│  .project</t>
   </si>
   <si>
@@ -58,24 +55,6 @@
     <t xml:space="preserve">│  </t>
   </si>
   <si>
-    <t>├─.mvn</t>
-  </si>
-  <si>
-    <t>│  └─wrapper</t>
-  </si>
-  <si>
-    <t>│          maven-wrapper.jar</t>
-  </si>
-  <si>
-    <t>│          maven-wrapper.properties</t>
-  </si>
-  <si>
-    <t>│          MavenWrapperDownloader.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">│          </t>
-  </si>
-  <si>
     <t>├─.settings</t>
   </si>
   <si>
@@ -85,15 +64,345 @@
     <t>│      org.eclipse.jdt.core.prefs</t>
   </si>
   <si>
-    <t>│      org.eclipse.m2e.core.prefs</t>
-  </si>
-  <si>
     <t>│      org.springframework.ide.eclipse.prefs</t>
   </si>
   <si>
     <t xml:space="preserve">│      </t>
   </si>
   <si>
+    <t>├─bin</t>
+  </si>
+  <si>
+    <t>│  │  .project</t>
+  </si>
+  <si>
+    <t>│  │  HELP.md</t>
+  </si>
+  <si>
+    <t>│  │  mvnw</t>
+  </si>
+  <si>
+    <t>│  │  mvnw.cmd</t>
+  </si>
+  <si>
+    <t>│  │  pom.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">│  │  </t>
+  </si>
+  <si>
+    <t>│  ├─.settings</t>
+  </si>
+  <si>
+    <t>│  │      org.eclipse.core.resources.prefs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">│  │      </t>
+  </si>
+  <si>
+    <t>│  ├─src</t>
+  </si>
+  <si>
+    <t>│  │  ├─main</t>
+  </si>
+  <si>
+    <t>│  │  │  ├─java</t>
+  </si>
+  <si>
+    <t>│  │  │  │  └─com</t>
+  </si>
+  <si>
+    <t>│  │  │  │      └─insurance</t>
+  </si>
+  <si>
+    <t>│  │  │  │          └─app</t>
+  </si>
+  <si>
+    <t>│  │  │  │              │  DummyInsuranceSystemApplication.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">│  │  │  │              │  </t>
+  </si>
+  <si>
+    <t>│  │  │  │              ├─common</t>
+  </si>
+  <si>
+    <t>│  │  │  │              │      CmActuarial.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">│  │  │  │              │      </t>
+  </si>
+  <si>
+    <t>│  │  │  │              ├─controller</t>
+  </si>
+  <si>
+    <t>│  │  │  │              │      CmSecurityTypeController.class</t>
+  </si>
+  <si>
+    <t>│  │  │  │              │      CmTaskController.class</t>
+  </si>
+  <si>
+    <t>│  │  │  │              │      TcInputController.class</t>
+  </si>
+  <si>
+    <t>│  │  │  │              │      TlInputController.class</t>
+  </si>
+  <si>
+    <t>│  │  │  │              │      WcInputController.class</t>
+  </si>
+  <si>
+    <t>│  │  │  │              │      WlInputController.class</t>
+  </si>
+  <si>
+    <t>│  │  │  │              ├─domain</t>
+  </si>
+  <si>
+    <t>│  │  │  │              │      WlInput.class</t>
+  </si>
+  <si>
+    <t>│  │  │  │              ├─mapper</t>
+  </si>
+  <si>
+    <t>│  │  │  │              │      WlInputMapper.class</t>
+  </si>
+  <si>
+    <t>│  │  │  │              └─service</t>
+  </si>
+  <si>
+    <t>│  │  │  │                      WlInputService.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">│  │  │  │                      </t>
+  </si>
+  <si>
+    <t>│  │  │  └─resources</t>
+  </si>
+  <si>
+    <t>│  │  │      │  application.properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">│  │  │      │  </t>
+  </si>
+  <si>
+    <t>│  │  │      ├─com</t>
+  </si>
+  <si>
+    <t>│  │  │      │  └─insurance</t>
+  </si>
+  <si>
+    <t>│  │  │      │      └─app</t>
+  </si>
+  <si>
+    <t>│  │  │      │          └─mapper</t>
+  </si>
+  <si>
+    <t>│  │  │      │                  nothing.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">│  │  │      │                  </t>
+  </si>
+  <si>
+    <t>│  │  │      ├─static</t>
+  </si>
+  <si>
+    <t>│  │  │      │  ├─css</t>
+  </si>
+  <si>
+    <t>│  │  │      │  │      bootstrap.min.css</t>
+  </si>
+  <si>
+    <t>│  │  │      │  │      cm_common.css</t>
+  </si>
+  <si>
+    <t xml:space="preserve">│  │  │      │  │      </t>
+  </si>
+  <si>
+    <t>│  │  │      │  └─js</t>
+  </si>
+  <si>
+    <t>│  │  │      │          bootstrap.min.js</t>
+  </si>
+  <si>
+    <t>│  │  │      │          jquery-3.6.0.min.js</t>
+  </si>
+  <si>
+    <t xml:space="preserve">│  │  │      │          </t>
+  </si>
+  <si>
+    <t>│  │  │      └─templates</t>
+  </si>
+  <si>
+    <t>│  │  │              cm_security.html</t>
+  </si>
+  <si>
+    <t>│  │  │              cm_task.html</t>
+  </si>
+  <si>
+    <t>│  │  │              tc_input.html</t>
+  </si>
+  <si>
+    <t>│  │  │              tl_input.html</t>
+  </si>
+  <si>
+    <t>│  │  │              wc_input.html</t>
+  </si>
+  <si>
+    <t>│  │  │              wl_input.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">│  │  │              </t>
+  </si>
+  <si>
+    <t>│  │  └─test</t>
+  </si>
+  <si>
+    <t>│  │      └─java</t>
+  </si>
+  <si>
+    <t>│  │          └─com</t>
+  </si>
+  <si>
+    <t>│  │              └─insurance</t>
+  </si>
+  <si>
+    <t>│  │                  └─app</t>
+  </si>
+  <si>
+    <t>│  │                          DummyInsuranceSystemApplicationTests.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">│  │                          </t>
+  </si>
+  <si>
+    <t>│  └─target</t>
+  </si>
+  <si>
+    <t>│      ├─classes</t>
+  </si>
+  <si>
+    <t>│      │  │  application.properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">│      │  │  </t>
+  </si>
+  <si>
+    <t>│      │  ├─com</t>
+  </si>
+  <si>
+    <t>│      │  │  └─insurance</t>
+  </si>
+  <si>
+    <t>│      │  │      └─app</t>
+  </si>
+  <si>
+    <t>│      │  │          ├─common</t>
+  </si>
+  <si>
+    <t>│      │  │          ├─controller</t>
+  </si>
+  <si>
+    <t>│      │  │          ├─domain</t>
+  </si>
+  <si>
+    <t>│      │  │          ├─mapper</t>
+  </si>
+  <si>
+    <t>│      │  │          │      nothing.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">│      │  │          │      </t>
+  </si>
+  <si>
+    <t>│      │  │          └─service</t>
+  </si>
+  <si>
+    <t>│      │  ├─META-INF</t>
+  </si>
+  <si>
+    <t>│      │  │  │  MANIFEST.MF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">│      │  │  │  </t>
+  </si>
+  <si>
+    <t>│      │  │  └─maven</t>
+  </si>
+  <si>
+    <t>│      │  │      └─com.insurance</t>
+  </si>
+  <si>
+    <t>│      │  │          └─dummy-insurance-system</t>
+  </si>
+  <si>
+    <t>│      │  │                  pom.properties</t>
+  </si>
+  <si>
+    <t>│      │  │                  pom.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">│      │  │                  </t>
+  </si>
+  <si>
+    <t>│      │  ├─static</t>
+  </si>
+  <si>
+    <t>│      │  │  ├─css</t>
+  </si>
+  <si>
+    <t>│      │  │  │      bootstrap.min.css</t>
+  </si>
+  <si>
+    <t>│      │  │  │      cm_security.css</t>
+  </si>
+  <si>
+    <t xml:space="preserve">│      │  │  │      </t>
+  </si>
+  <si>
+    <t>│      │  │  └─js</t>
+  </si>
+  <si>
+    <t>│      │  │          bootstrap.min.js</t>
+  </si>
+  <si>
+    <t>│      │  │          jquery-3.6.0.min.js</t>
+  </si>
+  <si>
+    <t xml:space="preserve">│      │  │          </t>
+  </si>
+  <si>
+    <t>│      │  └─templates</t>
+  </si>
+  <si>
+    <t>│      │          cm_security.html</t>
+  </si>
+  <si>
+    <t>│      │          tc_input.html</t>
+  </si>
+  <si>
+    <t>│      │          tl_input.html</t>
+  </si>
+  <si>
+    <t>│      │          wc_input.html</t>
+  </si>
+  <si>
+    <t>│      │          wl_input.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">│      │          </t>
+  </si>
+  <si>
+    <t>│      └─test-classes</t>
+  </si>
+  <si>
+    <t>│          └─com</t>
+  </si>
+  <si>
+    <t>│              └─insurance</t>
+  </si>
+  <si>
+    <t>│                  └─app</t>
+  </si>
+  <si>
     <t>├─src</t>
   </si>
   <si>
@@ -145,6 +454,12 @@
     <t>　保障種類選択画面のコントローラー</t>
   </si>
   <si>
+    <t>│  │  │              │      CmTaskController.java</t>
+  </si>
+  <si>
+    <t>　業務選択画面のコントローラー　※2021/10/9追加</t>
+  </si>
+  <si>
     <t>│  │  │              │      TcInputController.java</t>
   </si>
   <si>
@@ -256,10 +571,49 @@
     <t>│  │      │  │      bootstrap.min.css</t>
   </si>
   <si>
-    <t>│  │      │  │      cm_security.css</t>
-  </si>
-  <si>
-    <t>　保障種類選択画面用のcss</t>
+    <t>│  │      │  │      cm_common.css</t>
+  </si>
+  <si>
+    <t>　業務選択画面、保障種類選択画面用のcss　　※2021/10/9追加</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">│  │      │  │      </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <charset val="134"/>
+      </rPr>
+      <t>cm_security.css</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <charset val="134"/>
+      </rPr>
+      <t>保障種類選択画面用のcss</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <charset val="134"/>
+      </rPr>
+      <t>　※2021/10/09 削除</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">│  │      │  │      </t>
@@ -289,7 +643,24 @@
     <t>│  │              cm_security.html</t>
   </si>
   <si>
-    <t>　保障種類選択画面</t>
+    <r>
+      <t xml:space="preserve">　保障種類選択画面 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <charset val="134"/>
+      </rPr>
+      <t>※2021/10/9修正</t>
+    </r>
+  </si>
+  <si>
+    <t>│  │              cm_task.html</t>
+  </si>
+  <si>
+    <t>　業務選択画面　※2021/10/9追加</t>
   </si>
   <si>
     <t>│  │              tc_input.html</t>
@@ -325,15 +696,6 @@
     <t>│      └─java</t>
   </si>
   <si>
-    <t>│          └─com</t>
-  </si>
-  <si>
-    <t>│              └─insurance</t>
-  </si>
-  <si>
-    <t>│                  └─app</t>
-  </si>
-  <si>
     <t>│                          DummyInsuranceSystemApplicationTests.java</t>
   </si>
   <si>
@@ -382,6 +744,9 @@
     <t xml:space="preserve">    │  │          │      CmSecurityTypeController.class</t>
   </si>
   <si>
+    <t xml:space="preserve">    │  │          │      CmTaskController.class</t>
+  </si>
+  <si>
     <t xml:space="preserve">    │  │          │      TcInputController.class</t>
   </si>
   <si>
@@ -403,12 +768,12 @@
     <t xml:space="preserve">    │  │          ├─mapper</t>
   </si>
   <si>
+    <t xml:space="preserve">    │  │          │      nothing.txt</t>
+  </si>
+  <si>
     <t xml:space="preserve">    │  │          │      WlInputMapper.class</t>
   </si>
   <si>
-    <t xml:space="preserve">    │  │          │      WlInputMapper.xml</t>
-  </si>
-  <si>
     <t xml:space="preserve">    │  │          └─service</t>
   </si>
   <si>
@@ -451,7 +816,7 @@
     <t xml:space="preserve">    │  │  │      bootstrap.min.css</t>
   </si>
   <si>
-    <t xml:space="preserve">    │  │  │      cm_security.css</t>
+    <t xml:space="preserve">    │  │  │      cm_common.css</t>
   </si>
   <si>
     <t xml:space="preserve">    │  │  │      </t>
@@ -475,6 +840,9 @@
     <t xml:space="preserve">    │          cm_security.html</t>
   </si>
   <si>
+    <t xml:space="preserve">    │          cm_task.html</t>
+  </si>
+  <si>
     <t xml:space="preserve">    │          tc_input.html</t>
   </si>
   <si>
@@ -503,6 +871,9 @@
   </si>
   <si>
     <t xml:space="preserve">                        DummyInsuranceSystemApplicationTests.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        </t>
   </si>
 </sst>
 </file>
@@ -510,12 +881,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -537,11 +908,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ 明朝"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -552,7 +922,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -576,45 +999,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -631,14 +1016,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -666,19 +1043,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ 明朝"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -696,13 +1080,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -714,7 +1098,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,19 +1176,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,12 +1195,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -792,13 +1224,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -810,49 +1236,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -865,18 +1261,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -929,6 +1313,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -968,39 +1385,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1032,149 +1416,149 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1188,6 +1572,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -1509,7 +1902,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D141"/>
+  <dimension ref="A1:D255"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -1619,814 +2012,1500 @@
       </c>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="2:3">
+    <row r="16" hidden="1" spans="2:3">
       <c r="B16" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" hidden="1" spans="2:3">
       <c r="B17" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" hidden="1" spans="2:3">
       <c r="B18" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" hidden="1" spans="2:3">
       <c r="B19" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" hidden="1" spans="2:3">
       <c r="B20" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" hidden="1" spans="2:3">
       <c r="B21" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" hidden="1" spans="2:3">
       <c r="B22" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="4"/>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" hidden="1" spans="2:3">
       <c r="B23" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="4"/>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" hidden="1" spans="2:3">
       <c r="B24" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="4"/>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" hidden="1" spans="2:3">
       <c r="B25" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="4"/>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" hidden="1" spans="2:3">
       <c r="B26" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C26" s="4"/>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" hidden="1" spans="2:3">
       <c r="B27" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="4"/>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" hidden="1" spans="2:3">
       <c r="B28" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" hidden="1" spans="2:3">
       <c r="B29" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" hidden="1" spans="2:3">
       <c r="B30" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C30" s="4"/>
     </row>
-    <row r="31" spans="2:3">
+    <row r="31" hidden="1" spans="2:3">
       <c r="B31" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C31" s="4"/>
     </row>
-    <row r="32" spans="2:3">
+    <row r="32" hidden="1" spans="2:3">
       <c r="B32" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="4"/>
+    </row>
+    <row r="33" hidden="1" spans="2:3">
+      <c r="B33" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="33" spans="2:3">
-      <c r="B33" s="4" t="s">
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" hidden="1" spans="2:3">
+      <c r="B34" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C34" s="4"/>
+    </row>
+    <row r="35" hidden="1" spans="2:3">
+      <c r="B35" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="34" spans="2:3">
-      <c r="B34" s="4" t="s">
+      <c r="C35" s="4"/>
+    </row>
+    <row r="36" hidden="1" spans="2:3">
+      <c r="B36" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="4"/>
-    </row>
-    <row r="35" spans="2:3">
-      <c r="B35" s="4" t="s">
+      <c r="C36" s="4"/>
+    </row>
+    <row r="37" hidden="1" spans="2:3">
+      <c r="B37" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C37" s="4"/>
+    </row>
+    <row r="38" hidden="1" spans="2:3">
+      <c r="B38" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="36" spans="2:3">
-      <c r="B36" s="4" t="s">
+      <c r="C38" s="4"/>
+    </row>
+    <row r="39" hidden="1" spans="2:3">
+      <c r="B39" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C39" s="4"/>
+    </row>
+    <row r="40" hidden="1" spans="2:3">
+      <c r="B40" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="37" spans="2:3">
-      <c r="B37" s="4" t="s">
+      <c r="C40" s="4"/>
+    </row>
+    <row r="41" hidden="1" spans="2:3">
+      <c r="B41" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C41" s="4"/>
+    </row>
+    <row r="42" hidden="1" spans="2:3">
+      <c r="B42" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="38" spans="2:3">
-      <c r="B38" s="4" t="s">
+      <c r="C42" s="4"/>
+    </row>
+    <row r="43" hidden="1" spans="2:3">
+      <c r="B43" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3">
-      <c r="B39" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3">
-      <c r="B40" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3">
-      <c r="B41" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C41" s="4"/>
-    </row>
-    <row r="42" spans="2:3">
-      <c r="B42" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3">
-      <c r="B43" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3">
+      <c r="C43" s="4"/>
+    </row>
+    <row r="44" hidden="1" spans="2:3">
       <c r="B44" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C44" s="4"/>
     </row>
-    <row r="45" spans="2:3">
+    <row r="45" hidden="1" spans="2:3">
       <c r="B45" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3">
+        <v>45</v>
+      </c>
+      <c r="C45" s="4"/>
+    </row>
+    <row r="46" hidden="1" spans="2:3">
       <c r="B46" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3">
+        <v>46</v>
+      </c>
+      <c r="C46" s="4"/>
+    </row>
+    <row r="47" hidden="1" spans="2:3">
       <c r="B47" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C47" s="4"/>
     </row>
-    <row r="48" spans="2:3">
+    <row r="48" hidden="1" spans="2:3">
       <c r="B48" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" s="4"/>
+    </row>
+    <row r="49" hidden="1" spans="2:3">
+      <c r="B49" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" s="4"/>
+    </row>
+    <row r="50" hidden="1" spans="2:3">
+      <c r="B50" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" s="4"/>
+    </row>
+    <row r="51" hidden="1" spans="2:3">
+      <c r="B51" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" s="4"/>
+    </row>
+    <row r="52" hidden="1" spans="2:3">
+      <c r="B52" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" s="4"/>
+    </row>
+    <row r="53" hidden="1" spans="2:3">
+      <c r="B53" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" s="4"/>
+    </row>
+    <row r="54" hidden="1" spans="2:3">
+      <c r="B54" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" s="4"/>
+    </row>
+    <row r="55" hidden="1" spans="2:3">
+      <c r="B55" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55" s="4"/>
+    </row>
+    <row r="56" hidden="1" spans="2:3">
+      <c r="B56" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" s="4"/>
+    </row>
+    <row r="57" hidden="1" spans="2:3">
+      <c r="B57" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" s="4"/>
+    </row>
+    <row r="58" hidden="1" spans="2:3">
+      <c r="B58" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C58" s="4"/>
+    </row>
+    <row r="59" hidden="1" spans="2:3">
+      <c r="B59" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" s="4"/>
+    </row>
+    <row r="60" hidden="1" spans="2:3">
+      <c r="B60" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C60" s="4"/>
+    </row>
+    <row r="61" hidden="1" spans="2:3">
+      <c r="B61" s="4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="49" spans="2:3">
-      <c r="B49" s="4" t="s">
+      <c r="C61" s="4"/>
+    </row>
+    <row r="62" hidden="1" spans="2:3">
+      <c r="B62" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C62" s="4"/>
+    </row>
+    <row r="63" hidden="1" spans="2:3">
+      <c r="B63" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="50" spans="2:3">
-      <c r="B50" s="4" t="s">
+      <c r="C63" s="4"/>
+    </row>
+    <row r="64" hidden="1" spans="2:3">
+      <c r="B64" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C50" s="4"/>
-    </row>
-    <row r="51" spans="2:3">
-      <c r="B51" s="4" t="s">
+      <c r="C64" s="4"/>
+    </row>
+    <row r="65" hidden="1" spans="2:3">
+      <c r="B65" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C51" s="4"/>
-    </row>
-    <row r="52" spans="2:3">
-      <c r="B52" s="4" t="s">
+      <c r="C65" s="4"/>
+    </row>
+    <row r="66" hidden="1" spans="2:3">
+      <c r="B66" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C52" s="4"/>
-    </row>
-    <row r="53" spans="2:3">
-      <c r="B53" s="4" t="s">
+      <c r="C66" s="4"/>
+    </row>
+    <row r="67" hidden="1" spans="2:3">
+      <c r="B67" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C53" s="4"/>
-    </row>
-    <row r="54" spans="2:3">
-      <c r="B54" s="4" t="s">
+      <c r="C67" s="4"/>
+    </row>
+    <row r="68" hidden="1" spans="2:3">
+      <c r="B68" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C54" s="4"/>
-    </row>
-    <row r="55" spans="2:3">
-      <c r="B55" s="4" t="s">
+      <c r="C68" s="4"/>
+    </row>
+    <row r="69" hidden="1" spans="2:3">
+      <c r="B69" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C55" s="4"/>
-    </row>
-    <row r="56" spans="2:3">
-      <c r="B56" s="4" t="s">
+      <c r="C69" s="4"/>
+    </row>
+    <row r="70" hidden="1" spans="2:3">
+      <c r="B70" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C56" s="4"/>
-    </row>
-    <row r="57" spans="2:3">
-      <c r="B57" s="4" t="s">
+      <c r="C70" s="4"/>
+    </row>
+    <row r="71" hidden="1" spans="2:3">
+      <c r="B71" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C71" s="4"/>
+    </row>
+    <row r="72" hidden="1" spans="2:3">
+      <c r="B72" s="4" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="58" spans="2:4">
-      <c r="B58" s="4" t="s">
+      <c r="C72" s="4"/>
+    </row>
+    <row r="73" hidden="1" spans="2:3">
+      <c r="B73" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C73" s="4"/>
+    </row>
+    <row r="74" hidden="1" spans="2:3">
+      <c r="B74" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="C74" s="4"/>
+    </row>
+    <row r="75" hidden="1" spans="2:3">
+      <c r="B75" s="4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="59" spans="2:3">
-      <c r="B59" s="4" t="s">
+      <c r="C75" s="4"/>
+    </row>
+    <row r="76" hidden="1" spans="2:3">
+      <c r="B76" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C59" s="4"/>
-    </row>
-    <row r="60" spans="2:3">
-      <c r="B60" s="4" t="s">
+      <c r="C76" s="4"/>
+    </row>
+    <row r="77" hidden="1" spans="2:3">
+      <c r="B77" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C60" s="4"/>
-    </row>
-    <row r="61" spans="2:3">
-      <c r="B61" s="4" t="s">
+      <c r="C77" s="4"/>
+    </row>
+    <row r="78" hidden="1" spans="2:3">
+      <c r="B78" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C78" s="4"/>
+    </row>
+    <row r="79" hidden="1" spans="2:3">
+      <c r="B79" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="62" spans="2:3">
-      <c r="B62" s="4" t="s">
+      <c r="C79" s="4"/>
+    </row>
+    <row r="80" hidden="1" spans="2:3">
+      <c r="B80" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C62" s="4"/>
-    </row>
-    <row r="63" spans="2:3">
-      <c r="B63" s="4" t="s">
+      <c r="C80" s="4"/>
+    </row>
+    <row r="81" hidden="1" spans="2:3">
+      <c r="B81" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C81" s="4"/>
+    </row>
+    <row r="82" hidden="1" spans="2:3">
+      <c r="B82" s="4" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="64" spans="2:3">
-      <c r="B64" s="4" t="s">
+      <c r="C82" s="4"/>
+    </row>
+    <row r="83" hidden="1" spans="2:3">
+      <c r="B83" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C64" s="4"/>
-    </row>
-    <row r="65" spans="2:3">
-      <c r="B65" s="4" t="s">
+      <c r="C83" s="4"/>
+    </row>
+    <row r="84" hidden="1" spans="2:3">
+      <c r="B84" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C84" s="4"/>
+    </row>
+    <row r="85" hidden="1" spans="2:3">
+      <c r="B85" s="4" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="66" spans="2:3">
-      <c r="B66" s="4" t="s">
+      <c r="C85" s="4"/>
+    </row>
+    <row r="86" hidden="1" spans="2:3">
+      <c r="B86" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C66" s="4"/>
-    </row>
-    <row r="67" spans="2:3">
-      <c r="B67" s="4" t="s">
+      <c r="C86" s="4"/>
+    </row>
+    <row r="87" hidden="1" spans="2:3">
+      <c r="B87" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C67" s="4"/>
-    </row>
-    <row r="68" spans="2:3">
-      <c r="B68" s="4" t="s">
+      <c r="C87" s="4"/>
+    </row>
+    <row r="88" hidden="1" spans="2:3">
+      <c r="B88" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C68" s="4"/>
-    </row>
-    <row r="69" spans="2:3">
-      <c r="B69" s="4" t="s">
+      <c r="C88" s="4"/>
+    </row>
+    <row r="89" hidden="1" spans="2:3">
+      <c r="B89" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C89" s="4"/>
+    </row>
+    <row r="90" hidden="1" spans="2:3">
+      <c r="B90" s="4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="70" spans="2:3">
-      <c r="B70" s="4" t="s">
+      <c r="C90" s="4"/>
+    </row>
+    <row r="91" hidden="1" spans="2:3">
+      <c r="B91" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C91" s="4"/>
+    </row>
+    <row r="92" hidden="1" spans="2:3">
+      <c r="B92" s="4" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="71" spans="2:3">
-      <c r="B71" s="4" t="s">
+      <c r="C92" s="4"/>
+    </row>
+    <row r="93" hidden="1" spans="2:3">
+      <c r="B93" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C93" s="4"/>
+    </row>
+    <row r="94" hidden="1" spans="2:3">
+      <c r="B94" s="4" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="72" spans="2:3">
-      <c r="B72" s="4" t="s">
+      <c r="C94" s="4"/>
+    </row>
+    <row r="95" hidden="1" spans="2:3">
+      <c r="B95" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C95" s="4"/>
+    </row>
+    <row r="96" hidden="1" spans="2:3">
+      <c r="B96" s="4" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="73" spans="2:3">
-      <c r="B73" s="4" t="s">
+      <c r="C96" s="4"/>
+    </row>
+    <row r="97" hidden="1" spans="2:3">
+      <c r="B97" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C97" s="4"/>
+    </row>
+    <row r="98" hidden="1" spans="2:3">
+      <c r="B98" s="4" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="74" spans="2:3">
-      <c r="B74" s="4" t="s">
+      <c r="C98" s="4"/>
+    </row>
+    <row r="99" hidden="1" spans="2:3">
+      <c r="B99" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C99" s="4"/>
+    </row>
+    <row r="100" hidden="1" spans="2:3">
+      <c r="B100" s="4" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="75" spans="2:3">
-      <c r="B75" s="4" t="s">
+      <c r="C100" s="4"/>
+    </row>
+    <row r="101" hidden="1" spans="2:3">
+      <c r="B101" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C75" s="4"/>
-    </row>
-    <row r="76" spans="2:3">
-      <c r="B76" s="4" t="s">
+      <c r="C101" s="4"/>
+    </row>
+    <row r="102" hidden="1" spans="2:3">
+      <c r="B102" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C76" s="4"/>
-    </row>
-    <row r="77" spans="2:3">
-      <c r="B77" s="4" t="s">
+      <c r="C102" s="4"/>
+    </row>
+    <row r="103" hidden="1" spans="2:3">
+      <c r="B103" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C77" s="4"/>
-    </row>
-    <row r="78" spans="2:3">
-      <c r="B78" s="4" t="s">
+      <c r="C103" s="4"/>
+    </row>
+    <row r="104" hidden="1" spans="2:3">
+      <c r="B104" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C78" s="4"/>
-    </row>
-    <row r="79" spans="2:3">
-      <c r="B79" s="4" t="s">
+      <c r="C104" s="4"/>
+    </row>
+    <row r="105" hidden="1" spans="2:3">
+      <c r="B105" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C79" s="4"/>
-    </row>
-    <row r="80" spans="2:3">
-      <c r="B80" s="4" t="s">
+      <c r="C105" s="4"/>
+    </row>
+    <row r="106" hidden="1" spans="2:3">
+      <c r="B106" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C80" s="4"/>
-    </row>
-    <row r="81" spans="2:3">
-      <c r="B81" s="4" t="s">
+      <c r="C106" s="4"/>
+    </row>
+    <row r="107" hidden="1" spans="2:3">
+      <c r="B107" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C81" s="4"/>
-    </row>
-    <row r="82" spans="2:3">
-      <c r="B82" s="4" t="s">
+      <c r="C107" s="4"/>
+    </row>
+    <row r="108" hidden="1" spans="2:3">
+      <c r="B108" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C82" s="4"/>
-    </row>
-    <row r="83" spans="2:3">
-      <c r="B83" s="4" t="s">
+      <c r="C108" s="4"/>
+    </row>
+    <row r="109" hidden="1" spans="2:3">
+      <c r="B109" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C83" s="4"/>
-    </row>
-    <row r="84" spans="2:3">
-      <c r="B84" s="4" t="s">
+      <c r="C109" s="4"/>
+    </row>
+    <row r="110" hidden="1" spans="2:3">
+      <c r="B110" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C84" s="4"/>
-    </row>
-    <row r="85" spans="2:3">
-      <c r="B85" s="4" t="s">
+      <c r="C110" s="4"/>
+    </row>
+    <row r="111" hidden="1" spans="2:3">
+      <c r="B111" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C85" s="4"/>
-    </row>
-    <row r="86" spans="2:3">
-      <c r="B86" s="4" t="s">
+      <c r="C111" s="4"/>
+    </row>
+    <row r="112" hidden="1" spans="2:3">
+      <c r="B112" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C86" s="4"/>
-    </row>
-    <row r="87" spans="2:3">
-      <c r="B87" s="4" t="s">
+      <c r="C112" s="4"/>
+    </row>
+    <row r="113" hidden="1" spans="2:3">
+      <c r="B113" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C87" s="4"/>
-    </row>
-    <row r="88" spans="2:3">
-      <c r="B88" s="4" t="s">
+      <c r="C113" s="4"/>
+    </row>
+    <row r="114" hidden="1" spans="2:3">
+      <c r="B114" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C88" s="4"/>
-    </row>
-    <row r="89" spans="2:3">
-      <c r="B89" s="4" t="s">
+      <c r="C114" s="4"/>
+    </row>
+    <row r="115" hidden="1" spans="2:3">
+      <c r="B115" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C89" s="4"/>
-    </row>
-    <row r="90" spans="2:3">
-      <c r="B90" s="4" t="s">
+      <c r="C115" s="4"/>
+    </row>
+    <row r="116" hidden="1" spans="2:3">
+      <c r="B116" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C90" s="4"/>
-    </row>
-    <row r="91" spans="2:3">
-      <c r="B91" s="4" t="s">
+      <c r="C116" s="4"/>
+    </row>
+    <row r="117" hidden="1" spans="2:3">
+      <c r="B117" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C91" s="4"/>
-    </row>
-    <row r="92" spans="2:3">
-      <c r="B92" s="4" t="s">
+      <c r="C117" s="4"/>
+    </row>
+    <row r="118" hidden="1" spans="2:3">
+      <c r="B118" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C92" s="4"/>
-    </row>
-    <row r="93" spans="2:3">
-      <c r="B93" s="4" t="s">
+      <c r="C118" s="4"/>
+    </row>
+    <row r="119" hidden="1" spans="2:3">
+      <c r="B119" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C93" s="4"/>
-    </row>
-    <row r="94" spans="2:3">
-      <c r="B94" s="4" t="s">
+      <c r="C119" s="4"/>
+    </row>
+    <row r="120" hidden="1" spans="2:3">
+      <c r="B120" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C94" s="4"/>
-    </row>
-    <row r="95" spans="2:3">
-      <c r="B95" s="4" t="s">
+      <c r="C120" s="4"/>
+    </row>
+    <row r="121" hidden="1" spans="2:3">
+      <c r="B121" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C95" s="4"/>
-    </row>
-    <row r="96" spans="2:3">
-      <c r="B96" s="4" t="s">
+      <c r="C121" s="4"/>
+    </row>
+    <row r="122" hidden="1" spans="2:3">
+      <c r="B122" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C96" s="4"/>
-    </row>
-    <row r="97" spans="2:3">
-      <c r="B97" s="4" t="s">
+      <c r="C122" s="4"/>
+    </row>
+    <row r="123" hidden="1" spans="2:3">
+      <c r="B123" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C97" s="4"/>
-    </row>
-    <row r="98" spans="2:3">
-      <c r="B98" s="4" t="s">
+      <c r="C123" s="4"/>
+    </row>
+    <row r="124" hidden="1" spans="2:3">
+      <c r="B124" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C98" s="4"/>
-    </row>
-    <row r="99" spans="2:3">
-      <c r="B99" s="4" t="s">
+      <c r="C124" s="4"/>
+    </row>
+    <row r="125" hidden="1" spans="2:3">
+      <c r="B125" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C99" s="4"/>
-    </row>
-    <row r="100" spans="2:3">
-      <c r="B100" s="4" t="s">
+      <c r="C125" s="4"/>
+    </row>
+    <row r="126" hidden="1" spans="2:3">
+      <c r="B126" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C100" s="4"/>
-    </row>
-    <row r="101" spans="2:3">
-      <c r="B101" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C101" s="4"/>
-    </row>
-    <row r="102" spans="2:3">
-      <c r="B102" s="4" t="s">
+      <c r="C126" s="4"/>
+    </row>
+    <row r="127" hidden="1" spans="2:3">
+      <c r="B127" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C102" s="4"/>
-    </row>
-    <row r="103" spans="2:3">
-      <c r="B103" s="4" t="s">
+      <c r="C127" s="4"/>
+    </row>
+    <row r="128" hidden="1" spans="2:3">
+      <c r="B128" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C103" s="4"/>
-    </row>
-    <row r="104" spans="2:3">
-      <c r="B104" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C104" s="4"/>
-    </row>
-    <row r="105" spans="2:3">
-      <c r="B105" s="4" t="s">
+      <c r="C128" s="4"/>
+    </row>
+    <row r="129" hidden="1" spans="2:3">
+      <c r="B129" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="C105" s="4"/>
-    </row>
-    <row r="106" spans="2:3">
-      <c r="B106" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C106" s="4"/>
-    </row>
-    <row r="107" spans="2:3">
-      <c r="B107" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C107" s="4"/>
-    </row>
-    <row r="108" spans="2:3">
-      <c r="B108" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C108" s="4"/>
-    </row>
-    <row r="109" spans="2:3">
-      <c r="B109" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C109" s="4"/>
-    </row>
-    <row r="110" spans="2:3">
-      <c r="B110" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C110" s="4"/>
-    </row>
-    <row r="111" spans="2:3">
-      <c r="B111" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C111" s="4"/>
-    </row>
-    <row r="112" spans="2:3">
-      <c r="B112" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C112" s="4"/>
-    </row>
-    <row r="113" spans="2:3">
-      <c r="B113" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C113" s="4"/>
-    </row>
-    <row r="114" spans="2:3">
-      <c r="B114" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C114" s="4"/>
-    </row>
-    <row r="115" spans="2:3">
-      <c r="B115" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C115" s="4"/>
-    </row>
-    <row r="116" spans="2:3">
-      <c r="B116" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C116" s="4"/>
-    </row>
-    <row r="117" spans="2:3">
-      <c r="B117" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C117" s="4"/>
-    </row>
-    <row r="118" spans="2:3">
-      <c r="B118" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C118" s="4"/>
-    </row>
-    <row r="119" spans="2:3">
-      <c r="B119" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C119" s="4"/>
-    </row>
-    <row r="120" spans="2:3">
-      <c r="B120" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C120" s="4"/>
-    </row>
-    <row r="121" spans="2:3">
-      <c r="B121" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C121" s="4"/>
-    </row>
-    <row r="122" spans="2:3">
-      <c r="B122" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C122" s="4"/>
-    </row>
-    <row r="123" spans="2:3">
-      <c r="B123" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C123" s="4"/>
-    </row>
-    <row r="124" spans="2:3">
-      <c r="B124" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C124" s="4"/>
-    </row>
-    <row r="125" spans="2:3">
-      <c r="B125" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C125" s="4"/>
-    </row>
-    <row r="126" spans="2:3">
-      <c r="B126" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C126" s="4"/>
-    </row>
-    <row r="127" spans="2:3">
-      <c r="B127" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C127" s="4"/>
-    </row>
-    <row r="128" spans="2:3">
-      <c r="B128" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C128" s="4"/>
-    </row>
-    <row r="129" spans="2:3">
-      <c r="B129" s="4" t="s">
-        <v>149</v>
       </c>
       <c r="C129" s="4"/>
     </row>
     <row r="130" spans="2:3">
       <c r="B130" s="4" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="C130" s="4"/>
     </row>
     <row r="131" spans="2:3">
       <c r="B131" s="4" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="C131" s="4"/>
     </row>
     <row r="132" spans="2:3">
       <c r="B132" s="4" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="C132" s="4"/>
     </row>
     <row r="133" spans="2:3">
       <c r="B133" s="4" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="C133" s="4"/>
     </row>
     <row r="134" spans="2:3">
       <c r="B134" s="4" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="C134" s="4"/>
     </row>
     <row r="135" spans="2:3">
       <c r="B135" s="4" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="C135" s="4"/>
     </row>
     <row r="136" spans="2:3">
       <c r="B136" s="4" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="C136" s="4"/>
     </row>
     <row r="137" spans="2:3">
       <c r="B137" s="4" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="C137" s="4"/>
     </row>
     <row r="138" spans="2:3">
       <c r="B138" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C138" s="4"/>
+        <v>136</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="139" spans="2:3">
       <c r="B139" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C139" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="140" spans="2:3">
       <c r="B140" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C140" s="4"/>
+    </row>
+    <row r="141" spans="2:3">
+      <c r="B141" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3">
+      <c r="B142" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3">
+      <c r="B143" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3">
+      <c r="B144" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3">
+      <c r="B145" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3">
+      <c r="B146" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3">
+      <c r="B147" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3">
+      <c r="B148" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C148" s="4"/>
+    </row>
+    <row r="149" spans="2:3">
+      <c r="B149" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3">
+      <c r="B150" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3">
+      <c r="B151" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C151" s="4"/>
+    </row>
+    <row r="152" spans="2:3">
+      <c r="B152" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C152" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C140" s="4"/>
-    </row>
-    <row r="141" spans="2:3">
-      <c r="B141" s="5" t="s">
+    </row>
+    <row r="153" spans="2:3">
+      <c r="B153" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C141" s="5"/>
+      <c r="C153" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3">
+      <c r="B154" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C154" s="4"/>
+    </row>
+    <row r="155" spans="2:3">
+      <c r="B155" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3">
+      <c r="B156" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3">
+      <c r="B157" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C157" s="4"/>
+    </row>
+    <row r="158" spans="2:3">
+      <c r="B158" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C158" s="4"/>
+    </row>
+    <row r="159" spans="2:3">
+      <c r="B159" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C159" s="4"/>
+    </row>
+    <row r="160" spans="2:3">
+      <c r="B160" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C160" s="4"/>
+    </row>
+    <row r="161" spans="2:3">
+      <c r="B161" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C161" s="4"/>
+    </row>
+    <row r="162" spans="2:3">
+      <c r="B162" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C162" s="4"/>
+    </row>
+    <row r="163" spans="2:3">
+      <c r="B163" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C163" s="4"/>
+    </row>
+    <row r="164" spans="2:3">
+      <c r="B164" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="165" spans="2:4">
+      <c r="B165" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="166" spans="2:3">
+      <c r="B166" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C166" s="4"/>
+    </row>
+    <row r="167" spans="2:3">
+      <c r="B167" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C167" s="4"/>
+    </row>
+    <row r="168" spans="2:3">
+      <c r="B168" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3">
+      <c r="B169" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C169" s="4"/>
+    </row>
+    <row r="170" spans="2:3">
+      <c r="B170" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="171" spans="2:3">
+      <c r="B171" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="172" spans="2:3">
+      <c r="B172" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C172" s="4"/>
+    </row>
+    <row r="173" spans="2:3">
+      <c r="B173" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="174" spans="2:3">
+      <c r="B174" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C174" s="4"/>
+    </row>
+    <row r="175" spans="2:3">
+      <c r="B175" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C175" s="4"/>
+    </row>
+    <row r="176" spans="2:3">
+      <c r="B176" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C176" s="4"/>
+    </row>
+    <row r="177" spans="2:3">
+      <c r="B177" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="178" spans="2:3">
+      <c r="B178" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3">
+      <c r="B179" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="180" spans="2:3">
+      <c r="B180" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="181" spans="2:3">
+      <c r="B181" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="182" spans="2:3">
+      <c r="B182" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="183" spans="2:3">
+      <c r="B183" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="184" spans="2:3">
+      <c r="B184" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C184" s="4"/>
+    </row>
+    <row r="185" spans="2:3">
+      <c r="B185" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C185" s="4"/>
+    </row>
+    <row r="186" spans="2:3">
+      <c r="B186" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C186" s="4"/>
+    </row>
+    <row r="187" spans="2:3">
+      <c r="B187" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C187" s="4"/>
+    </row>
+    <row r="188" spans="2:3">
+      <c r="B188" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C188" s="4"/>
+    </row>
+    <row r="189" spans="2:3">
+      <c r="B189" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C189" s="4"/>
+    </row>
+    <row r="190" spans="2:3">
+      <c r="B190" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C190" s="4"/>
+    </row>
+    <row r="191" spans="2:3">
+      <c r="B191" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C191" s="4"/>
+    </row>
+    <row r="192" spans="2:3">
+      <c r="B192" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C192" s="4"/>
+    </row>
+    <row r="193" spans="2:3">
+      <c r="B193" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C193" s="4"/>
+    </row>
+    <row r="194" spans="2:3">
+      <c r="B194" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C194" s="4"/>
+    </row>
+    <row r="195" spans="2:3">
+      <c r="B195" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C195" s="4"/>
+    </row>
+    <row r="196" spans="2:3">
+      <c r="B196" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C196" s="4"/>
+    </row>
+    <row r="197" spans="2:3">
+      <c r="B197" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C197" s="4"/>
+    </row>
+    <row r="198" spans="2:3">
+      <c r="B198" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C198" s="4"/>
+    </row>
+    <row r="199" spans="2:3">
+      <c r="B199" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C199" s="4"/>
+    </row>
+    <row r="200" spans="2:3">
+      <c r="B200" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C200" s="4"/>
+    </row>
+    <row r="201" spans="2:3">
+      <c r="B201" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C201" s="4"/>
+    </row>
+    <row r="202" spans="2:3">
+      <c r="B202" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C202" s="4"/>
+    </row>
+    <row r="203" spans="2:3">
+      <c r="B203" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C203" s="4"/>
+    </row>
+    <row r="204" spans="2:3">
+      <c r="B204" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C204" s="4"/>
+    </row>
+    <row r="205" spans="2:3">
+      <c r="B205" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C205" s="4"/>
+    </row>
+    <row r="206" spans="2:3">
+      <c r="B206" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C206" s="4"/>
+    </row>
+    <row r="207" spans="2:3">
+      <c r="B207" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C207" s="4"/>
+    </row>
+    <row r="208" spans="2:3">
+      <c r="B208" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C208" s="4"/>
+    </row>
+    <row r="209" spans="2:3">
+      <c r="B209" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C209" s="4"/>
+    </row>
+    <row r="210" spans="2:3">
+      <c r="B210" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C210" s="4"/>
+    </row>
+    <row r="211" spans="2:3">
+      <c r="B211" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C211" s="4"/>
+    </row>
+    <row r="212" spans="2:3">
+      <c r="B212" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C212" s="4"/>
+    </row>
+    <row r="213" spans="2:3">
+      <c r="B213" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C213" s="4"/>
+    </row>
+    <row r="214" spans="2:3">
+      <c r="B214" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C214" s="4"/>
+    </row>
+    <row r="215" spans="2:3">
+      <c r="B215" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C215" s="4"/>
+    </row>
+    <row r="216" spans="2:3">
+      <c r="B216" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C216" s="4"/>
+    </row>
+    <row r="217" spans="2:3">
+      <c r="B217" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C217" s="4"/>
+    </row>
+    <row r="218" spans="2:3">
+      <c r="B218" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C218" s="4"/>
+    </row>
+    <row r="219" spans="2:3">
+      <c r="B219" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C219" s="4"/>
+    </row>
+    <row r="220" spans="2:3">
+      <c r="B220" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C220" s="4"/>
+    </row>
+    <row r="221" spans="2:3">
+      <c r="B221" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C221" s="4"/>
+    </row>
+    <row r="222" spans="2:3">
+      <c r="B222" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C222" s="4"/>
+    </row>
+    <row r="223" spans="2:3">
+      <c r="B223" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C223" s="4"/>
+    </row>
+    <row r="224" spans="2:3">
+      <c r="B224" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C224" s="4"/>
+    </row>
+    <row r="225" spans="2:3">
+      <c r="B225" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C225" s="4"/>
+    </row>
+    <row r="226" spans="2:3">
+      <c r="B226" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C226" s="4"/>
+    </row>
+    <row r="227" spans="2:3">
+      <c r="B227" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C227" s="4"/>
+    </row>
+    <row r="228" spans="2:3">
+      <c r="B228" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C228" s="4"/>
+    </row>
+    <row r="229" spans="2:3">
+      <c r="B229" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C229" s="4"/>
+    </row>
+    <row r="230" spans="2:3">
+      <c r="B230" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C230" s="4"/>
+    </row>
+    <row r="231" spans="2:3">
+      <c r="B231" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C231" s="4"/>
+    </row>
+    <row r="232" spans="2:3">
+      <c r="B232" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C232" s="4"/>
+    </row>
+    <row r="233" spans="2:3">
+      <c r="B233" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C233" s="4"/>
+    </row>
+    <row r="234" spans="2:3">
+      <c r="B234" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C234" s="4"/>
+    </row>
+    <row r="235" spans="2:3">
+      <c r="B235" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C235" s="4"/>
+    </row>
+    <row r="236" spans="2:3">
+      <c r="B236" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C236" s="4"/>
+    </row>
+    <row r="237" spans="2:3">
+      <c r="B237" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C237" s="4"/>
+    </row>
+    <row r="238" spans="2:3">
+      <c r="B238" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C238" s="4"/>
+    </row>
+    <row r="239" spans="2:3">
+      <c r="B239" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C239" s="4"/>
+    </row>
+    <row r="240" spans="2:3">
+      <c r="B240" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C240" s="4"/>
+    </row>
+    <row r="241" spans="2:3">
+      <c r="B241" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C241" s="4"/>
+    </row>
+    <row r="242" spans="2:3">
+      <c r="B242" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C242" s="4"/>
+    </row>
+    <row r="243" spans="2:3">
+      <c r="B243" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C243" s="4"/>
+    </row>
+    <row r="244" spans="2:3">
+      <c r="B244" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C244" s="4"/>
+    </row>
+    <row r="245" spans="2:3">
+      <c r="B245" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C245" s="4"/>
+    </row>
+    <row r="246" spans="2:3">
+      <c r="B246" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C246" s="4"/>
+    </row>
+    <row r="247" spans="2:3">
+      <c r="B247" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C247" s="4"/>
+    </row>
+    <row r="248" spans="2:3">
+      <c r="B248" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C248" s="4"/>
+    </row>
+    <row r="249" spans="2:3">
+      <c r="B249" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C249" s="4"/>
+    </row>
+    <row r="250" spans="2:3">
+      <c r="B250" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C250" s="4"/>
+    </row>
+    <row r="251" spans="2:3">
+      <c r="B251" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C251" s="5"/>
+    </row>
+    <row r="252" spans="2:3">
+      <c r="B252" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C252" s="5"/>
+    </row>
+    <row r="253" spans="2:3">
+      <c r="B253" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C253" s="5"/>
+    </row>
+    <row r="254" spans="2:3">
+      <c r="B254" s="5"/>
+      <c r="C254" s="5"/>
+    </row>
+    <row r="255" spans="2:3">
+      <c r="B255" s="8"/>
+      <c r="C255" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.357638888888889" right="0.357638888888889" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -2436,7 +3515,7 @@
     <oddFooter>&amp;Cページ &amp;p of &amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="82" max="16383" man="1"/>
+    <brk id="191" max="2" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Project-diagram-of-dummy-insurance-system.xlsx
+++ b/Project-diagram-of-dummy-insurance-system.xlsx
@@ -4,25 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22451" windowHeight="9840"/>
+    <workbookView windowWidth="22451" windowHeight="9900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$255</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$274</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299">
   <si>
     <t>「dummy-insurance-system」のプロジェクト構成図</t>
   </si>
   <si>
-    <t>構成図</t>
+    <t>構成図_AF</t>
   </si>
   <si>
     <t>補足説明</t>
@@ -97,6 +97,9 @@
     <t>│  │      org.eclipse.core.resources.prefs</t>
   </si>
   <si>
+    <t>│  │      org.eclipse.jdt.core.prefs</t>
+  </si>
+  <si>
     <t xml:space="preserve">│  │      </t>
   </si>
   <si>
@@ -352,6 +355,9 @@
     <t>│      │  │  │      bootstrap.min.css</t>
   </si>
   <si>
+    <t>│      │  │  │      cm_common.css</t>
+  </si>
+  <si>
     <t>│      │  │  │      cm_security.css</t>
   </si>
   <si>
@@ -376,6 +382,9 @@
     <t>│      │          cm_security.html</t>
   </si>
   <si>
+    <t>│      │          cm_task.html</t>
+  </si>
+  <si>
     <t>│      │          tc_input.html</t>
   </si>
   <si>
@@ -490,6 +499,30 @@
     <t>レイアウトを管理するクラスを格納する</t>
   </si>
   <si>
+    <t>│  │  │              │      CmTcActuarial.java</t>
+  </si>
+  <si>
+    <t>　定期医療に関する掛金算出用のレイアウトを管理するクラス　※2021/11/8追加</t>
+  </si>
+  <si>
+    <t>│  │  │              │      CmTlActuarial.java</t>
+  </si>
+  <si>
+    <t>　定期生命に関する掛金算出用のレイアウトを管理するクラス　※2021/11/8追加</t>
+  </si>
+  <si>
+    <t>│  │  │              │      CmWcActuarial.java</t>
+  </si>
+  <si>
+    <t>　終身医療に関する掛金算出用のレイアウトを管理するクラス　※2021/11/8追加</t>
+  </si>
+  <si>
+    <t>│  │  │              │      CmWlActuarial.java</t>
+  </si>
+  <si>
+    <t>　終身生命に関する掛金算出用のレイアウトを管理するクラス　※2021/11/8追加</t>
+  </si>
+  <si>
     <t>│  │  │              │      WlInput.java</t>
   </si>
   <si>
@@ -502,24 +535,45 @@
     <t>マッピング用のインターフェイス（DB接続時に必要なインターフェース）を格納する</t>
   </si>
   <si>
+    <t>│  │  │              │      CmActuarialMapper.java</t>
+  </si>
+  <si>
     <t>│  │  │              │      WlInputMapper.java</t>
   </si>
   <si>
     <t>　終身生命に関するマッピング用のインターフェイスを管理</t>
   </si>
   <si>
-    <t>│  │  │              └─service</t>
+    <t>│  │  │              ├─service</t>
   </si>
   <si>
     <t>サービスクラス（DBアクセス処理の呼出し機能を保持したクラス）を格納する</t>
   </si>
   <si>
-    <t>│  │  │                      WlInputService.java</t>
+    <t>│  │  │              │      CmActuarialService.java</t>
+  </si>
+  <si>
+    <t>　掛金算出用のサービスクラスを管理　※2021/11/8追加</t>
+  </si>
+  <si>
+    <t>│  │  │              │      WlInputService.java</t>
   </si>
   <si>
     <t>　終身生命に関するサービスクラスを管理</t>
   </si>
   <si>
+    <t>│  │  │              └─validation</t>
+  </si>
+  <si>
+    <t>バリデーション用にクラスを作成した場合、左記に格納する　※2021/11/8追加</t>
+  </si>
+  <si>
+    <t>│  │  │                      WlInputValidation.java</t>
+  </si>
+  <si>
+    <t>　終身生命に関するバリデーションを管理　※2021/11/8追加</t>
+  </si>
+  <si>
     <t xml:space="preserve">│  │  │                      </t>
   </si>
   <si>
@@ -529,6 +583,9 @@
     <t>│  │      │  application.properties</t>
   </si>
   <si>
+    <t>「～insuranc～」⇒「～insurance～」に修正　※2021/11/8　修正</t>
+  </si>
+  <si>
     <t xml:space="preserve">│  │      │  </t>
   </si>
   <si>
@@ -547,7 +604,7 @@
     <t>マッピング用のインターフェイスに対応するxmlファイルを格納する</t>
   </si>
   <si>
-    <t>│  │      │                  nothing.txt</t>
+    <t>│  │      │                  CmActuarialMapper.xml</t>
   </si>
   <si>
     <t>　メモ用のテキスト</t>
@@ -577,45 +634,6 @@
     <t>　業務選択画面、保障種類選択画面用のcss　　※2021/10/9追加</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">│  │      │  │      </t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <charset val="134"/>
-      </rPr>
-      <t>cm_security.css</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>　</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <charset val="134"/>
-      </rPr>
-      <t>保障種類選択画面用のcss</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <charset val="134"/>
-      </rPr>
-      <t>　※2021/10/09 削除</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">│  │      │  │      </t>
   </si>
   <si>
@@ -640,21 +658,16 @@
     <t>htmlファイルを管理</t>
   </si>
   <si>
+    <t>│  │              cm_error.html</t>
+  </si>
+  <si>
+    <t>　システムエラー画面　※2021/11/8追加</t>
+  </si>
+  <si>
     <t>│  │              cm_security.html</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">　保障種類選択画面 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ 明朝"/>
-        <charset val="134"/>
-      </rPr>
-      <t>※2021/10/9修正</t>
-    </r>
+    <t>　保障種類選択画面 ※2021/10/9修正</t>
   </si>
   <si>
     <t>│  │              cm_task.html</t>
@@ -762,22 +775,46 @@
     <t xml:space="preserve">    │  │          ├─domain</t>
   </si>
   <si>
+    <t xml:space="preserve">    │  │          │      CmTcActuarial.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      CmTlActuarial.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      CmWcActuarial.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      CmWlActuarial.class</t>
+  </si>
+  <si>
     <t xml:space="preserve">    │  │          │      WlInput.class</t>
   </si>
   <si>
     <t xml:space="preserve">    │  │          ├─mapper</t>
   </si>
   <si>
-    <t xml:space="preserve">    │  │          │      nothing.txt</t>
+    <t xml:space="preserve">    │  │          │      CmActuarialMapper.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      CmActuarialMapper.xml</t>
   </si>
   <si>
     <t xml:space="preserve">    │  │          │      WlInputMapper.class</t>
   </si>
   <si>
-    <t xml:space="preserve">    │  │          └─service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    │  │                  WlInputService.class</t>
+    <t xml:space="preserve">    │  │          ├─service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      CmActuarialService.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      WlInputService.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          └─validation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │                  WlInputValidation.class</t>
   </si>
   <si>
     <t xml:space="preserve">    │  │                  </t>
@@ -835,6 +872,9 @@
   </si>
   <si>
     <t xml:space="preserve">    │  └─templates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │          cm_error.html</t>
   </si>
   <si>
     <t xml:space="preserve">    │          cm_security.html</t>
@@ -881,9 +921,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -909,9 +949,69 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="ＭＳ 明朝"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ 明朝"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -935,32 +1035,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -973,17 +1057,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -999,17 +1081,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1019,50 +1101,6 @@
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ 明朝"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1080,78 +1118,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1164,13 +1130,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1200,13 +1172,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1242,25 +1226,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1315,15 +1353,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1355,17 +1384,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1385,6 +1408,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1399,15 +1446,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1416,145 +1454,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1574,13 +1612,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -1902,7 +1940,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D255"/>
+  <dimension ref="A1:D275"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -2182,13 +2220,13 @@
     </row>
     <row r="44" hidden="1" spans="2:3">
       <c r="B44" s="4" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C44" s="4"/>
     </row>
     <row r="45" hidden="1" spans="2:3">
       <c r="B45" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C45" s="4"/>
     </row>
@@ -2200,13 +2238,13 @@
     </row>
     <row r="47" hidden="1" spans="2:3">
       <c r="B47" s="4" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C47" s="4"/>
     </row>
     <row r="48" hidden="1" spans="2:3">
       <c r="B48" s="4" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C48" s="4"/>
     </row>
@@ -2218,13 +2256,13 @@
     </row>
     <row r="50" hidden="1" spans="2:3">
       <c r="B50" s="4" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C50" s="4"/>
     </row>
     <row r="51" hidden="1" spans="2:3">
       <c r="B51" s="4" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C51" s="4"/>
     </row>
@@ -2696,19 +2734,19 @@
       </c>
       <c r="C129" s="4"/>
     </row>
-    <row r="130" spans="2:3">
+    <row r="130" hidden="1" spans="2:3">
       <c r="B130" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C130" s="4"/>
     </row>
-    <row r="131" spans="2:3">
+    <row r="131" hidden="1" spans="2:3">
       <c r="B131" s="4" t="s">
         <v>129</v>
       </c>
       <c r="C131" s="4"/>
     </row>
-    <row r="132" spans="2:3">
+    <row r="132" hidden="1" spans="2:3">
       <c r="B132" s="4" t="s">
         <v>130</v>
       </c>
@@ -2748,307 +2786,309 @@
       <c r="B138" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C138" s="4" t="s">
-        <v>137</v>
-      </c>
+      <c r="C138" s="4"/>
     </row>
     <row r="139" spans="2:3">
       <c r="B139" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C139" s="4" t="s">
-        <v>139</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="C139" s="4"/>
     </row>
     <row r="140" spans="2:3">
       <c r="B140" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C140" s="4"/>
     </row>
     <row r="141" spans="2:3">
       <c r="B141" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3">
+      <c r="B142" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C141" s="4" t="s">
+      <c r="C142" s="4" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="142" spans="2:3">
-      <c r="B142" s="5" t="s">
+    <row r="143" spans="2:3">
+      <c r="B143" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C142" s="4" t="s">
+      <c r="C143" s="4"/>
+    </row>
+    <row r="144" spans="2:3">
+      <c r="B144" s="4" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="143" spans="2:3">
-      <c r="B143" s="5" t="s">
+      <c r="C144" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C143" s="6" t="s">
+    </row>
+    <row r="145" spans="2:3">
+      <c r="B145" s="4" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="144" spans="2:3">
-      <c r="B144" s="5" t="s">
+      <c r="C145" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C144" s="4" t="s">
+    </row>
+    <row r="146" spans="2:3">
+      <c r="B146" s="4" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="145" spans="2:3">
-      <c r="B145" s="5" t="s">
+      <c r="C146" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C145" s="4" t="s">
+    </row>
+    <row r="147" spans="2:3">
+      <c r="B147" s="4" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="146" spans="2:3">
-      <c r="B146" s="5" t="s">
+      <c r="C147" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C146" s="4" t="s">
+    </row>
+    <row r="148" spans="2:3">
+      <c r="B148" s="4" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="147" spans="2:3">
-      <c r="B147" s="5" t="s">
+      <c r="C148" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C147" s="4" t="s">
+    </row>
+    <row r="149" spans="2:3">
+      <c r="B149" s="4" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="148" spans="2:3">
-      <c r="B148" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C148" s="4"/>
-    </row>
-    <row r="149" spans="2:3">
-      <c r="B149" s="5" t="s">
+      <c r="C149" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C149" s="4" t="s">
+    </row>
+    <row r="150" spans="2:3">
+      <c r="B150" s="4" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="150" spans="2:3">
-      <c r="B150" s="5" t="s">
+      <c r="C150" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C150" s="4" t="s">
+    </row>
+    <row r="151" spans="2:3">
+      <c r="B151" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C151" s="4"/>
+    </row>
+    <row r="152" spans="2:3">
+      <c r="B152" s="4" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="151" spans="2:3">
-      <c r="B151" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C151" s="4"/>
-    </row>
-    <row r="152" spans="2:3">
-      <c r="B152" s="5" t="s">
+      <c r="C152" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C152" s="4" t="s">
+    </row>
+    <row r="153" spans="2:3">
+      <c r="B153" s="6" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="153" spans="2:3">
-      <c r="B153" s="5" t="s">
+      <c r="C153" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C153" s="4" t="s">
+    </row>
+    <row r="154" spans="2:3">
+      <c r="B154" s="6" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="154" spans="2:3">
-      <c r="B154" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C154" s="4"/>
+      <c r="C154" s="6" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="155" spans="2:3">
-      <c r="B155" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C155" s="4" t="s">
+      <c r="B155" s="6" t="s">
         <v>164</v>
       </c>
+      <c r="C155" s="6" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="156" spans="2:3">
-      <c r="B156" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C156" s="4" t="s">
+      <c r="B156" s="6" t="s">
         <v>166</v>
       </c>
+      <c r="C156" s="6" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="157" spans="2:3">
-      <c r="B157" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="C157" s="4"/>
+      <c r="B157" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="158" spans="2:3">
-      <c r="B158" s="5" t="s">
-        <v>168</v>
+      <c r="B158" s="4" t="s">
+        <v>143</v>
       </c>
       <c r="C158" s="4"/>
     </row>
     <row r="159" spans="2:3">
-      <c r="B159" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C159" s="4"/>
+      <c r="B159" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="160" spans="2:3">
-      <c r="B160" s="5" t="s">
-        <v>170</v>
+      <c r="B160" s="4" t="s">
+        <v>172</v>
       </c>
       <c r="C160" s="4"/>
     </row>
     <row r="161" spans="2:3">
-      <c r="B161" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C161" s="4"/>
+      <c r="B161" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="162" spans="2:3">
-      <c r="B162" s="5" t="s">
-        <v>172</v>
+      <c r="B162" s="4" t="s">
+        <v>143</v>
       </c>
       <c r="C162" s="4"/>
     </row>
     <row r="163" spans="2:3">
-      <c r="B163" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C163" s="4"/>
+      <c r="B163" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="164" spans="2:3">
-      <c r="B164" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C164" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="165" spans="2:4">
-      <c r="B165" s="5" t="s">
-        <v>176</v>
+      <c r="B164" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3">
+      <c r="B165" s="4" t="s">
+        <v>179</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="166" spans="2:3">
-      <c r="B166" s="5" t="s">
-        <v>179</v>
+      <c r="B166" s="4" t="s">
+        <v>143</v>
       </c>
       <c r="C166" s="4"/>
     </row>
     <row r="167" spans="2:3">
-      <c r="B167" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="C167" s="4"/>
+      <c r="B167" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="168" spans="2:3">
-      <c r="B168" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="C168" s="4" t="s">
-        <v>182</v>
+      <c r="B168" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="169" spans="2:3">
-      <c r="B169" s="5" t="s">
-        <v>183</v>
+      <c r="B169" s="4" t="s">
+        <v>185</v>
       </c>
       <c r="C169" s="4"/>
     </row>
     <row r="170" spans="2:3">
-      <c r="B170" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C170" s="6" t="s">
-        <v>185</v>
-      </c>
+      <c r="B170" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C170" s="4"/>
     </row>
     <row r="171" spans="2:3">
-      <c r="B171" s="6" t="s">
-        <v>186</v>
+      <c r="B171" s="4" t="s">
+        <v>187</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="172" spans="2:3">
-      <c r="B172" s="5" t="s">
-        <v>188</v>
+      <c r="B172" s="4" t="s">
+        <v>189</v>
       </c>
       <c r="C172" s="4"/>
     </row>
     <row r="173" spans="2:3">
       <c r="B173" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="C173" s="4" t="s">
         <v>190</v>
       </c>
+      <c r="C173" s="4"/>
     </row>
     <row r="174" spans="2:3">
-      <c r="B174" s="5" t="s">
+      <c r="B174" s="4" t="s">
         <v>191</v>
       </c>
       <c r="C174" s="4"/>
     </row>
     <row r="175" spans="2:3">
-      <c r="B175" s="5" t="s">
+      <c r="B175" s="4" t="s">
         <v>192</v>
       </c>
       <c r="C175" s="4"/>
     </row>
     <row r="176" spans="2:3">
-      <c r="B176" s="5" t="s">
+      <c r="B176" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C176" s="4"/>
-    </row>
-    <row r="177" spans="2:3">
-      <c r="B177" s="5" t="s">
+      <c r="C176" s="4" t="s">
         <v>194</v>
       </c>
+    </row>
+    <row r="177" spans="2:4">
+      <c r="B177" s="4" t="s">
+        <v>195</v>
+      </c>
       <c r="C177" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="178" spans="2:3">
-      <c r="B178" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C178" s="4" t="s">
-        <v>197</v>
-      </c>
+      <c r="B178" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C178" s="4"/>
     </row>
     <row r="179" spans="2:3">
-      <c r="B179" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="C179" s="6" t="s">
+      <c r="B179" s="4" t="s">
         <v>199</v>
       </c>
+      <c r="C179" s="4"/>
     </row>
     <row r="180" spans="2:3">
-      <c r="B180" s="5" t="s">
+      <c r="B180" s="4" t="s">
         <v>200</v>
       </c>
       <c r="C180" s="4" t="s">
@@ -3056,456 +3096,593 @@
       </c>
     </row>
     <row r="181" spans="2:3">
-      <c r="B181" s="5" t="s">
+      <c r="B181" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C181" s="4" t="s">
+      <c r="C181" s="5"/>
+    </row>
+    <row r="182" spans="2:3">
+      <c r="B182" s="4" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="182" spans="2:3">
-      <c r="B182" s="5" t="s">
+      <c r="C182" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="C182" s="4" t="s">
+    </row>
+    <row r="183" spans="2:3">
+      <c r="B183" s="4" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="183" spans="2:3">
-      <c r="B183" s="5" t="s">
+      <c r="C183" s="5"/>
+    </row>
+    <row r="184" spans="2:3">
+      <c r="B184" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C183" s="4" t="s">
+      <c r="C184" s="5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="184" spans="2:3">
-      <c r="B184" s="5" t="s">
+    <row r="185" spans="2:3">
+      <c r="B185" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C184" s="4"/>
-    </row>
-    <row r="185" spans="2:3">
-      <c r="B185" s="5" t="s">
+      <c r="C185" s="5"/>
+    </row>
+    <row r="186" spans="2:3">
+      <c r="B186" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C185" s="4"/>
-    </row>
-    <row r="186" spans="2:3">
-      <c r="B186" s="5" t="s">
+      <c r="C186" s="5"/>
+    </row>
+    <row r="187" spans="2:3">
+      <c r="B187" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C186" s="4"/>
-    </row>
-    <row r="187" spans="2:3">
-      <c r="B187" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C187" s="4"/>
+      <c r="C187" s="5"/>
     </row>
     <row r="188" spans="2:3">
-      <c r="B188" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C188" s="4"/>
+      <c r="B188" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="189" spans="2:3">
-      <c r="B189" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C189" s="4"/>
+      <c r="B189" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="190" spans="2:3">
-      <c r="B190" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="C190" s="4"/>
+      <c r="B190" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="191" spans="2:3">
-      <c r="B191" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C191" s="4"/>
+      <c r="B191" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="192" spans="2:3">
-      <c r="B192" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C192" s="4"/>
+      <c r="B192" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="193" spans="2:3">
-      <c r="B193" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="C193" s="4"/>
+      <c r="B193" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="194" spans="2:3">
-      <c r="B194" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="C194" s="4"/>
+      <c r="B194" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="195" spans="2:3">
-      <c r="B195" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="C195" s="4"/>
+      <c r="B195" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="196" spans="2:3">
-      <c r="B196" s="5" t="s">
-        <v>217</v>
+      <c r="B196" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="C196" s="4"/>
     </row>
     <row r="197" spans="2:3">
-      <c r="B197" s="5" t="s">
-        <v>218</v>
+      <c r="B197" s="4" t="s">
+        <v>228</v>
       </c>
       <c r="C197" s="4"/>
     </row>
     <row r="198" spans="2:3">
-      <c r="B198" s="5" t="s">
-        <v>219</v>
+      <c r="B198" s="4" t="s">
+        <v>229</v>
       </c>
       <c r="C198" s="4"/>
     </row>
     <row r="199" spans="2:3">
-      <c r="B199" s="5" t="s">
-        <v>220</v>
+      <c r="B199" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="C199" s="4"/>
     </row>
     <row r="200" spans="2:3">
-      <c r="B200" s="5" t="s">
-        <v>221</v>
+      <c r="B200" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="C200" s="4"/>
     </row>
     <row r="201" spans="2:3">
-      <c r="B201" s="5" t="s">
-        <v>222</v>
+      <c r="B201" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="C201" s="4"/>
     </row>
     <row r="202" spans="2:3">
-      <c r="B202" s="5" t="s">
-        <v>223</v>
+      <c r="B202" s="4" t="s">
+        <v>230</v>
       </c>
       <c r="C202" s="4"/>
     </row>
     <row r="203" spans="2:3">
-      <c r="B203" s="5" t="s">
-        <v>224</v>
+      <c r="B203" s="4" t="s">
+        <v>231</v>
       </c>
       <c r="C203" s="4"/>
     </row>
     <row r="204" spans="2:3">
-      <c r="B204" s="5" t="s">
-        <v>225</v>
+      <c r="B204" s="4" t="s">
+        <v>232</v>
       </c>
       <c r="C204" s="4"/>
     </row>
     <row r="205" spans="2:3">
-      <c r="B205" s="5" t="s">
-        <v>226</v>
+      <c r="B205" s="4" t="s">
+        <v>233</v>
       </c>
       <c r="C205" s="4"/>
     </row>
     <row r="206" spans="2:3">
-      <c r="B206" s="5" t="s">
-        <v>227</v>
+      <c r="B206" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="C206" s="4"/>
     </row>
     <row r="207" spans="2:3">
-      <c r="B207" s="5" t="s">
-        <v>228</v>
+      <c r="B207" s="4" t="s">
+        <v>235</v>
       </c>
       <c r="C207" s="4"/>
     </row>
     <row r="208" spans="2:3">
-      <c r="B208" s="5" t="s">
-        <v>229</v>
+      <c r="B208" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="C208" s="4"/>
     </row>
     <row r="209" spans="2:3">
-      <c r="B209" s="5" t="s">
-        <v>230</v>
+      <c r="B209" s="4" t="s">
+        <v>237</v>
       </c>
       <c r="C209" s="4"/>
     </row>
     <row r="210" spans="2:3">
-      <c r="B210" s="5" t="s">
-        <v>231</v>
+      <c r="B210" s="4" t="s">
+        <v>238</v>
       </c>
       <c r="C210" s="4"/>
     </row>
     <row r="211" spans="2:3">
-      <c r="B211" s="5" t="s">
-        <v>224</v>
+      <c r="B211" s="4" t="s">
+        <v>239</v>
       </c>
       <c r="C211" s="4"/>
     </row>
     <row r="212" spans="2:3">
-      <c r="B212" s="5" t="s">
-        <v>232</v>
+      <c r="B212" s="4" t="s">
+        <v>240</v>
       </c>
       <c r="C212" s="4"/>
     </row>
     <row r="213" spans="2:3">
-      <c r="B213" s="5" t="s">
-        <v>233</v>
+      <c r="B213" s="4" t="s">
+        <v>241</v>
       </c>
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="2:3">
-      <c r="B214" s="5" t="s">
-        <v>224</v>
+      <c r="B214" s="4" t="s">
+        <v>242</v>
       </c>
       <c r="C214" s="4"/>
     </row>
     <row r="215" spans="2:3">
-      <c r="B215" s="5" t="s">
-        <v>234</v>
+      <c r="B215" s="4" t="s">
+        <v>243</v>
       </c>
       <c r="C215" s="4"/>
     </row>
     <row r="216" spans="2:3">
-      <c r="B216" s="5" t="s">
-        <v>235</v>
+      <c r="B216" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="C216" s="4"/>
     </row>
     <row r="217" spans="2:3">
-      <c r="B217" s="5" t="s">
-        <v>236</v>
+      <c r="B217" s="4" t="s">
+        <v>245</v>
       </c>
       <c r="C217" s="4"/>
     </row>
     <row r="218" spans="2:3">
-      <c r="B218" s="5" t="s">
-        <v>224</v>
+      <c r="B218" s="4" t="s">
+        <v>246</v>
       </c>
       <c r="C218" s="4"/>
     </row>
     <row r="219" spans="2:3">
-      <c r="B219" s="5" t="s">
-        <v>237</v>
+      <c r="B219" s="4" t="s">
+        <v>247</v>
       </c>
       <c r="C219" s="4"/>
     </row>
     <row r="220" spans="2:3">
-      <c r="B220" s="5" t="s">
-        <v>238</v>
+      <c r="B220" s="4" t="s">
+        <v>248</v>
       </c>
       <c r="C220" s="4"/>
     </row>
     <row r="221" spans="2:3">
-      <c r="B221" s="5" t="s">
-        <v>239</v>
+      <c r="B221" s="4" t="s">
+        <v>249</v>
       </c>
       <c r="C221" s="4"/>
     </row>
     <row r="222" spans="2:3">
-      <c r="B222" s="5" t="s">
-        <v>240</v>
+      <c r="B222" s="4" t="s">
+        <v>250</v>
       </c>
       <c r="C222" s="4"/>
     </row>
     <row r="223" spans="2:3">
-      <c r="B223" s="5" t="s">
-        <v>241</v>
+      <c r="B223" s="4" t="s">
+        <v>243</v>
       </c>
       <c r="C223" s="4"/>
     </row>
     <row r="224" spans="2:3">
-      <c r="B224" s="5" t="s">
-        <v>242</v>
+      <c r="B224" s="4" t="s">
+        <v>251</v>
       </c>
       <c r="C224" s="4"/>
     </row>
     <row r="225" spans="2:3">
-      <c r="B225" s="5" t="s">
+      <c r="B225" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C225" s="4"/>
+    </row>
+    <row r="226" spans="2:3">
+      <c r="B226" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C226" s="4"/>
+    </row>
+    <row r="227" spans="2:3">
+      <c r="B227" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C227" s="4"/>
+    </row>
+    <row r="228" spans="2:3">
+      <c r="B228" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C228" s="4"/>
+    </row>
+    <row r="229" spans="2:3">
+      <c r="B229" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C229" s="4"/>
+    </row>
+    <row r="230" spans="2:3">
+      <c r="B230" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="C225" s="4"/>
-    </row>
-    <row r="226" spans="2:3">
-      <c r="B226" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="C226" s="4"/>
-    </row>
-    <row r="227" spans="2:3">
-      <c r="B227" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="C227" s="4"/>
-    </row>
-    <row r="228" spans="2:3">
-      <c r="B228" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="C228" s="4"/>
-    </row>
-    <row r="229" spans="2:3">
-      <c r="B229" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="C229" s="4"/>
-    </row>
-    <row r="230" spans="2:3">
-      <c r="B230" s="5" t="s">
-        <v>239</v>
-      </c>
       <c r="C230" s="4"/>
     </row>
     <row r="231" spans="2:3">
-      <c r="B231" s="5" t="s">
-        <v>248</v>
+      <c r="B231" s="4" t="s">
+        <v>257</v>
       </c>
       <c r="C231" s="4"/>
     </row>
     <row r="232" spans="2:3">
-      <c r="B232" s="5" t="s">
-        <v>249</v>
+      <c r="B232" s="4" t="s">
+        <v>258</v>
       </c>
       <c r="C232" s="4"/>
     </row>
     <row r="233" spans="2:3">
-      <c r="B233" s="5" t="s">
-        <v>250</v>
+      <c r="B233" s="4" t="s">
+        <v>259</v>
       </c>
       <c r="C233" s="4"/>
     </row>
     <row r="234" spans="2:3">
-      <c r="B234" s="5" t="s">
-        <v>251</v>
+      <c r="B234" s="4" t="s">
+        <v>260</v>
       </c>
       <c r="C234" s="4"/>
     </row>
     <row r="235" spans="2:3">
-      <c r="B235" s="5" t="s">
-        <v>252</v>
+      <c r="B235" s="4" t="s">
+        <v>243</v>
       </c>
       <c r="C235" s="4"/>
     </row>
     <row r="236" spans="2:3">
-      <c r="B236" s="5" t="s">
-        <v>253</v>
+      <c r="B236" s="4" t="s">
+        <v>261</v>
       </c>
       <c r="C236" s="4"/>
     </row>
     <row r="237" spans="2:3">
-      <c r="B237" s="5" t="s">
-        <v>254</v>
+      <c r="B237" s="4" t="s">
+        <v>262</v>
       </c>
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="2:3">
-      <c r="B238" s="5" t="s">
-        <v>255</v>
+      <c r="B238" s="4" t="s">
+        <v>263</v>
       </c>
       <c r="C238" s="4"/>
     </row>
     <row r="239" spans="2:3">
-      <c r="B239" s="5" t="s">
-        <v>256</v>
+      <c r="B239" s="4" t="s">
+        <v>243</v>
       </c>
       <c r="C239" s="4"/>
     </row>
     <row r="240" spans="2:3">
-      <c r="B240" s="5" t="s">
-        <v>257</v>
+      <c r="B240" s="4" t="s">
+        <v>264</v>
       </c>
       <c r="C240" s="4"/>
     </row>
     <row r="241" spans="2:3">
-      <c r="B241" s="5" t="s">
-        <v>258</v>
+      <c r="B241" s="4" t="s">
+        <v>265</v>
       </c>
       <c r="C241" s="4"/>
     </row>
     <row r="242" spans="2:3">
-      <c r="B242" s="5" t="s">
-        <v>259</v>
+      <c r="B242" s="4" t="s">
+        <v>266</v>
       </c>
       <c r="C242" s="4"/>
     </row>
     <row r="243" spans="2:3">
-      <c r="B243" s="5" t="s">
-        <v>260</v>
+      <c r="B243" s="4" t="s">
+        <v>267</v>
       </c>
       <c r="C243" s="4"/>
     </row>
     <row r="244" spans="2:3">
-      <c r="B244" s="5" t="s">
-        <v>261</v>
+      <c r="B244" s="4" t="s">
+        <v>268</v>
       </c>
       <c r="C244" s="4"/>
     </row>
     <row r="245" spans="2:3">
-      <c r="B245" s="5" t="s">
-        <v>262</v>
+      <c r="B245" s="4" t="s">
+        <v>269</v>
       </c>
       <c r="C245" s="4"/>
     </row>
     <row r="246" spans="2:3">
-      <c r="B246" s="5" t="s">
-        <v>263</v>
+      <c r="B246" s="4" t="s">
+        <v>270</v>
       </c>
       <c r="C246" s="4"/>
     </row>
     <row r="247" spans="2:3">
-      <c r="B247" s="5" t="s">
-        <v>264</v>
+      <c r="B247" s="4" t="s">
+        <v>271</v>
       </c>
       <c r="C247" s="4"/>
     </row>
     <row r="248" spans="2:3">
-      <c r="B248" s="5" t="s">
-        <v>265</v>
+      <c r="B248" s="4" t="s">
+        <v>272</v>
       </c>
       <c r="C248" s="4"/>
     </row>
     <row r="249" spans="2:3">
-      <c r="B249" s="5" t="s">
+      <c r="B249" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C249" s="4"/>
+    </row>
+    <row r="250" spans="2:3">
+      <c r="B250" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C250" s="4"/>
+    </row>
+    <row r="251" spans="2:3">
+      <c r="B251" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="C249" s="4"/>
-    </row>
-    <row r="250" spans="2:3">
-      <c r="B250" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="C250" s="4"/>
-    </row>
-    <row r="251" spans="2:3">
-      <c r="B251" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="C251" s="5"/>
+      <c r="C251" s="4"/>
     </row>
     <row r="252" spans="2:3">
-      <c r="B252" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="C252" s="5"/>
+      <c r="B252" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C252" s="4"/>
     </row>
     <row r="253" spans="2:3">
-      <c r="B253" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="C253" s="5"/>
+      <c r="B253" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C253" s="4"/>
     </row>
     <row r="254" spans="2:3">
-      <c r="B254" s="5"/>
-      <c r="C254" s="5"/>
+      <c r="B254" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C254" s="4"/>
     </row>
     <row r="255" spans="2:3">
-      <c r="B255" s="8"/>
-      <c r="C255" s="8"/>
+      <c r="B255" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C255" s="4"/>
+    </row>
+    <row r="256" spans="2:3">
+      <c r="B256" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C256" s="4"/>
+    </row>
+    <row r="257" spans="2:3">
+      <c r="B257" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C257" s="4"/>
+    </row>
+    <row r="258" spans="2:3">
+      <c r="B258" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C258" s="4"/>
+    </row>
+    <row r="259" spans="2:3">
+      <c r="B259" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C259" s="4"/>
+    </row>
+    <row r="260" spans="2:3">
+      <c r="B260" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C260" s="4"/>
+    </row>
+    <row r="261" spans="2:3">
+      <c r="B261" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C261" s="4"/>
+    </row>
+    <row r="262" spans="2:3">
+      <c r="B262" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C262" s="4"/>
+    </row>
+    <row r="263" spans="2:3">
+      <c r="B263" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="C263" s="4"/>
+    </row>
+    <row r="264" spans="2:3">
+      <c r="B264" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="C264" s="4"/>
+    </row>
+    <row r="265" spans="2:3">
+      <c r="B265" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="C265" s="4"/>
+    </row>
+    <row r="266" spans="2:3">
+      <c r="B266" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="C266" s="4"/>
+    </row>
+    <row r="267" spans="2:3">
+      <c r="B267" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="C267" s="4"/>
+    </row>
+    <row r="268" spans="2:3">
+      <c r="B268" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="C268" s="7"/>
+    </row>
+    <row r="269" spans="2:3">
+      <c r="B269" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="C269" s="7"/>
+    </row>
+    <row r="270" spans="2:3">
+      <c r="B270" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="C270" s="7"/>
+    </row>
+    <row r="271" spans="2:3">
+      <c r="B271" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C271" s="7"/>
+    </row>
+    <row r="272" spans="2:3">
+      <c r="B272" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="C272" s="7"/>
+    </row>
+    <row r="273" spans="2:3">
+      <c r="B273" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="C273" s="7"/>
+    </row>
+    <row r="274" spans="2:3">
+      <c r="B274" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="C274" s="8"/>
+    </row>
+    <row r="275" spans="2:2">
+      <c r="B275" s="1" t="s">
+        <v>298</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.357638888888889" right="0.357638888888889" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -3515,7 +3692,7 @@
     <oddFooter>&amp;Cページ &amp;p of &amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="191" max="2" man="1"/>
+    <brk id="203" max="2" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Project-diagram-of-dummy-insurance-system.xlsx
+++ b/Project-diagram-of-dummy-insurance-system.xlsx
@@ -22,7 +22,7 @@
     <t>「dummy-insurance-system」のプロジェクト構成図</t>
   </si>
   <si>
-    <t>構成図_AF</t>
+    <t>構成図</t>
   </si>
   <si>
     <t>補足説明</t>
@@ -923,8 +923,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -959,25 +959,39 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1000,7 +1014,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1015,50 +1036,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1080,7 +1058,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -1089,15 +1067,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1118,7 +1118,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1136,13 +1136,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1154,19 +1214,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1178,19 +1232,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1220,85 +1274,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1351,9 +1351,53 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1373,41 +1417,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1419,15 +1428,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1454,149 +1454,149 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1616,9 +1616,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -3578,106 +3575,106 @@
       <c r="C257" s="4"/>
     </row>
     <row r="258" spans="2:3">
-      <c r="B258" s="7" t="s">
+      <c r="B258" s="4" t="s">
         <v>281</v>
       </c>
       <c r="C258" s="4"/>
     </row>
     <row r="259" spans="2:3">
-      <c r="B259" s="7" t="s">
+      <c r="B259" s="4" t="s">
         <v>282</v>
       </c>
       <c r="C259" s="4"/>
     </row>
     <row r="260" spans="2:3">
-      <c r="B260" s="7" t="s">
+      <c r="B260" s="4" t="s">
         <v>283</v>
       </c>
       <c r="C260" s="4"/>
     </row>
     <row r="261" spans="2:3">
-      <c r="B261" s="7" t="s">
+      <c r="B261" s="4" t="s">
         <v>284</v>
       </c>
       <c r="C261" s="4"/>
     </row>
     <row r="262" spans="2:3">
-      <c r="B262" s="7" t="s">
+      <c r="B262" s="4" t="s">
         <v>285</v>
       </c>
       <c r="C262" s="4"/>
     </row>
     <row r="263" spans="2:3">
-      <c r="B263" s="7" t="s">
+      <c r="B263" s="4" t="s">
         <v>286</v>
       </c>
       <c r="C263" s="4"/>
     </row>
     <row r="264" spans="2:3">
-      <c r="B264" s="7" t="s">
+      <c r="B264" s="4" t="s">
         <v>287</v>
       </c>
       <c r="C264" s="4"/>
     </row>
     <row r="265" spans="2:3">
-      <c r="B265" s="7" t="s">
+      <c r="B265" s="4" t="s">
         <v>288</v>
       </c>
       <c r="C265" s="4"/>
     </row>
     <row r="266" spans="2:3">
-      <c r="B266" s="7" t="s">
+      <c r="B266" s="4" t="s">
         <v>289</v>
       </c>
       <c r="C266" s="4"/>
     </row>
     <row r="267" spans="2:3">
-      <c r="B267" s="7" t="s">
+      <c r="B267" s="4" t="s">
         <v>290</v>
       </c>
       <c r="C267" s="4"/>
     </row>
     <row r="268" spans="2:3">
-      <c r="B268" s="7" t="s">
+      <c r="B268" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="C268" s="7"/>
+      <c r="C268" s="4"/>
     </row>
     <row r="269" spans="2:3">
-      <c r="B269" s="7" t="s">
+      <c r="B269" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="C269" s="7"/>
+      <c r="C269" s="4"/>
     </row>
     <row r="270" spans="2:3">
-      <c r="B270" s="7" t="s">
+      <c r="B270" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="C270" s="7"/>
+      <c r="C270" s="4"/>
     </row>
     <row r="271" spans="2:3">
-      <c r="B271" s="7" t="s">
+      <c r="B271" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="C271" s="7"/>
+      <c r="C271" s="4"/>
     </row>
     <row r="272" spans="2:3">
-      <c r="B272" s="7" t="s">
+      <c r="B272" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="C272" s="7"/>
+      <c r="C272" s="4"/>
     </row>
     <row r="273" spans="2:3">
-      <c r="B273" s="7" t="s">
+      <c r="B273" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="C273" s="7"/>
+      <c r="C273" s="4"/>
     </row>
     <row r="274" spans="2:3">
-      <c r="B274" s="8" t="s">
+      <c r="B274" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="C274" s="8"/>
+      <c r="C274" s="7"/>
     </row>
     <row r="275" spans="2:2">
       <c r="B275" s="1" t="s">

--- a/Project-diagram-of-dummy-insurance-system.xlsx
+++ b/Project-diagram-of-dummy-insurance-system.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300">
   <si>
     <t>「dummy-insurance-system」のプロジェクト構成図</t>
   </si>
@@ -536,6 +536,9 @@
   </si>
   <si>
     <t>│  │  │              │      CmActuarialMapper.java</t>
+  </si>
+  <si>
+    <t>　掛金算出用に関するマッピング用のインターフェイスを管理　※2021/11/8追加</t>
   </si>
   <si>
     <t>│  │  │              │      WlInputMapper.java</t>
@@ -921,10 +924,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -960,13 +963,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -998,10 +994,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1020,16 +1024,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1058,18 +1062,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1083,6 +1079,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1118,13 +1121,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1142,7 +1283,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1154,151 +1295,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1393,6 +1396,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1431,21 +1449,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1454,145 +1457,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2944,17 +2947,19 @@
       </c>
     </row>
     <row r="160" spans="2:3">
-      <c r="B160" s="4" t="s">
+      <c r="B160" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C160" s="4"/>
+      <c r="C160" s="6" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="161" spans="2:3">
       <c r="B161" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="162" spans="2:3">
@@ -2965,26 +2970,26 @@
     </row>
     <row r="163" spans="2:3">
       <c r="B163" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="164" spans="2:3">
       <c r="B164" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="165" spans="2:3">
       <c r="B165" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="166" spans="2:3">
@@ -2995,228 +3000,228 @@
     </row>
     <row r="167" spans="2:3">
       <c r="B167" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="168" spans="2:3">
       <c r="B168" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="169" spans="2:3">
       <c r="B169" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C169" s="4"/>
     </row>
     <row r="170" spans="2:3">
       <c r="B170" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C170" s="4"/>
     </row>
     <row r="171" spans="2:3">
       <c r="B171" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="172" spans="2:3">
       <c r="B172" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C172" s="4"/>
     </row>
     <row r="173" spans="2:3">
       <c r="B173" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C173" s="4"/>
     </row>
     <row r="174" spans="2:3">
       <c r="B174" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C174" s="4"/>
     </row>
     <row r="175" spans="2:3">
       <c r="B175" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C175" s="4"/>
     </row>
     <row r="176" spans="2:3">
       <c r="B176" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="177" spans="2:4">
       <c r="B177" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="178" spans="2:3">
       <c r="B178" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C178" s="4"/>
     </row>
     <row r="179" spans="2:3">
       <c r="B179" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C179" s="4"/>
     </row>
     <row r="180" spans="2:3">
       <c r="B180" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="181" spans="2:3">
       <c r="B181" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C181" s="5"/>
     </row>
     <row r="182" spans="2:3">
       <c r="B182" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="183" spans="2:3">
       <c r="B183" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C183" s="5"/>
     </row>
     <row r="184" spans="2:3">
       <c r="B184" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="185" spans="2:3">
       <c r="B185" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C185" s="5"/>
     </row>
     <row r="186" spans="2:3">
       <c r="B186" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C186" s="5"/>
     </row>
     <row r="187" spans="2:3">
       <c r="B187" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C187" s="5"/>
     </row>
     <row r="188" spans="2:3">
       <c r="B188" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="189" spans="2:3">
       <c r="B189" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="190" spans="2:3">
       <c r="B190" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="191" spans="2:3">
       <c r="B191" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="192" spans="2:3">
       <c r="B192" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="193" spans="2:3">
       <c r="B193" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="194" spans="2:3">
       <c r="B194" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="195" spans="2:3">
       <c r="B195" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="196" spans="2:3">
       <c r="B196" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C196" s="4"/>
     </row>
     <row r="197" spans="2:3">
       <c r="B197" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C197" s="4"/>
     </row>
     <row r="198" spans="2:3">
       <c r="B198" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C198" s="4"/>
     </row>
@@ -3240,445 +3245,445 @@
     </row>
     <row r="202" spans="2:3">
       <c r="B202" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C202" s="4"/>
     </row>
     <row r="203" spans="2:3">
       <c r="B203" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C203" s="4"/>
     </row>
     <row r="204" spans="2:3">
       <c r="B204" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C204" s="4"/>
     </row>
     <row r="205" spans="2:3">
       <c r="B205" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C205" s="4"/>
     </row>
     <row r="206" spans="2:3">
       <c r="B206" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C206" s="4"/>
     </row>
     <row r="207" spans="2:3">
       <c r="B207" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C207" s="4"/>
     </row>
     <row r="208" spans="2:3">
       <c r="B208" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C208" s="4"/>
     </row>
     <row r="209" spans="2:3">
       <c r="B209" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C209" s="4"/>
     </row>
     <row r="210" spans="2:3">
       <c r="B210" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C210" s="4"/>
     </row>
     <row r="211" spans="2:3">
       <c r="B211" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C211" s="4"/>
     </row>
     <row r="212" spans="2:3">
       <c r="B212" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C212" s="4"/>
     </row>
     <row r="213" spans="2:3">
       <c r="B213" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="2:3">
       <c r="B214" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C214" s="4"/>
     </row>
     <row r="215" spans="2:3">
       <c r="B215" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C215" s="4"/>
     </row>
     <row r="216" spans="2:3">
       <c r="B216" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C216" s="4"/>
     </row>
     <row r="217" spans="2:3">
       <c r="B217" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C217" s="4"/>
     </row>
     <row r="218" spans="2:3">
       <c r="B218" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C218" s="4"/>
     </row>
     <row r="219" spans="2:3">
       <c r="B219" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C219" s="4"/>
     </row>
     <row r="220" spans="2:3">
       <c r="B220" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C220" s="4"/>
     </row>
     <row r="221" spans="2:3">
       <c r="B221" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C221" s="4"/>
     </row>
     <row r="222" spans="2:3">
       <c r="B222" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C222" s="4"/>
     </row>
     <row r="223" spans="2:3">
       <c r="B223" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C223" s="4"/>
     </row>
     <row r="224" spans="2:3">
       <c r="B224" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C224" s="4"/>
     </row>
     <row r="225" spans="2:3">
       <c r="B225" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C225" s="4"/>
     </row>
     <row r="226" spans="2:3">
       <c r="B226" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C226" s="4"/>
     </row>
     <row r="227" spans="2:3">
       <c r="B227" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C227" s="4"/>
     </row>
     <row r="228" spans="2:3">
       <c r="B228" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C228" s="4"/>
     </row>
     <row r="229" spans="2:3">
       <c r="B229" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C229" s="4"/>
     </row>
     <row r="230" spans="2:3">
       <c r="B230" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C230" s="4"/>
     </row>
     <row r="231" spans="2:3">
       <c r="B231" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C231" s="4"/>
     </row>
     <row r="232" spans="2:3">
       <c r="B232" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C232" s="4"/>
     </row>
     <row r="233" spans="2:3">
       <c r="B233" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C233" s="4"/>
     </row>
     <row r="234" spans="2:3">
       <c r="B234" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C234" s="4"/>
     </row>
     <row r="235" spans="2:3">
       <c r="B235" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C235" s="4"/>
     </row>
     <row r="236" spans="2:3">
       <c r="B236" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C236" s="4"/>
     </row>
     <row r="237" spans="2:3">
       <c r="B237" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="2:3">
       <c r="B238" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C238" s="4"/>
     </row>
     <row r="239" spans="2:3">
       <c r="B239" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C239" s="4"/>
     </row>
     <row r="240" spans="2:3">
       <c r="B240" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C240" s="4"/>
     </row>
     <row r="241" spans="2:3">
       <c r="B241" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C241" s="4"/>
     </row>
     <row r="242" spans="2:3">
       <c r="B242" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C242" s="4"/>
     </row>
     <row r="243" spans="2:3">
       <c r="B243" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C243" s="4"/>
     </row>
     <row r="244" spans="2:3">
       <c r="B244" s="4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C244" s="4"/>
     </row>
     <row r="245" spans="2:3">
       <c r="B245" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C245" s="4"/>
     </row>
     <row r="246" spans="2:3">
       <c r="B246" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C246" s="4"/>
     </row>
     <row r="247" spans="2:3">
       <c r="B247" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C247" s="4"/>
     </row>
     <row r="248" spans="2:3">
       <c r="B248" s="4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C248" s="4"/>
     </row>
     <row r="249" spans="2:3">
       <c r="B249" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C249" s="4"/>
     </row>
     <row r="250" spans="2:3">
       <c r="B250" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C250" s="4"/>
     </row>
     <row r="251" spans="2:3">
       <c r="B251" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C251" s="4"/>
     </row>
     <row r="252" spans="2:3">
       <c r="B252" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C252" s="4"/>
     </row>
     <row r="253" spans="2:3">
       <c r="B253" s="4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C253" s="4"/>
     </row>
     <row r="254" spans="2:3">
       <c r="B254" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C254" s="4"/>
     </row>
     <row r="255" spans="2:3">
       <c r="B255" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C255" s="4"/>
     </row>
     <row r="256" spans="2:3">
       <c r="B256" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C256" s="4"/>
     </row>
     <row r="257" spans="2:3">
       <c r="B257" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C257" s="4"/>
     </row>
     <row r="258" spans="2:3">
       <c r="B258" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C258" s="4"/>
     </row>
     <row r="259" spans="2:3">
       <c r="B259" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C259" s="4"/>
     </row>
     <row r="260" spans="2:3">
       <c r="B260" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C260" s="4"/>
     </row>
     <row r="261" spans="2:3">
       <c r="B261" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C261" s="4"/>
     </row>
     <row r="262" spans="2:3">
       <c r="B262" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C262" s="4"/>
     </row>
     <row r="263" spans="2:3">
       <c r="B263" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C263" s="4"/>
     </row>
     <row r="264" spans="2:3">
       <c r="B264" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C264" s="4"/>
     </row>
     <row r="265" spans="2:3">
       <c r="B265" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C265" s="4"/>
     </row>
     <row r="266" spans="2:3">
       <c r="B266" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C266" s="4"/>
     </row>
     <row r="267" spans="2:3">
       <c r="B267" s="4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C267" s="4"/>
     </row>
     <row r="268" spans="2:3">
       <c r="B268" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C268" s="4"/>
     </row>
     <row r="269" spans="2:3">
       <c r="B269" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C269" s="4"/>
     </row>
     <row r="270" spans="2:3">
       <c r="B270" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C270" s="4"/>
     </row>
     <row r="271" spans="2:3">
       <c r="B271" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C271" s="4"/>
     </row>
     <row r="272" spans="2:3">
       <c r="B272" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C272" s="4"/>
     </row>
     <row r="273" spans="2:3">
       <c r="B273" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C273" s="4"/>
     </row>
     <row r="274" spans="2:3">
       <c r="B274" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C274" s="7"/>
     </row>
     <row r="275" spans="2:2">
       <c r="B275" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>

--- a/Project-diagram-of-dummy-insurance-system.xlsx
+++ b/Project-diagram-of-dummy-insurance-system.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299">
   <si>
     <t>「dummy-insurance-system」のプロジェクト構成図</t>
   </si>
@@ -610,10 +610,7 @@
     <t>│  │      │                  CmActuarialMapper.xml</t>
   </si>
   <si>
-    <t>　メモ用のテキスト</t>
-  </si>
-  <si>
-    <t>GitHubへプロジェクトをアップロードした際、空のフォルダは削除されるため、それを防ぐためのファイル</t>
+    <t>　掛金算出用の数理テーブルへアクセスするxmlファイルを管理　※2021/11/8追加</t>
   </si>
   <si>
     <t xml:space="preserve">│  │      │                  </t>
@@ -924,10 +921,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -963,13 +960,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1001,9 +1005,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1026,7 +1030,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1034,13 +1038,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1069,9 +1066,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1093,7 +1090,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1121,7 +1118,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1145,13 +1142,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1181,7 +1178,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1199,7 +1196,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1211,7 +1214,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1230,78 +1299,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1396,21 +1393,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1449,6 +1431,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1460,79 +1457,79 @@
     <xf numFmtId="0" fontId="23" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1541,61 +1538,61 @@
     <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1940,7 +1937,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D275"/>
+  <dimension ref="A1:C275"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -1948,7 +1945,7 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="10.8" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="10.8" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="3.22222222222222" style="1" customWidth="1"/>
     <col min="2" max="2" width="69.4444444444444" style="1" customWidth="1"/>
@@ -3066,162 +3063,159 @@
         <v>195</v>
       </c>
     </row>
-    <row r="177" spans="2:4">
+    <row r="177" spans="2:3">
       <c r="B177" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C177" s="4" t="s">
+      <c r="C177" s="6" t="s">
         <v>197</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="178" spans="2:3">
       <c r="B178" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C178" s="4"/>
     </row>
     <row r="179" spans="2:3">
       <c r="B179" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C179" s="4"/>
     </row>
     <row r="180" spans="2:3">
       <c r="B180" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C180" s="4" t="s">
         <v>201</v>
-      </c>
-      <c r="C180" s="4" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="181" spans="2:3">
       <c r="B181" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C181" s="5"/>
     </row>
     <row r="182" spans="2:3">
       <c r="B182" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C182" s="5" t="s">
         <v>204</v>
-      </c>
-      <c r="C182" s="5" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="183" spans="2:3">
       <c r="B183" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C183" s="5"/>
     </row>
     <row r="184" spans="2:3">
       <c r="B184" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C184" s="5" t="s">
         <v>207</v>
-      </c>
-      <c r="C184" s="5" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="185" spans="2:3">
       <c r="B185" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C185" s="5"/>
     </row>
     <row r="186" spans="2:3">
       <c r="B186" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C186" s="5"/>
     </row>
     <row r="187" spans="2:3">
       <c r="B187" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C187" s="5"/>
     </row>
     <row r="188" spans="2:3">
       <c r="B188" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C188" s="5" t="s">
         <v>212</v>
-      </c>
-      <c r="C188" s="5" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="189" spans="2:3">
       <c r="B189" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C189" s="6" t="s">
         <v>214</v>
-      </c>
-      <c r="C189" s="6" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="190" spans="2:3">
       <c r="B190" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C190" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="C190" s="5" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="191" spans="2:3">
       <c r="B191" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C191" s="5" t="s">
         <v>218</v>
-      </c>
-      <c r="C191" s="5" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="192" spans="2:3">
       <c r="B192" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C192" s="5" t="s">
         <v>220</v>
-      </c>
-      <c r="C192" s="5" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="193" spans="2:3">
       <c r="B193" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C193" s="4" t="s">
         <v>222</v>
-      </c>
-      <c r="C193" s="4" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="194" spans="2:3">
       <c r="B194" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C194" s="4" t="s">
         <v>224</v>
-      </c>
-      <c r="C194" s="4" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="195" spans="2:3">
       <c r="B195" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C195" s="4" t="s">
         <v>226</v>
-      </c>
-      <c r="C195" s="4" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="196" spans="2:3">
       <c r="B196" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C196" s="4"/>
     </row>
     <row r="197" spans="2:3">
       <c r="B197" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C197" s="4"/>
     </row>
     <row r="198" spans="2:3">
       <c r="B198" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C198" s="4"/>
     </row>
@@ -3245,445 +3239,445 @@
     </row>
     <row r="202" spans="2:3">
       <c r="B202" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C202" s="4"/>
     </row>
     <row r="203" spans="2:3">
       <c r="B203" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C203" s="4"/>
     </row>
     <row r="204" spans="2:3">
       <c r="B204" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C204" s="4"/>
     </row>
     <row r="205" spans="2:3">
       <c r="B205" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C205" s="4"/>
     </row>
     <row r="206" spans="2:3">
       <c r="B206" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C206" s="4"/>
     </row>
     <row r="207" spans="2:3">
       <c r="B207" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C207" s="4"/>
     </row>
     <row r="208" spans="2:3">
       <c r="B208" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C208" s="4"/>
     </row>
     <row r="209" spans="2:3">
       <c r="B209" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C209" s="4"/>
     </row>
     <row r="210" spans="2:3">
       <c r="B210" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C210" s="4"/>
     </row>
     <row r="211" spans="2:3">
       <c r="B211" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C211" s="4"/>
     </row>
     <row r="212" spans="2:3">
       <c r="B212" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C212" s="4"/>
     </row>
     <row r="213" spans="2:3">
       <c r="B213" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="2:3">
       <c r="B214" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C214" s="4"/>
     </row>
     <row r="215" spans="2:3">
       <c r="B215" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C215" s="4"/>
     </row>
     <row r="216" spans="2:3">
       <c r="B216" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C216" s="4"/>
     </row>
     <row r="217" spans="2:3">
       <c r="B217" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C217" s="4"/>
     </row>
     <row r="218" spans="2:3">
       <c r="B218" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C218" s="4"/>
     </row>
     <row r="219" spans="2:3">
       <c r="B219" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C219" s="4"/>
     </row>
     <row r="220" spans="2:3">
       <c r="B220" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C220" s="4"/>
     </row>
     <row r="221" spans="2:3">
       <c r="B221" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C221" s="4"/>
     </row>
     <row r="222" spans="2:3">
       <c r="B222" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C222" s="4"/>
     </row>
     <row r="223" spans="2:3">
       <c r="B223" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C223" s="4"/>
     </row>
     <row r="224" spans="2:3">
       <c r="B224" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C224" s="4"/>
     </row>
     <row r="225" spans="2:3">
       <c r="B225" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C225" s="4"/>
     </row>
     <row r="226" spans="2:3">
       <c r="B226" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C226" s="4"/>
     </row>
     <row r="227" spans="2:3">
       <c r="B227" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C227" s="4"/>
     </row>
     <row r="228" spans="2:3">
       <c r="B228" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C228" s="4"/>
     </row>
     <row r="229" spans="2:3">
       <c r="B229" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C229" s="4"/>
     </row>
     <row r="230" spans="2:3">
       <c r="B230" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C230" s="4"/>
     </row>
     <row r="231" spans="2:3">
       <c r="B231" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C231" s="4"/>
     </row>
     <row r="232" spans="2:3">
       <c r="B232" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C232" s="4"/>
     </row>
     <row r="233" spans="2:3">
       <c r="B233" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C233" s="4"/>
     </row>
     <row r="234" spans="2:3">
       <c r="B234" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C234" s="4"/>
     </row>
     <row r="235" spans="2:3">
       <c r="B235" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C235" s="4"/>
     </row>
     <row r="236" spans="2:3">
       <c r="B236" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C236" s="4"/>
     </row>
     <row r="237" spans="2:3">
       <c r="B237" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="2:3">
       <c r="B238" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C238" s="4"/>
     </row>
     <row r="239" spans="2:3">
       <c r="B239" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C239" s="4"/>
     </row>
     <row r="240" spans="2:3">
       <c r="B240" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C240" s="4"/>
     </row>
     <row r="241" spans="2:3">
       <c r="B241" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C241" s="4"/>
     </row>
     <row r="242" spans="2:3">
       <c r="B242" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C242" s="4"/>
     </row>
     <row r="243" spans="2:3">
       <c r="B243" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C243" s="4"/>
     </row>
     <row r="244" spans="2:3">
       <c r="B244" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C244" s="4"/>
     </row>
     <row r="245" spans="2:3">
       <c r="B245" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C245" s="4"/>
     </row>
     <row r="246" spans="2:3">
       <c r="B246" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C246" s="4"/>
     </row>
     <row r="247" spans="2:3">
       <c r="B247" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C247" s="4"/>
     </row>
     <row r="248" spans="2:3">
       <c r="B248" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C248" s="4"/>
     </row>
     <row r="249" spans="2:3">
       <c r="B249" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C249" s="4"/>
     </row>
     <row r="250" spans="2:3">
       <c r="B250" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C250" s="4"/>
     </row>
     <row r="251" spans="2:3">
       <c r="B251" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C251" s="4"/>
     </row>
     <row r="252" spans="2:3">
       <c r="B252" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C252" s="4"/>
     </row>
     <row r="253" spans="2:3">
       <c r="B253" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C253" s="4"/>
     </row>
     <row r="254" spans="2:3">
       <c r="B254" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C254" s="4"/>
     </row>
     <row r="255" spans="2:3">
       <c r="B255" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C255" s="4"/>
     </row>
     <row r="256" spans="2:3">
       <c r="B256" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C256" s="4"/>
     </row>
     <row r="257" spans="2:3">
       <c r="B257" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C257" s="4"/>
     </row>
     <row r="258" spans="2:3">
       <c r="B258" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C258" s="4"/>
     </row>
     <row r="259" spans="2:3">
       <c r="B259" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C259" s="4"/>
     </row>
     <row r="260" spans="2:3">
       <c r="B260" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C260" s="4"/>
     </row>
     <row r="261" spans="2:3">
       <c r="B261" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C261" s="4"/>
     </row>
     <row r="262" spans="2:3">
       <c r="B262" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C262" s="4"/>
     </row>
     <row r="263" spans="2:3">
       <c r="B263" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C263" s="4"/>
     </row>
     <row r="264" spans="2:3">
       <c r="B264" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C264" s="4"/>
     </row>
     <row r="265" spans="2:3">
       <c r="B265" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C265" s="4"/>
     </row>
     <row r="266" spans="2:3">
       <c r="B266" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C266" s="4"/>
     </row>
     <row r="267" spans="2:3">
       <c r="B267" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C267" s="4"/>
     </row>
     <row r="268" spans="2:3">
       <c r="B268" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C268" s="4"/>
     </row>
     <row r="269" spans="2:3">
       <c r="B269" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C269" s="4"/>
     </row>
     <row r="270" spans="2:3">
       <c r="B270" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C270" s="4"/>
     </row>
     <row r="271" spans="2:3">
       <c r="B271" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C271" s="4"/>
     </row>
     <row r="272" spans="2:3">
       <c r="B272" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C272" s="4"/>
     </row>
     <row r="273" spans="2:3">
       <c r="B273" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C273" s="4"/>
     </row>
     <row r="274" spans="2:3">
       <c r="B274" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C274" s="7"/>
     </row>
     <row r="275" spans="2:2">
       <c r="B275" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>

--- a/Project-diagram-of-dummy-insurance-system.xlsx
+++ b/Project-diagram-of-dummy-insurance-system.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300">
   <si>
     <t>「dummy-insurance-system」のプロジェクト構成図</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>│  pom.xml</t>
+  </si>
+  <si>
+    <t>全角文字を半角化するためのライブラリ「com.ibm.icu」を追加　※2021/12/1追加</t>
   </si>
   <si>
     <t xml:space="preserve">│  </t>
@@ -921,10 +924,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -949,24 +952,71 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ 明朝"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FFFF0000"/>
       <name val="ＭＳ 明朝"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -974,6 +1024,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -997,47 +1055,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1059,14 +1092,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1075,29 +1100,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1118,25 +1121,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1154,13 +1193,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1178,13 +1217,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1196,19 +1241,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1226,67 +1265,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1351,20 +1354,35 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1384,39 +1402,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1428,6 +1413,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1446,6 +1440,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1454,145 +1457,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2006,1678 +2009,1680 @@
       <c r="C8" s="4"/>
     </row>
     <row r="9" spans="2:3">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" s="4"/>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" s="4"/>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" s="4"/>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" s="4"/>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="4"/>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15" s="4"/>
     </row>
     <row r="16" hidden="1" spans="2:3">
       <c r="B16" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" s="4"/>
     </row>
     <row r="17" hidden="1" spans="2:3">
       <c r="B17" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="4"/>
     </row>
     <row r="18" hidden="1" spans="2:3">
       <c r="B18" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C18" s="4"/>
     </row>
     <row r="19" hidden="1" spans="2:3">
       <c r="B19" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19" s="4"/>
     </row>
     <row r="20" hidden="1" spans="2:3">
       <c r="B20" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C20" s="4"/>
     </row>
     <row r="21" hidden="1" spans="2:3">
       <c r="B21" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21" s="4"/>
     </row>
     <row r="22" hidden="1" spans="2:3">
       <c r="B22" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C22" s="4"/>
     </row>
     <row r="23" hidden="1" spans="2:3">
       <c r="B23" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" s="4"/>
     </row>
     <row r="24" hidden="1" spans="2:3">
       <c r="B24" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" s="4"/>
     </row>
     <row r="25" hidden="1" spans="2:3">
       <c r="B25" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C25" s="4"/>
     </row>
     <row r="26" hidden="1" spans="2:3">
       <c r="B26" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C26" s="4"/>
     </row>
     <row r="27" hidden="1" spans="2:3">
       <c r="B27" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C27" s="4"/>
     </row>
     <row r="28" hidden="1" spans="2:3">
       <c r="B28" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C28" s="4"/>
     </row>
     <row r="29" hidden="1" spans="2:3">
       <c r="B29" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C29" s="4"/>
     </row>
     <row r="30" hidden="1" spans="2:3">
       <c r="B30" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C30" s="4"/>
     </row>
     <row r="31" hidden="1" spans="2:3">
       <c r="B31" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C31" s="4"/>
     </row>
     <row r="32" hidden="1" spans="2:3">
       <c r="B32" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C32" s="4"/>
     </row>
     <row r="33" hidden="1" spans="2:3">
       <c r="B33" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33" s="4"/>
     </row>
     <row r="34" hidden="1" spans="2:3">
       <c r="B34" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C34" s="4"/>
     </row>
     <row r="35" hidden="1" spans="2:3">
       <c r="B35" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C35" s="4"/>
     </row>
     <row r="36" hidden="1" spans="2:3">
       <c r="B36" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C36" s="4"/>
     </row>
     <row r="37" hidden="1" spans="2:3">
       <c r="B37" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C37" s="4"/>
     </row>
     <row r="38" hidden="1" spans="2:3">
       <c r="B38" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C38" s="4"/>
     </row>
     <row r="39" hidden="1" spans="2:3">
       <c r="B39" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C39" s="4"/>
     </row>
     <row r="40" hidden="1" spans="2:3">
       <c r="B40" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C40" s="4"/>
     </row>
     <row r="41" hidden="1" spans="2:3">
       <c r="B41" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C41" s="4"/>
     </row>
     <row r="42" hidden="1" spans="2:3">
       <c r="B42" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C42" s="4"/>
     </row>
     <row r="43" hidden="1" spans="2:3">
       <c r="B43" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C43" s="4"/>
     </row>
     <row r="44" hidden="1" spans="2:3">
       <c r="B44" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C44" s="4"/>
     </row>
     <row r="45" hidden="1" spans="2:3">
       <c r="B45" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C45" s="4"/>
     </row>
     <row r="46" hidden="1" spans="2:3">
       <c r="B46" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C46" s="4"/>
     </row>
     <row r="47" hidden="1" spans="2:3">
       <c r="B47" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C47" s="4"/>
     </row>
     <row r="48" hidden="1" spans="2:3">
       <c r="B48" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C48" s="4"/>
     </row>
     <row r="49" hidden="1" spans="2:3">
       <c r="B49" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C49" s="4"/>
     </row>
     <row r="50" hidden="1" spans="2:3">
       <c r="B50" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C50" s="4"/>
     </row>
     <row r="51" hidden="1" spans="2:3">
       <c r="B51" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C51" s="4"/>
     </row>
     <row r="52" hidden="1" spans="2:3">
       <c r="B52" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C52" s="4"/>
     </row>
     <row r="53" hidden="1" spans="2:3">
       <c r="B53" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C53" s="4"/>
     </row>
     <row r="54" hidden="1" spans="2:3">
       <c r="B54" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C54" s="4"/>
     </row>
     <row r="55" hidden="1" spans="2:3">
       <c r="B55" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C55" s="4"/>
     </row>
     <row r="56" hidden="1" spans="2:3">
       <c r="B56" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C56" s="4"/>
     </row>
     <row r="57" hidden="1" spans="2:3">
       <c r="B57" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C57" s="4"/>
     </row>
     <row r="58" hidden="1" spans="2:3">
       <c r="B58" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C58" s="4"/>
     </row>
     <row r="59" hidden="1" spans="2:3">
       <c r="B59" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C59" s="4"/>
     </row>
     <row r="60" hidden="1" spans="2:3">
       <c r="B60" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C60" s="4"/>
     </row>
     <row r="61" hidden="1" spans="2:3">
       <c r="B61" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C61" s="4"/>
     </row>
     <row r="62" hidden="1" spans="2:3">
       <c r="B62" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C62" s="4"/>
     </row>
     <row r="63" hidden="1" spans="2:3">
       <c r="B63" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C63" s="4"/>
     </row>
     <row r="64" hidden="1" spans="2:3">
       <c r="B64" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C64" s="4"/>
     </row>
     <row r="65" hidden="1" spans="2:3">
       <c r="B65" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C65" s="4"/>
     </row>
     <row r="66" hidden="1" spans="2:3">
       <c r="B66" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C66" s="4"/>
     </row>
     <row r="67" hidden="1" spans="2:3">
       <c r="B67" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C67" s="4"/>
     </row>
     <row r="68" hidden="1" spans="2:3">
       <c r="B68" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C68" s="4"/>
     </row>
     <row r="69" hidden="1" spans="2:3">
       <c r="B69" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C69" s="4"/>
     </row>
     <row r="70" hidden="1" spans="2:3">
       <c r="B70" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C70" s="4"/>
     </row>
     <row r="71" hidden="1" spans="2:3">
       <c r="B71" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C71" s="4"/>
     </row>
     <row r="72" hidden="1" spans="2:3">
       <c r="B72" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C72" s="4"/>
     </row>
     <row r="73" hidden="1" spans="2:3">
       <c r="B73" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C73" s="4"/>
     </row>
     <row r="74" hidden="1" spans="2:3">
       <c r="B74" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C74" s="4"/>
     </row>
     <row r="75" hidden="1" spans="2:3">
       <c r="B75" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C75" s="4"/>
     </row>
     <row r="76" hidden="1" spans="2:3">
       <c r="B76" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C76" s="4"/>
     </row>
     <row r="77" hidden="1" spans="2:3">
       <c r="B77" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C77" s="4"/>
     </row>
     <row r="78" hidden="1" spans="2:3">
       <c r="B78" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C78" s="4"/>
     </row>
     <row r="79" hidden="1" spans="2:3">
       <c r="B79" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C79" s="4"/>
     </row>
     <row r="80" hidden="1" spans="2:3">
       <c r="B80" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C80" s="4"/>
     </row>
     <row r="81" hidden="1" spans="2:3">
       <c r="B81" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C81" s="4"/>
     </row>
     <row r="82" hidden="1" spans="2:3">
       <c r="B82" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C82" s="4"/>
     </row>
     <row r="83" hidden="1" spans="2:3">
       <c r="B83" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C83" s="4"/>
     </row>
     <row r="84" hidden="1" spans="2:3">
       <c r="B84" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C84" s="4"/>
     </row>
     <row r="85" hidden="1" spans="2:3">
       <c r="B85" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C85" s="4"/>
     </row>
     <row r="86" hidden="1" spans="2:3">
       <c r="B86" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C86" s="4"/>
     </row>
     <row r="87" hidden="1" spans="2:3">
       <c r="B87" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C87" s="4"/>
     </row>
     <row r="88" hidden="1" spans="2:3">
       <c r="B88" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C88" s="4"/>
     </row>
     <row r="89" hidden="1" spans="2:3">
       <c r="B89" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C89" s="4"/>
     </row>
     <row r="90" hidden="1" spans="2:3">
       <c r="B90" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C90" s="4"/>
     </row>
     <row r="91" hidden="1" spans="2:3">
       <c r="B91" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C91" s="4"/>
     </row>
     <row r="92" hidden="1" spans="2:3">
       <c r="B92" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C92" s="4"/>
     </row>
     <row r="93" hidden="1" spans="2:3">
       <c r="B93" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C93" s="4"/>
     </row>
     <row r="94" hidden="1" spans="2:3">
       <c r="B94" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C94" s="4"/>
     </row>
     <row r="95" hidden="1" spans="2:3">
       <c r="B95" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C95" s="4"/>
     </row>
     <row r="96" hidden="1" spans="2:3">
       <c r="B96" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C96" s="4"/>
     </row>
     <row r="97" hidden="1" spans="2:3">
       <c r="B97" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C97" s="4"/>
     </row>
     <row r="98" hidden="1" spans="2:3">
       <c r="B98" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C98" s="4"/>
     </row>
     <row r="99" hidden="1" spans="2:3">
       <c r="B99" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C99" s="4"/>
     </row>
     <row r="100" hidden="1" spans="2:3">
       <c r="B100" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C100" s="4"/>
     </row>
     <row r="101" hidden="1" spans="2:3">
       <c r="B101" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C101" s="4"/>
     </row>
     <row r="102" hidden="1" spans="2:3">
       <c r="B102" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C102" s="4"/>
     </row>
     <row r="103" hidden="1" spans="2:3">
       <c r="B103" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C103" s="4"/>
     </row>
     <row r="104" hidden="1" spans="2:3">
       <c r="B104" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C104" s="4"/>
     </row>
     <row r="105" hidden="1" spans="2:3">
       <c r="B105" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C105" s="4"/>
     </row>
     <row r="106" hidden="1" spans="2:3">
       <c r="B106" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C106" s="4"/>
     </row>
     <row r="107" hidden="1" spans="2:3">
       <c r="B107" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C107" s="4"/>
     </row>
     <row r="108" hidden="1" spans="2:3">
       <c r="B108" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C108" s="4"/>
     </row>
     <row r="109" hidden="1" spans="2:3">
       <c r="B109" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C109" s="4"/>
     </row>
     <row r="110" hidden="1" spans="2:3">
       <c r="B110" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C110" s="4"/>
     </row>
     <row r="111" hidden="1" spans="2:3">
       <c r="B111" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C111" s="4"/>
     </row>
     <row r="112" hidden="1" spans="2:3">
       <c r="B112" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C112" s="4"/>
     </row>
     <row r="113" hidden="1" spans="2:3">
       <c r="B113" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C113" s="4"/>
     </row>
     <row r="114" hidden="1" spans="2:3">
       <c r="B114" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C114" s="4"/>
     </row>
     <row r="115" hidden="1" spans="2:3">
       <c r="B115" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C115" s="4"/>
     </row>
     <row r="116" hidden="1" spans="2:3">
       <c r="B116" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C116" s="4"/>
     </row>
     <row r="117" hidden="1" spans="2:3">
       <c r="B117" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C117" s="4"/>
     </row>
     <row r="118" hidden="1" spans="2:3">
       <c r="B118" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C118" s="4"/>
     </row>
     <row r="119" hidden="1" spans="2:3">
       <c r="B119" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C119" s="4"/>
     </row>
     <row r="120" hidden="1" spans="2:3">
       <c r="B120" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C120" s="4"/>
     </row>
     <row r="121" hidden="1" spans="2:3">
       <c r="B121" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C121" s="4"/>
     </row>
     <row r="122" hidden="1" spans="2:3">
       <c r="B122" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C122" s="4"/>
     </row>
     <row r="123" hidden="1" spans="2:3">
       <c r="B123" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C123" s="4"/>
     </row>
     <row r="124" hidden="1" spans="2:3">
       <c r="B124" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C124" s="4"/>
     </row>
     <row r="125" hidden="1" spans="2:3">
       <c r="B125" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C125" s="4"/>
     </row>
     <row r="126" hidden="1" spans="2:3">
       <c r="B126" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C126" s="4"/>
     </row>
     <row r="127" hidden="1" spans="2:3">
       <c r="B127" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C127" s="4"/>
     </row>
     <row r="128" hidden="1" spans="2:3">
       <c r="B128" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C128" s="4"/>
     </row>
     <row r="129" hidden="1" spans="2:3">
       <c r="B129" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C129" s="4"/>
     </row>
     <row r="130" hidden="1" spans="2:3">
       <c r="B130" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C130" s="4"/>
     </row>
     <row r="131" hidden="1" spans="2:3">
       <c r="B131" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C131" s="4"/>
     </row>
     <row r="132" hidden="1" spans="2:3">
       <c r="B132" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C132" s="4"/>
     </row>
     <row r="133" spans="2:3">
       <c r="B133" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C133" s="4"/>
     </row>
     <row r="134" spans="2:3">
       <c r="B134" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C134" s="4"/>
     </row>
     <row r="135" spans="2:3">
       <c r="B135" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C135" s="4"/>
     </row>
     <row r="136" spans="2:3">
       <c r="B136" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C136" s="4"/>
     </row>
     <row r="137" spans="2:3">
       <c r="B137" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C137" s="4"/>
     </row>
     <row r="138" spans="2:3">
       <c r="B138" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C138" s="4"/>
     </row>
     <row r="139" spans="2:3">
       <c r="B139" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C139" s="4"/>
     </row>
     <row r="140" spans="2:3">
       <c r="B140" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C140" s="4"/>
     </row>
     <row r="141" spans="2:3">
       <c r="B141" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="142" spans="2:3">
       <c r="B142" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="143" spans="2:3">
       <c r="B143" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C143" s="4"/>
     </row>
     <row r="144" spans="2:3">
       <c r="B144" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="145" spans="2:3">
       <c r="B145" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="146" spans="2:3">
       <c r="B146" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C146" s="5" t="s">
         <v>149</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="147" spans="2:3">
       <c r="B147" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="148" spans="2:3">
       <c r="B148" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="149" spans="2:3">
       <c r="B149" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="150" spans="2:3">
       <c r="B150" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="151" spans="2:3">
       <c r="B151" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C151" s="4"/>
     </row>
     <row r="152" spans="2:3">
       <c r="B152" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="153" spans="2:3">
       <c r="B153" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="154" spans="2:3">
       <c r="B154" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="155" spans="2:3">
       <c r="B155" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="156" spans="2:3">
       <c r="B156" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="157" spans="2:3">
       <c r="B157" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="158" spans="2:3">
       <c r="B158" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C158" s="4"/>
     </row>
     <row r="159" spans="2:3">
       <c r="B159" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="160" spans="2:3">
       <c r="B160" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="161" spans="2:3">
-      <c r="B161" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C161" s="4" t="s">
+      <c r="B161" s="6" t="s">
         <v>175</v>
       </c>
+      <c r="C161" s="6" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="162" spans="2:3">
-      <c r="B162" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C162" s="4"/>
+      <c r="B162" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C162" s="6"/>
     </row>
     <row r="163" spans="2:3">
-      <c r="B163" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C163" s="4" t="s">
+      <c r="B163" s="6" t="s">
         <v>177</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="164" spans="2:3">
       <c r="B164" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="165" spans="2:3">
-      <c r="B165" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C165" s="4" t="s">
+      <c r="B165" s="6" t="s">
         <v>181</v>
       </c>
+      <c r="C165" s="6" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="166" spans="2:3">
-      <c r="B166" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C166" s="4"/>
+      <c r="B166" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C166" s="6"/>
     </row>
     <row r="167" spans="2:3">
       <c r="B167" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="168" spans="2:3">
       <c r="B168" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="169" spans="2:3">
-      <c r="B169" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C169" s="4"/>
+      <c r="B169" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C169" s="6"/>
     </row>
     <row r="170" spans="2:3">
-      <c r="B170" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C170" s="4"/>
+      <c r="B170" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C170" s="6"/>
     </row>
     <row r="171" spans="2:3">
-      <c r="B171" s="4" t="s">
-        <v>188</v>
+      <c r="B171" s="6" t="s">
+        <v>189</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="172" spans="2:3">
-      <c r="B172" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C172" s="4"/>
+      <c r="B172" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C172" s="6"/>
     </row>
     <row r="173" spans="2:3">
-      <c r="B173" s="5" t="s">
-        <v>191</v>
+      <c r="B173" s="6" t="s">
+        <v>192</v>
       </c>
       <c r="C173" s="4"/>
     </row>
     <row r="174" spans="2:3">
       <c r="B174" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C174" s="4"/>
     </row>
     <row r="175" spans="2:3">
       <c r="B175" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C175" s="4"/>
     </row>
     <row r="176" spans="2:3">
       <c r="B176" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="177" spans="2:3">
       <c r="B177" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="178" spans="2:3">
       <c r="B178" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C178" s="4"/>
+        <v>199</v>
+      </c>
+      <c r="C178" s="6"/>
     </row>
     <row r="179" spans="2:3">
       <c r="B179" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C179" s="4"/>
+        <v>200</v>
+      </c>
+      <c r="C179" s="6"/>
     </row>
     <row r="180" spans="2:3">
       <c r="B180" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C180" s="4" t="s">
         <v>201</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="181" spans="2:3">
       <c r="B181" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C181" s="5"/>
+        <v>203</v>
+      </c>
+      <c r="C181" s="6"/>
     </row>
     <row r="182" spans="2:3">
       <c r="B182" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C182" s="5" t="s">
         <v>204</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="183" spans="2:3">
       <c r="B183" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C183" s="5"/>
+        <v>206</v>
+      </c>
+      <c r="C183" s="6"/>
     </row>
     <row r="184" spans="2:3">
       <c r="B184" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C184" s="5" t="s">
         <v>207</v>
+      </c>
+      <c r="C184" s="6" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="185" spans="2:3">
       <c r="B185" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C185" s="5"/>
+        <v>209</v>
+      </c>
+      <c r="C185" s="6"/>
     </row>
     <row r="186" spans="2:3">
       <c r="B186" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C186" s="5"/>
+        <v>210</v>
+      </c>
+      <c r="C186" s="6"/>
     </row>
     <row r="187" spans="2:3">
       <c r="B187" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C187" s="5"/>
+        <v>211</v>
+      </c>
+      <c r="C187" s="6"/>
     </row>
     <row r="188" spans="2:3">
       <c r="B188" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C188" s="5" t="s">
         <v>212</v>
+      </c>
+      <c r="C188" s="6" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="189" spans="2:3">
       <c r="B189" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="190" spans="2:3">
       <c r="B190" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C190" s="5" t="s">
         <v>216</v>
+      </c>
+      <c r="C190" s="6" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="191" spans="2:3">
       <c r="B191" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C191" s="5" t="s">
         <v>218</v>
+      </c>
+      <c r="C191" s="6" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="192" spans="2:3">
       <c r="B192" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="C192" s="5" t="s">
         <v>220</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="193" spans="2:3">
       <c r="B193" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="194" spans="2:3">
       <c r="B194" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="195" spans="2:3">
       <c r="B195" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="196" spans="2:3">
       <c r="B196" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C196" s="4"/>
     </row>
     <row r="197" spans="2:3">
       <c r="B197" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C197" s="4"/>
     </row>
     <row r="198" spans="2:3">
       <c r="B198" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C198" s="4"/>
     </row>
     <row r="199" spans="2:3">
       <c r="B199" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C199" s="4"/>
     </row>
     <row r="200" spans="2:3">
       <c r="B200" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C200" s="4"/>
     </row>
     <row r="201" spans="2:3">
       <c r="B201" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C201" s="4"/>
     </row>
     <row r="202" spans="2:3">
       <c r="B202" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C202" s="4"/>
     </row>
     <row r="203" spans="2:3">
       <c r="B203" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C203" s="4"/>
     </row>
     <row r="204" spans="2:3">
       <c r="B204" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C204" s="4"/>
     </row>
     <row r="205" spans="2:3">
       <c r="B205" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C205" s="4"/>
     </row>
     <row r="206" spans="2:3">
       <c r="B206" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C206" s="4"/>
     </row>
     <row r="207" spans="2:3">
       <c r="B207" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C207" s="4"/>
     </row>
     <row r="208" spans="2:3">
       <c r="B208" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C208" s="4"/>
     </row>
     <row r="209" spans="2:3">
       <c r="B209" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C209" s="4"/>
     </row>
     <row r="210" spans="2:3">
       <c r="B210" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C210" s="4"/>
     </row>
     <row r="211" spans="2:3">
       <c r="B211" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C211" s="4"/>
     </row>
     <row r="212" spans="2:3">
       <c r="B212" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C212" s="4"/>
     </row>
     <row r="213" spans="2:3">
       <c r="B213" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="2:3">
       <c r="B214" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C214" s="4"/>
     </row>
     <row r="215" spans="2:3">
       <c r="B215" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C215" s="4"/>
     </row>
     <row r="216" spans="2:3">
       <c r="B216" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C216" s="4"/>
     </row>
     <row r="217" spans="2:3">
       <c r="B217" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C217" s="4"/>
     </row>
     <row r="218" spans="2:3">
       <c r="B218" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C218" s="4"/>
     </row>
     <row r="219" spans="2:3">
       <c r="B219" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C219" s="4"/>
     </row>
     <row r="220" spans="2:3">
       <c r="B220" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C220" s="4"/>
     </row>
     <row r="221" spans="2:3">
       <c r="B221" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C221" s="4"/>
     </row>
     <row r="222" spans="2:3">
       <c r="B222" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C222" s="4"/>
     </row>
     <row r="223" spans="2:3">
       <c r="B223" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C223" s="4"/>
     </row>
     <row r="224" spans="2:3">
       <c r="B224" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C224" s="4"/>
     </row>
     <row r="225" spans="2:3">
       <c r="B225" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C225" s="4"/>
     </row>
     <row r="226" spans="2:3">
       <c r="B226" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C226" s="4"/>
     </row>
     <row r="227" spans="2:3">
       <c r="B227" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C227" s="4"/>
     </row>
     <row r="228" spans="2:3">
       <c r="B228" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C228" s="4"/>
     </row>
     <row r="229" spans="2:3">
       <c r="B229" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C229" s="4"/>
     </row>
     <row r="230" spans="2:3">
       <c r="B230" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C230" s="4"/>
     </row>
     <row r="231" spans="2:3">
       <c r="B231" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C231" s="4"/>
     </row>
     <row r="232" spans="2:3">
       <c r="B232" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C232" s="4"/>
     </row>
     <row r="233" spans="2:3">
       <c r="B233" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C233" s="4"/>
     </row>
     <row r="234" spans="2:3">
       <c r="B234" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C234" s="4"/>
     </row>
     <row r="235" spans="2:3">
       <c r="B235" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C235" s="4"/>
     </row>
     <row r="236" spans="2:3">
       <c r="B236" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C236" s="4"/>
     </row>
     <row r="237" spans="2:3">
       <c r="B237" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="2:3">
       <c r="B238" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C238" s="4"/>
     </row>
     <row r="239" spans="2:3">
       <c r="B239" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C239" s="4"/>
     </row>
     <row r="240" spans="2:3">
       <c r="B240" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C240" s="4"/>
     </row>
     <row r="241" spans="2:3">
       <c r="B241" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C241" s="4"/>
     </row>
     <row r="242" spans="2:3">
       <c r="B242" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C242" s="4"/>
     </row>
     <row r="243" spans="2:3">
       <c r="B243" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C243" s="4"/>
     </row>
     <row r="244" spans="2:3">
       <c r="B244" s="4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C244" s="4"/>
     </row>
     <row r="245" spans="2:3">
       <c r="B245" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C245" s="4"/>
     </row>
     <row r="246" spans="2:3">
       <c r="B246" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C246" s="4"/>
     </row>
     <row r="247" spans="2:3">
       <c r="B247" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C247" s="4"/>
     </row>
     <row r="248" spans="2:3">
       <c r="B248" s="4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C248" s="4"/>
     </row>
     <row r="249" spans="2:3">
       <c r="B249" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C249" s="4"/>
     </row>
     <row r="250" spans="2:3">
       <c r="B250" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C250" s="4"/>
     </row>
     <row r="251" spans="2:3">
       <c r="B251" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C251" s="4"/>
     </row>
     <row r="252" spans="2:3">
       <c r="B252" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C252" s="4"/>
     </row>
     <row r="253" spans="2:3">
       <c r="B253" s="4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C253" s="4"/>
     </row>
     <row r="254" spans="2:3">
       <c r="B254" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C254" s="4"/>
     </row>
     <row r="255" spans="2:3">
       <c r="B255" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C255" s="4"/>
     </row>
     <row r="256" spans="2:3">
       <c r="B256" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C256" s="4"/>
     </row>
     <row r="257" spans="2:3">
       <c r="B257" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C257" s="4"/>
     </row>
     <row r="258" spans="2:3">
       <c r="B258" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C258" s="4"/>
     </row>
     <row r="259" spans="2:3">
       <c r="B259" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C259" s="4"/>
     </row>
     <row r="260" spans="2:3">
       <c r="B260" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C260" s="4"/>
     </row>
     <row r="261" spans="2:3">
       <c r="B261" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C261" s="4"/>
     </row>
     <row r="262" spans="2:3">
       <c r="B262" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C262" s="4"/>
     </row>
     <row r="263" spans="2:3">
       <c r="B263" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C263" s="4"/>
     </row>
     <row r="264" spans="2:3">
       <c r="B264" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C264" s="4"/>
     </row>
     <row r="265" spans="2:3">
       <c r="B265" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C265" s="4"/>
     </row>
     <row r="266" spans="2:3">
       <c r="B266" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C266" s="4"/>
     </row>
     <row r="267" spans="2:3">
       <c r="B267" s="4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C267" s="4"/>
     </row>
     <row r="268" spans="2:3">
       <c r="B268" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C268" s="4"/>
     </row>
     <row r="269" spans="2:3">
       <c r="B269" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C269" s="4"/>
     </row>
     <row r="270" spans="2:3">
       <c r="B270" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C270" s="4"/>
     </row>
     <row r="271" spans="2:3">
       <c r="B271" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C271" s="4"/>
     </row>
     <row r="272" spans="2:3">
       <c r="B272" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C272" s="4"/>
     </row>
     <row r="273" spans="2:3">
       <c r="B273" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C273" s="4"/>
     </row>
     <row r="274" spans="2:3">
       <c r="B274" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C274" s="7"/>
     </row>
     <row r="275" spans="2:2">
       <c r="B275" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>

--- a/Project-diagram-of-dummy-insurance-system.xlsx
+++ b/Project-diagram-of-dummy-insurance-system.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22451" windowHeight="9900"/>
+    <workbookView windowWidth="22451" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$274</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$232</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354">
   <si>
     <t>「dummy-insurance-system」のプロジェクト構成図</t>
   </si>
@@ -52,9 +52,6 @@
     <t>│  pom.xml</t>
   </si>
   <si>
-    <t>全角文字を半角化するためのライブラリ「com.ibm.icu」を追加　※2021/12/1追加</t>
-  </si>
-  <si>
     <t xml:space="preserve">│  </t>
   </si>
   <si>
@@ -283,127 +280,457 @@
     <t>│  └─target</t>
   </si>
   <si>
-    <t>│      ├─classes</t>
-  </si>
-  <si>
-    <t>│      │  │  application.properties</t>
-  </si>
-  <si>
-    <t xml:space="preserve">│      │  │  </t>
-  </si>
-  <si>
-    <t>│      │  ├─com</t>
-  </si>
-  <si>
-    <t>│      │  │  └─insurance</t>
-  </si>
-  <si>
-    <t>│      │  │      └─app</t>
-  </si>
-  <si>
-    <t>│      │  │          ├─common</t>
-  </si>
-  <si>
-    <t>│      │  │          ├─controller</t>
-  </si>
-  <si>
-    <t>│      │  │          ├─domain</t>
-  </si>
-  <si>
-    <t>│      │  │          ├─mapper</t>
-  </si>
-  <si>
-    <t>│      │  │          │      nothing.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">│      │  │          │      </t>
-  </si>
-  <si>
-    <t>│      │  │          └─service</t>
-  </si>
-  <si>
-    <t>│      │  ├─META-INF</t>
-  </si>
-  <si>
-    <t>│      │  │  │  MANIFEST.MF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">│      │  │  │  </t>
-  </si>
-  <si>
-    <t>│      │  │  └─maven</t>
-  </si>
-  <si>
-    <t>│      │  │      └─com.insurance</t>
-  </si>
-  <si>
-    <t>│      │  │          └─dummy-insurance-system</t>
-  </si>
-  <si>
-    <t>│      │  │                  pom.properties</t>
-  </si>
-  <si>
-    <t>│      │  │                  pom.xml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">│      │  │                  </t>
-  </si>
-  <si>
-    <t>│      │  ├─static</t>
-  </si>
-  <si>
-    <t>│      │  │  ├─css</t>
-  </si>
-  <si>
-    <t>│      │  │  │      bootstrap.min.css</t>
-  </si>
-  <si>
-    <t>│      │  │  │      cm_common.css</t>
-  </si>
-  <si>
-    <t>│      │  │  │      cm_security.css</t>
-  </si>
-  <si>
-    <t xml:space="preserve">│      │  │  │      </t>
-  </si>
-  <si>
-    <t>│      │  │  └─js</t>
-  </si>
-  <si>
-    <t>│      │  │          bootstrap.min.js</t>
-  </si>
-  <si>
-    <t>│      │  │          jquery-3.6.0.min.js</t>
-  </si>
-  <si>
-    <t xml:space="preserve">│      │  │          </t>
-  </si>
-  <si>
-    <t>│      │  └─templates</t>
-  </si>
-  <si>
-    <t>│      │          cm_security.html</t>
-  </si>
-  <si>
-    <t>│      │          cm_task.html</t>
-  </si>
-  <si>
-    <t>│      │          tc_input.html</t>
-  </si>
-  <si>
-    <t>│      │          tl_input.html</t>
-  </si>
-  <si>
-    <t>│      │          wc_input.html</t>
-  </si>
-  <si>
-    <t>│      │          wl_input.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">│      │          </t>
-  </si>
-  <si>
-    <t>│      └─test-classes</t>
+    <t>│      └─classes</t>
+  </si>
+  <si>
+    <t>│          │  application.properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">│          │  </t>
+  </si>
+  <si>
+    <t>│          ├─com</t>
+  </si>
+  <si>
+    <t>│          │  └─insurance</t>
+  </si>
+  <si>
+    <t>│          │      └─app</t>
+  </si>
+  <si>
+    <t>│          │          └─mapper</t>
+  </si>
+  <si>
+    <t>│          │                  nothing.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">│          │                  </t>
+  </si>
+  <si>
+    <t>│          ├─META-INF</t>
+  </si>
+  <si>
+    <t>│          │  │  MANIFEST.MF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">│          │  │  </t>
+  </si>
+  <si>
+    <t>│          │  └─maven</t>
+  </si>
+  <si>
+    <t>│          │      └─com.insurance</t>
+  </si>
+  <si>
+    <t>│          │          └─dummy-insurance-system</t>
+  </si>
+  <si>
+    <t>│          │                  pom.properties</t>
+  </si>
+  <si>
+    <t>│          │                  pom.xml</t>
+  </si>
+  <si>
+    <t>│          ├─static</t>
+  </si>
+  <si>
+    <t>│          │  ├─css</t>
+  </si>
+  <si>
+    <t>│          │  │      bootstrap.min.css</t>
+  </si>
+  <si>
+    <t>│          │  │      cm_common.css</t>
+  </si>
+  <si>
+    <t>│          │  │      cm_security.css</t>
+  </si>
+  <si>
+    <t xml:space="preserve">│          │  │      </t>
+  </si>
+  <si>
+    <t>│          │  └─js</t>
+  </si>
+  <si>
+    <t>│          │          bootstrap.min.js</t>
+  </si>
+  <si>
+    <t>│          │          jquery-3.6.0.min.js</t>
+  </si>
+  <si>
+    <t xml:space="preserve">│          │          </t>
+  </si>
+  <si>
+    <t>│          └─templates</t>
+  </si>
+  <si>
+    <t>│                  cm_security.html</t>
+  </si>
+  <si>
+    <t>│                  cm_task.html</t>
+  </si>
+  <si>
+    <t>│                  tc_input.html</t>
+  </si>
+  <si>
+    <t>│                  tl_input.html</t>
+  </si>
+  <si>
+    <t>│                  wc_input.html</t>
+  </si>
+  <si>
+    <t>│                  wl_input.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">│                  </t>
+  </si>
+  <si>
+    <t>├─src</t>
+  </si>
+  <si>
+    <t>│  ├─main</t>
+  </si>
+  <si>
+    <t>│  │  ├─java</t>
+  </si>
+  <si>
+    <t>│  │  │  └─com</t>
+  </si>
+  <si>
+    <t>│  │  │      └─insurance</t>
+  </si>
+  <si>
+    <t>│  │  │          └─app</t>
+  </si>
+  <si>
+    <t>│  │  │              │  DummyInsuranceSystemApplication.java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">│  │  │              │  </t>
+  </si>
+  <si>
+    <t>│  │  │              ├─common</t>
+  </si>
+  <si>
+    <t>共通モジュールを格納する</t>
+  </si>
+  <si>
+    <t>│  │  │              │      CmActuarial.java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">│  │  │              │      </t>
+  </si>
+  <si>
+    <t>│  │  │              ├─controller</t>
+  </si>
+  <si>
+    <t>コントローラーとなるモジュールを格納する</t>
+  </si>
+  <si>
+    <t>│  │  │              │      CmSecurityTypeController.java</t>
+  </si>
+  <si>
+    <t>│  │  │              │      CmTaskController.java</t>
+  </si>
+  <si>
+    <t>│  │  │              │      TcInputController.java</t>
+  </si>
+  <si>
+    <t>│  │  │              │      TlInputController.java</t>
+  </si>
+  <si>
+    <t>│  │  │              │      WcController.java</t>
+  </si>
+  <si>
+    <t>│  │  │              │      WIController.java</t>
+  </si>
+  <si>
+    <t>│  │  │              ├─domain</t>
+  </si>
+  <si>
+    <t>レイアウトを管理するクラスを格納する</t>
+  </si>
+  <si>
+    <t>│  │  │              │      CmTcActuarial.java</t>
+  </si>
+  <si>
+    <t>│  │  │              │      CmTlActuarial.java</t>
+  </si>
+  <si>
+    <t>│  │  │              │      CmWcActuarial.java</t>
+  </si>
+  <si>
+    <t>│  │  │              │      CmWlActuarial.java</t>
+  </si>
+  <si>
+    <t>│  │  │              │      TcCompletion.java</t>
+  </si>
+  <si>
+    <t>│  │  │              │      TcConfirmation.java</t>
+  </si>
+  <si>
+    <t>│  │  │              │      TcContracts.java</t>
+  </si>
+  <si>
+    <t>│  │  │              │      TcInput.java</t>
+  </si>
+  <si>
+    <t>│  │  │              │      TcInsuredPersons.java</t>
+  </si>
+  <si>
+    <t>│  │  │              │      TlContracts.java</t>
+  </si>
+  <si>
+    <t>│  │  │              │      TlInput.java</t>
+  </si>
+  <si>
+    <t>│  │  │              │      TlInsuredPersons.java</t>
+  </si>
+  <si>
+    <t>│  │  │              │      WcCompletion.java</t>
+  </si>
+  <si>
+    <t>│  │  │              │      WcConfirmation.java</t>
+  </si>
+  <si>
+    <t>│  │  │              │      WcContracts.java</t>
+  </si>
+  <si>
+    <t>│  │  │              │      WcInput.java</t>
+  </si>
+  <si>
+    <t>│  │  │              │      WcInsuredPersons.java</t>
+  </si>
+  <si>
+    <t>│  │  │              │      WlCompletion.java</t>
+  </si>
+  <si>
+    <t>│  │  │              │      WlConfirmation.java</t>
+  </si>
+  <si>
+    <t>│  │  │              │      WlContracts.java</t>
+  </si>
+  <si>
+    <t>│  │  │              │      WlInput.java</t>
+  </si>
+  <si>
+    <t>│  │  │              │      WlInsuredPersons.java</t>
+  </si>
+  <si>
+    <t>│  │  │              ├─mapper</t>
+  </si>
+  <si>
+    <t>マッピング用のインターフェイス（DB接続時に必要なインターフェース）を格納する</t>
+  </si>
+  <si>
+    <t>│  │  │              │      CmActuarialMapper.java</t>
+  </si>
+  <si>
+    <t>│  │  │              │      TcMapper.java</t>
+  </si>
+  <si>
+    <t>│  │  │              │      TlMapper.java</t>
+  </si>
+  <si>
+    <t>│  │  │              │      WcMapper.java</t>
+  </si>
+  <si>
+    <t>│  │  │              │      WlMapper.java</t>
+  </si>
+  <si>
+    <t>│  │  │              ├─service</t>
+  </si>
+  <si>
+    <t>サービスクラス（DBアクセス処理の呼出し機能を保持したクラス）を格納する</t>
+  </si>
+  <si>
+    <t>│  │  │              │      CmActuarialService.java</t>
+  </si>
+  <si>
+    <t>│  │  │              │      TcService.java</t>
+  </si>
+  <si>
+    <t>│  │  │              │      TlEntryService.java</t>
+  </si>
+  <si>
+    <t>│  │  │              │      TlInputService.java</t>
+  </si>
+  <si>
+    <t>│  │  │              │      WcService.java</t>
+  </si>
+  <si>
+    <t>│  │  │              │      WlService.java</t>
+  </si>
+  <si>
+    <t>│  │  │              └─validation</t>
+  </si>
+  <si>
+    <t>バリデーション用にクラスを作成した場合、左記に格納する</t>
+  </si>
+  <si>
+    <t>│  │  │                      TcInputValidation.java</t>
+  </si>
+  <si>
+    <t>│  │  │                      WlInputValidation.java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">│  │  │                      </t>
+  </si>
+  <si>
+    <t>│  │  └─resources</t>
+  </si>
+  <si>
+    <t>│  │      │  application.properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">│  │      │  </t>
+  </si>
+  <si>
+    <t>│  │      ├─com</t>
+  </si>
+  <si>
+    <t>マッピング用のインターフェイスに対応するxmlファイルを格納する</t>
+  </si>
+  <si>
+    <t>│  │      │  └─insurance</t>
+  </si>
+  <si>
+    <t>│  │      │      └─app</t>
+  </si>
+  <si>
+    <t>│  │      │          └─mapper</t>
+  </si>
+  <si>
+    <t>│  │      │                  CmActuarialMapper.xml</t>
+  </si>
+  <si>
+    <t>│  │      │                  TcMapper.xml</t>
+  </si>
+  <si>
+    <t>│  │      │                  TlMapper.xml</t>
+  </si>
+  <si>
+    <t>│  │      │                  WcMapper.xml</t>
+  </si>
+  <si>
+    <t>│  │      │                  WlMapper.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">│  │      │                  </t>
+  </si>
+  <si>
+    <t>│  │      ├─static</t>
+  </si>
+  <si>
+    <t>│  │      │  ├─css</t>
+  </si>
+  <si>
+    <t>cssを管理</t>
+  </si>
+  <si>
+    <t>│  │      │  │      bootstrap.min.css</t>
+  </si>
+  <si>
+    <t>│  │      │  │      cm_common.css</t>
+  </si>
+  <si>
+    <t>│  │      │  │      tc_common.css</t>
+  </si>
+  <si>
+    <t>│  │      │  │      tl_input.css</t>
+  </si>
+  <si>
+    <t>│  │      │  │      wc_common.css</t>
+  </si>
+  <si>
+    <t>│  │      │  │      wl_common.css</t>
+  </si>
+  <si>
+    <t xml:space="preserve">│  │      │  │      </t>
+  </si>
+  <si>
+    <t>│  │      │  └─js</t>
+  </si>
+  <si>
+    <t>java scriptを管理</t>
+  </si>
+  <si>
+    <t>│  │      │          bootstrap.min.js</t>
+  </si>
+  <si>
+    <t>│  │      │          jquery-3.6.0.min.js</t>
+  </si>
+  <si>
+    <t>│  │      │          tl_input.js</t>
+  </si>
+  <si>
+    <t>│  │      │          wc_input.js</t>
+  </si>
+  <si>
+    <t>│  │      │          wl_input.js</t>
+  </si>
+  <si>
+    <t xml:space="preserve">│  │      │          </t>
+  </si>
+  <si>
+    <t>│  │      └─templates</t>
+  </si>
+  <si>
+    <t>htmlファイルを管理</t>
+  </si>
+  <si>
+    <t>│  │              cm_error.html</t>
+  </si>
+  <si>
+    <t>│  │              cm_security.html</t>
+  </si>
+  <si>
+    <t>│  │              cm_task.html</t>
+  </si>
+  <si>
+    <t>│  │              tc_completion.html</t>
+  </si>
+  <si>
+    <t>│  │              tc_confirm.html</t>
+  </si>
+  <si>
+    <t>│  │              tc_input.html</t>
+  </si>
+  <si>
+    <t>│  │              tl_completion.html</t>
+  </si>
+  <si>
+    <t>│  │              tl_confirmation.html</t>
+  </si>
+  <si>
+    <t>│  │              tl_input.html</t>
+  </si>
+  <si>
+    <t>│  │              wc_completion.html</t>
+  </si>
+  <si>
+    <t>│  │              wc_confirmation.html</t>
+  </si>
+  <si>
+    <t>│  │              wc_input.html</t>
+  </si>
+  <si>
+    <t>│  │              wl_completion.html</t>
+  </si>
+  <si>
+    <t>│  │              wl_confirmation.html</t>
+  </si>
+  <si>
+    <t>│  │              wl_input.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">│  │              </t>
+  </si>
+  <si>
+    <t>│  └─test</t>
+  </si>
+  <si>
+    <t>│      └─java</t>
   </si>
   <si>
     <t>│          └─com</t>
@@ -415,303 +742,6 @@
     <t>│                  └─app</t>
   </si>
   <si>
-    <t>├─src</t>
-  </si>
-  <si>
-    <t>│  ├─main</t>
-  </si>
-  <si>
-    <t>│  │  ├─java</t>
-  </si>
-  <si>
-    <t>│  │  │  └─com</t>
-  </si>
-  <si>
-    <t>│  │  │      └─insurance</t>
-  </si>
-  <si>
-    <t>│  │  │          └─app</t>
-  </si>
-  <si>
-    <t>│  │  │              │  DummyInsuranceSystemApplication.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">│  │  │              │  </t>
-  </si>
-  <si>
-    <t>│  │  │              ├─common</t>
-  </si>
-  <si>
-    <t>共通モジュールを格納する</t>
-  </si>
-  <si>
-    <t>│  │  │              │      CmActuarial.java</t>
-  </si>
-  <si>
-    <t>　数理モジュール</t>
-  </si>
-  <si>
-    <t xml:space="preserve">│  │  │              │      </t>
-  </si>
-  <si>
-    <t>│  │  │              ├─controller</t>
-  </si>
-  <si>
-    <t>コントローラーとなるモジュールを格納する</t>
-  </si>
-  <si>
-    <t>│  │  │              │      CmSecurityTypeController.java</t>
-  </si>
-  <si>
-    <t>　保障種類選択画面のコントローラー</t>
-  </si>
-  <si>
-    <t>│  │  │              │      CmTaskController.java</t>
-  </si>
-  <si>
-    <t>　業務選択画面のコントローラー　※2021/10/9追加</t>
-  </si>
-  <si>
-    <t>│  │  │              │      TcInputController.java</t>
-  </si>
-  <si>
-    <t>　入力画面（定期医療）のコントローラー</t>
-  </si>
-  <si>
-    <t>│  │  │              │      TlInputController.java</t>
-  </si>
-  <si>
-    <t>　入力画面（定期生命）のコントローラー</t>
-  </si>
-  <si>
-    <t>│  │  │              │      WcInputController.java</t>
-  </si>
-  <si>
-    <t>　入力画面（終身医療）のコントローラー</t>
-  </si>
-  <si>
-    <t>│  │  │              │      WlInputController.java</t>
-  </si>
-  <si>
-    <t>　入力画面（終身生命）のコントローラー</t>
-  </si>
-  <si>
-    <t>│  │  │              ├─domain</t>
-  </si>
-  <si>
-    <t>レイアウトを管理するクラスを格納する</t>
-  </si>
-  <si>
-    <t>│  │  │              │      CmTcActuarial.java</t>
-  </si>
-  <si>
-    <t>　定期医療に関する掛金算出用のレイアウトを管理するクラス　※2021/11/8追加</t>
-  </si>
-  <si>
-    <t>│  │  │              │      CmTlActuarial.java</t>
-  </si>
-  <si>
-    <t>　定期生命に関する掛金算出用のレイアウトを管理するクラス　※2021/11/8追加</t>
-  </si>
-  <si>
-    <t>│  │  │              │      CmWcActuarial.java</t>
-  </si>
-  <si>
-    <t>　終身医療に関する掛金算出用のレイアウトを管理するクラス　※2021/11/8追加</t>
-  </si>
-  <si>
-    <t>│  │  │              │      CmWlActuarial.java</t>
-  </si>
-  <si>
-    <t>　終身生命に関する掛金算出用のレイアウトを管理するクラス　※2021/11/8追加</t>
-  </si>
-  <si>
-    <t>│  │  │              │      WlInput.java</t>
-  </si>
-  <si>
-    <t>　入力画面（終身生命）のレイアウトを管理するクラス</t>
-  </si>
-  <si>
-    <t>│  │  │              ├─mapper</t>
-  </si>
-  <si>
-    <t>マッピング用のインターフェイス（DB接続時に必要なインターフェース）を格納する</t>
-  </si>
-  <si>
-    <t>│  │  │              │      CmActuarialMapper.java</t>
-  </si>
-  <si>
-    <t>　掛金算出用に関するマッピング用のインターフェイスを管理　※2021/11/8追加</t>
-  </si>
-  <si>
-    <t>│  │  │              │      WlInputMapper.java</t>
-  </si>
-  <si>
-    <t>　終身生命に関するマッピング用のインターフェイスを管理</t>
-  </si>
-  <si>
-    <t>│  │  │              ├─service</t>
-  </si>
-  <si>
-    <t>サービスクラス（DBアクセス処理の呼出し機能を保持したクラス）を格納する</t>
-  </si>
-  <si>
-    <t>│  │  │              │      CmActuarialService.java</t>
-  </si>
-  <si>
-    <t>　掛金算出用のサービスクラスを管理　※2021/11/8追加</t>
-  </si>
-  <si>
-    <t>│  │  │              │      WlInputService.java</t>
-  </si>
-  <si>
-    <t>　終身生命に関するサービスクラスを管理</t>
-  </si>
-  <si>
-    <t>│  │  │              └─validation</t>
-  </si>
-  <si>
-    <t>バリデーション用にクラスを作成した場合、左記に格納する　※2021/11/8追加</t>
-  </si>
-  <si>
-    <t>│  │  │                      WlInputValidation.java</t>
-  </si>
-  <si>
-    <t>　終身生命に関するバリデーションを管理　※2021/11/8追加</t>
-  </si>
-  <si>
-    <t xml:space="preserve">│  │  │                      </t>
-  </si>
-  <si>
-    <t>│  │  └─resources</t>
-  </si>
-  <si>
-    <t>│  │      │  application.properties</t>
-  </si>
-  <si>
-    <t>「～insuranc～」⇒「～insurance～」に修正　※2021/11/8　修正</t>
-  </si>
-  <si>
-    <t xml:space="preserve">│  │      │  </t>
-  </si>
-  <si>
-    <t>│  │      ├─com</t>
-  </si>
-  <si>
-    <t>│  │      │  └─insurance</t>
-  </si>
-  <si>
-    <t>│  │      │      └─app</t>
-  </si>
-  <si>
-    <t>│  │      │          └─mapper</t>
-  </si>
-  <si>
-    <t>マッピング用のインターフェイスに対応するxmlファイルを格納する</t>
-  </si>
-  <si>
-    <t>│  │      │                  CmActuarialMapper.xml</t>
-  </si>
-  <si>
-    <t>　掛金算出用の数理テーブルへアクセスするxmlファイルを管理　※2021/11/8追加</t>
-  </si>
-  <si>
-    <t xml:space="preserve">│  │      │                  </t>
-  </si>
-  <si>
-    <t>│  │      ├─static</t>
-  </si>
-  <si>
-    <t>│  │      │  ├─css</t>
-  </si>
-  <si>
-    <t>cssを管理</t>
-  </si>
-  <si>
-    <t>│  │      │  │      bootstrap.min.css</t>
-  </si>
-  <si>
-    <t>│  │      │  │      cm_common.css</t>
-  </si>
-  <si>
-    <t>　業務選択画面、保障種類選択画面用のcss　　※2021/10/9追加</t>
-  </si>
-  <si>
-    <t xml:space="preserve">│  │      │  │      </t>
-  </si>
-  <si>
-    <t>│  │      │  └─js</t>
-  </si>
-  <si>
-    <t>java scriptを管理</t>
-  </si>
-  <si>
-    <t>│  │      │          bootstrap.min.js</t>
-  </si>
-  <si>
-    <t>│  │      │          jquery-3.6.0.min.js</t>
-  </si>
-  <si>
-    <t xml:space="preserve">│  │      │          </t>
-  </si>
-  <si>
-    <t>│  │      └─templates</t>
-  </si>
-  <si>
-    <t>htmlファイルを管理</t>
-  </si>
-  <si>
-    <t>│  │              cm_error.html</t>
-  </si>
-  <si>
-    <t>　システムエラー画面　※2021/11/8追加</t>
-  </si>
-  <si>
-    <t>│  │              cm_security.html</t>
-  </si>
-  <si>
-    <t>　保障種類選択画面 ※2021/10/9修正</t>
-  </si>
-  <si>
-    <t>│  │              cm_task.html</t>
-  </si>
-  <si>
-    <t>　業務選択画面　※2021/10/9追加</t>
-  </si>
-  <si>
-    <t>│  │              tc_input.html</t>
-  </si>
-  <si>
-    <t>　入力画面（定期医療）</t>
-  </si>
-  <si>
-    <t>│  │              tl_input.html</t>
-  </si>
-  <si>
-    <t>　入力画面（定期生命）</t>
-  </si>
-  <si>
-    <t>│  │              wc_input.html</t>
-  </si>
-  <si>
-    <t>　入力画面（終身医療）</t>
-  </si>
-  <si>
-    <t>│  │              wl_input.html</t>
-  </si>
-  <si>
-    <t>　入力画面（終身生命）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">│  │              </t>
-  </si>
-  <si>
-    <t>│  └─test</t>
-  </si>
-  <si>
-    <t>│      └─java</t>
-  </si>
-  <si>
     <t>│                          DummyInsuranceSystemApplicationTests.java</t>
   </si>
   <si>
@@ -769,10 +799,10 @@
     <t xml:space="preserve">    │  │          │      TlInputController.class</t>
   </si>
   <si>
-    <t xml:space="preserve">    │  │          │      WcInputController.class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    │  │          │      WlInputController.class</t>
+    <t xml:space="preserve">    │  │          │      WcController.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      WIController.class</t>
   </si>
   <si>
     <t xml:space="preserve">    │  │          ├─domain</t>
@@ -790,9 +820,60 @@
     <t xml:space="preserve">    │  │          │      CmWlActuarial.class</t>
   </si>
   <si>
+    <t xml:space="preserve">    │  │          │      TcCompletion.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      TcConfirmation.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      TcContracts.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      TcInput.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      TcInsuredPersons.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      TlContracts.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      TlInput.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      TlInsuredPersons.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      WcCompletion.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      WcConfirmation.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      WcContracts.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      WcInput.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      WcInsuredPersons.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      WlCompletion.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      WlConfirmation.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      WlContracts.class</t>
+  </si>
+  <si>
     <t xml:space="preserve">    │  │          │      WlInput.class</t>
   </si>
   <si>
+    <t xml:space="preserve">    │  │          │      WlInsuredPersons.class</t>
+  </si>
+  <si>
     <t xml:space="preserve">    │  │          ├─mapper</t>
   </si>
   <si>
@@ -802,7 +883,28 @@
     <t xml:space="preserve">    │  │          │      CmActuarialMapper.xml</t>
   </si>
   <si>
-    <t xml:space="preserve">    │  │          │      WlInputMapper.class</t>
+    <t xml:space="preserve">    │  │          │      TcMapper.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      TcMapper.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      TlMapper.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      TlMapper.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      WcMapper.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      WcMapper.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      WlMapper.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      WlMapper.xml</t>
   </si>
   <si>
     <t xml:space="preserve">    │  │          ├─service</t>
@@ -811,12 +913,27 @@
     <t xml:space="preserve">    │  │          │      CmActuarialService.class</t>
   </si>
   <si>
-    <t xml:space="preserve">    │  │          │      WlInputService.class</t>
+    <t xml:space="preserve">    │  │          │      TcService.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      TlEntryService.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      TlInputService.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      WcService.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      WlService.class</t>
   </si>
   <si>
     <t xml:space="preserve">    │  │          └─validation</t>
   </si>
   <si>
+    <t xml:space="preserve">    │  │                  TcInputValidation.class</t>
+  </si>
+  <si>
     <t xml:space="preserve">    │  │                  WlInputValidation.class</t>
   </si>
   <si>
@@ -859,6 +976,18 @@
     <t xml:space="preserve">    │  │  │      cm_common.css</t>
   </si>
   <si>
+    <t xml:space="preserve">    │  │  │      tc_common.css</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │  │      tl_input.css</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │  │      wc_common.css</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │  │      wl_common.css</t>
+  </si>
+  <si>
     <t xml:space="preserve">    │  │  │      </t>
   </si>
   <si>
@@ -871,6 +1000,15 @@
     <t xml:space="preserve">    │  │          jquery-3.6.0.min.js</t>
   </si>
   <si>
+    <t xml:space="preserve">    │  │          tl_input.js</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          wc_input.js</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          wl_input.js</t>
+  </si>
+  <si>
     <t xml:space="preserve">    │  │          </t>
   </si>
   <si>
@@ -886,13 +1024,37 @@
     <t xml:space="preserve">    │          cm_task.html</t>
   </si>
   <si>
+    <t xml:space="preserve">    │          tc_completion.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │          tc_confirm.html</t>
+  </si>
+  <si>
     <t xml:space="preserve">    │          tc_input.html</t>
   </si>
   <si>
+    <t xml:space="preserve">    │          tl_completion.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │          tl_confirmation.html</t>
+  </si>
+  <si>
     <t xml:space="preserve">    │          tl_input.html</t>
   </si>
   <si>
+    <t xml:space="preserve">    │          wc_completion.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │          wc_confirmation.html</t>
+  </si>
+  <si>
     <t xml:space="preserve">    │          wc_input.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │          wl_completion.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │          wl_confirmation.html</t>
   </si>
   <si>
     <t xml:space="preserve">    │          wl_input.html</t>
@@ -924,12 +1086,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -952,14 +1114,24 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FFFF0000"/>
       <name val="ＭＳ 明朝"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="ＭＳ 明朝"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -970,16 +1142,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -987,7 +1151,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -1003,7 +1167,31 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1011,7 +1199,21 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1019,13 +1221,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1039,15 +1234,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1063,13 +1249,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -1078,29 +1257,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1121,7 +1277,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1133,13 +1373,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1157,90 +1421,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1253,13 +1433,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1275,38 +1461,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1352,6 +1508,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1378,11 +1558,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1398,30 +1576,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1443,6 +1597,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1457,149 +1622,149 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1612,13 +1777,25 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -1940,7 +2117,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C275"/>
+  <dimension ref="A1:C355"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -1974,7 +2151,7 @@
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1982,1708 +2159,2133 @@
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="5"/>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="5"/>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="5"/>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="5"/>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="5"/>
     </row>
     <row r="9" spans="2:3">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="C9" s="5"/>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="C10" s="5"/>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="C11" s="5"/>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C12" s="5"/>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="C13" s="5"/>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="C14" s="5"/>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="C15" s="5"/>
     </row>
     <row r="16" hidden="1" spans="2:3">
       <c r="B16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="C16" s="5"/>
     </row>
     <row r="17" hidden="1" spans="2:3">
       <c r="B17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="C17" s="5"/>
     </row>
     <row r="18" hidden="1" spans="2:3">
       <c r="B18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="C18" s="5"/>
     </row>
     <row r="19" hidden="1" spans="2:3">
       <c r="B19" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="C19" s="5"/>
     </row>
     <row r="20" hidden="1" spans="2:3">
       <c r="B20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="C20" s="5"/>
     </row>
     <row r="21" hidden="1" spans="2:3">
       <c r="B21" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="C21" s="5"/>
     </row>
     <row r="22" hidden="1" spans="2:3">
       <c r="B22" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="C22" s="5"/>
     </row>
     <row r="23" hidden="1" spans="2:3">
       <c r="B23" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="C23" s="5"/>
     </row>
     <row r="24" hidden="1" spans="2:3">
       <c r="B24" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="C24" s="5"/>
     </row>
     <row r="25" hidden="1" spans="2:3">
       <c r="B25" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="C25" s="5"/>
     </row>
     <row r="26" hidden="1" spans="2:3">
       <c r="B26" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="C26" s="5"/>
     </row>
     <row r="27" hidden="1" spans="2:3">
       <c r="B27" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="C27" s="5"/>
     </row>
     <row r="28" hidden="1" spans="2:3">
       <c r="B28" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="C28" s="5"/>
     </row>
     <row r="29" hidden="1" spans="2:3">
       <c r="B29" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="C29" s="5"/>
     </row>
     <row r="30" hidden="1" spans="2:3">
       <c r="B30" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="C30" s="5"/>
     </row>
     <row r="31" hidden="1" spans="2:3">
       <c r="B31" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="C31" s="5"/>
     </row>
     <row r="32" hidden="1" spans="2:3">
       <c r="B32" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="C32" s="5"/>
     </row>
     <row r="33" hidden="1" spans="2:3">
       <c r="B33" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="C33" s="5"/>
     </row>
     <row r="34" hidden="1" spans="2:3">
       <c r="B34" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="C34" s="5"/>
     </row>
     <row r="35" hidden="1" spans="2:3">
       <c r="B35" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="C35" s="5"/>
     </row>
     <row r="36" hidden="1" spans="2:3">
       <c r="B36" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" s="4"/>
+        <v>37</v>
+      </c>
+      <c r="C36" s="5"/>
     </row>
     <row r="37" hidden="1" spans="2:3">
       <c r="B37" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="C37" s="5"/>
     </row>
     <row r="38" hidden="1" spans="2:3">
       <c r="B38" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="C38" s="5"/>
     </row>
     <row r="39" hidden="1" spans="2:3">
       <c r="B39" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="C39" s="5"/>
     </row>
     <row r="40" hidden="1" spans="2:3">
       <c r="B40" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="C40" s="5"/>
     </row>
     <row r="41" hidden="1" spans="2:3">
       <c r="B41" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="C41" s="5"/>
     </row>
     <row r="42" hidden="1" spans="2:3">
       <c r="B42" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" s="4"/>
+        <v>43</v>
+      </c>
+      <c r="C42" s="5"/>
     </row>
     <row r="43" hidden="1" spans="2:3">
       <c r="B43" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C43" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="C43" s="5"/>
     </row>
     <row r="44" hidden="1" spans="2:3">
       <c r="B44" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C44" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="C44" s="5"/>
     </row>
     <row r="45" hidden="1" spans="2:3">
       <c r="B45" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C45" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="C45" s="5"/>
     </row>
     <row r="46" hidden="1" spans="2:3">
       <c r="B46" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46" s="4"/>
+        <v>46</v>
+      </c>
+      <c r="C46" s="5"/>
     </row>
     <row r="47" hidden="1" spans="2:3">
       <c r="B47" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C47" s="4"/>
+        <v>47</v>
+      </c>
+      <c r="C47" s="5"/>
     </row>
     <row r="48" hidden="1" spans="2:3">
       <c r="B48" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C48" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="C48" s="5"/>
     </row>
     <row r="49" hidden="1" spans="2:3">
       <c r="B49" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C49" s="4"/>
+        <v>48</v>
+      </c>
+      <c r="C49" s="5"/>
     </row>
     <row r="50" hidden="1" spans="2:3">
       <c r="B50" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C50" s="4"/>
+        <v>49</v>
+      </c>
+      <c r="C50" s="5"/>
     </row>
     <row r="51" hidden="1" spans="2:3">
       <c r="B51" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C51" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="C51" s="5"/>
     </row>
     <row r="52" hidden="1" spans="2:3">
       <c r="B52" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C52" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="C52" s="5"/>
     </row>
     <row r="53" hidden="1" spans="2:3">
       <c r="B53" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C53" s="4"/>
+        <v>51</v>
+      </c>
+      <c r="C53" s="5"/>
     </row>
     <row r="54" hidden="1" spans="2:3">
       <c r="B54" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C54" s="4"/>
+        <v>52</v>
+      </c>
+      <c r="C54" s="5"/>
     </row>
     <row r="55" hidden="1" spans="2:3">
       <c r="B55" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C55" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="C55" s="5"/>
     </row>
     <row r="56" hidden="1" spans="2:3">
       <c r="B56" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C56" s="4"/>
+        <v>54</v>
+      </c>
+      <c r="C56" s="5"/>
     </row>
     <row r="57" hidden="1" spans="2:3">
       <c r="B57" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C57" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="C57" s="5"/>
     </row>
     <row r="58" hidden="1" spans="2:3">
       <c r="B58" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C58" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="C58" s="5"/>
     </row>
     <row r="59" hidden="1" spans="2:3">
       <c r="B59" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C59" s="4"/>
+        <v>57</v>
+      </c>
+      <c r="C59" s="5"/>
     </row>
     <row r="60" hidden="1" spans="2:3">
       <c r="B60" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C60" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="C60" s="5"/>
     </row>
     <row r="61" hidden="1" spans="2:3">
       <c r="B61" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C61" s="4"/>
+        <v>59</v>
+      </c>
+      <c r="C61" s="5"/>
     </row>
     <row r="62" hidden="1" spans="2:3">
       <c r="B62" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C62" s="4"/>
+        <v>60</v>
+      </c>
+      <c r="C62" s="5"/>
     </row>
     <row r="63" hidden="1" spans="2:3">
       <c r="B63" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C63" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="C63" s="5"/>
     </row>
     <row r="64" hidden="1" spans="2:3">
       <c r="B64" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C64" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="C64" s="5"/>
     </row>
     <row r="65" hidden="1" spans="2:3">
       <c r="B65" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C65" s="4"/>
+        <v>63</v>
+      </c>
+      <c r="C65" s="5"/>
     </row>
     <row r="66" hidden="1" spans="2:3">
       <c r="B66" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C66" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="C66" s="5"/>
     </row>
     <row r="67" hidden="1" spans="2:3">
       <c r="B67" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C67" s="4"/>
+        <v>65</v>
+      </c>
+      <c r="C67" s="5"/>
     </row>
     <row r="68" hidden="1" spans="2:3">
       <c r="B68" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C68" s="4"/>
+        <v>66</v>
+      </c>
+      <c r="C68" s="5"/>
     </row>
     <row r="69" hidden="1" spans="2:3">
       <c r="B69" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C69" s="4"/>
+        <v>67</v>
+      </c>
+      <c r="C69" s="5"/>
     </row>
     <row r="70" hidden="1" spans="2:3">
       <c r="B70" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C70" s="4"/>
+        <v>68</v>
+      </c>
+      <c r="C70" s="5"/>
     </row>
     <row r="71" hidden="1" spans="2:3">
       <c r="B71" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C71" s="4"/>
+        <v>69</v>
+      </c>
+      <c r="C71" s="5"/>
     </row>
     <row r="72" hidden="1" spans="2:3">
       <c r="B72" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C72" s="4"/>
+        <v>70</v>
+      </c>
+      <c r="C72" s="5"/>
     </row>
     <row r="73" hidden="1" spans="2:3">
       <c r="B73" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C73" s="4"/>
+        <v>71</v>
+      </c>
+      <c r="C73" s="5"/>
     </row>
     <row r="74" hidden="1" spans="2:3">
       <c r="B74" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C74" s="4"/>
+        <v>72</v>
+      </c>
+      <c r="C74" s="5"/>
     </row>
     <row r="75" hidden="1" spans="2:3">
       <c r="B75" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C75" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="C75" s="5"/>
     </row>
     <row r="76" hidden="1" spans="2:3">
       <c r="B76" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C76" s="4"/>
+        <v>74</v>
+      </c>
+      <c r="C76" s="5"/>
     </row>
     <row r="77" hidden="1" spans="2:3">
       <c r="B77" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C77" s="4"/>
+        <v>75</v>
+      </c>
+      <c r="C77" s="5"/>
     </row>
     <row r="78" hidden="1" spans="2:3">
       <c r="B78" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C78" s="4"/>
+        <v>76</v>
+      </c>
+      <c r="C78" s="5"/>
     </row>
     <row r="79" hidden="1" spans="2:3">
       <c r="B79" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C79" s="4"/>
+        <v>77</v>
+      </c>
+      <c r="C79" s="5"/>
     </row>
     <row r="80" hidden="1" spans="2:3">
       <c r="B80" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C80" s="4"/>
+        <v>78</v>
+      </c>
+      <c r="C80" s="5"/>
     </row>
     <row r="81" hidden="1" spans="2:3">
       <c r="B81" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C81" s="4"/>
+        <v>79</v>
+      </c>
+      <c r="C81" s="5"/>
     </row>
     <row r="82" hidden="1" spans="2:3">
       <c r="B82" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C82" s="4"/>
+        <v>80</v>
+      </c>
+      <c r="C82" s="5"/>
     </row>
     <row r="83" hidden="1" spans="2:3">
       <c r="B83" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C83" s="4"/>
+        <v>81</v>
+      </c>
+      <c r="C83" s="5"/>
     </row>
     <row r="84" hidden="1" spans="2:3">
       <c r="B84" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C84" s="4"/>
+        <v>82</v>
+      </c>
+      <c r="C84" s="5"/>
     </row>
     <row r="85" hidden="1" spans="2:3">
       <c r="B85" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C85" s="4"/>
+        <v>83</v>
+      </c>
+      <c r="C85" s="5"/>
     </row>
     <row r="86" hidden="1" spans="2:3">
       <c r="B86" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C86" s="4"/>
+        <v>84</v>
+      </c>
+      <c r="C86" s="5"/>
     </row>
     <row r="87" hidden="1" spans="2:3">
       <c r="B87" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C87" s="4"/>
+        <v>85</v>
+      </c>
+      <c r="C87" s="5"/>
     </row>
     <row r="88" hidden="1" spans="2:3">
       <c r="B88" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C88" s="4"/>
+        <v>86</v>
+      </c>
+      <c r="C88" s="5"/>
     </row>
     <row r="89" hidden="1" spans="2:3">
       <c r="B89" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C89" s="4"/>
+        <v>87</v>
+      </c>
+      <c r="C89" s="5"/>
     </row>
     <row r="90" hidden="1" spans="2:3">
       <c r="B90" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C90" s="4"/>
+        <v>88</v>
+      </c>
+      <c r="C90" s="5"/>
     </row>
     <row r="91" hidden="1" spans="2:3">
       <c r="B91" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C91" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="C91" s="5"/>
     </row>
     <row r="92" hidden="1" spans="2:3">
       <c r="B92" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C92" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="C92" s="5"/>
     </row>
     <row r="93" hidden="1" spans="2:3">
       <c r="B93" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C93" s="4"/>
+        <v>91</v>
+      </c>
+      <c r="C93" s="5"/>
     </row>
     <row r="94" hidden="1" spans="2:3">
       <c r="B94" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C94" s="4"/>
+        <v>92</v>
+      </c>
+      <c r="C94" s="5"/>
     </row>
     <row r="95" hidden="1" spans="2:3">
       <c r="B95" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C95" s="4"/>
+        <v>93</v>
+      </c>
+      <c r="C95" s="5"/>
     </row>
     <row r="96" hidden="1" spans="2:3">
       <c r="B96" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C96" s="4"/>
+        <v>94</v>
+      </c>
+      <c r="C96" s="5"/>
     </row>
     <row r="97" hidden="1" spans="2:3">
       <c r="B97" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C97" s="4"/>
+        <v>95</v>
+      </c>
+      <c r="C97" s="5"/>
     </row>
     <row r="98" hidden="1" spans="2:3">
       <c r="B98" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C98" s="4"/>
+        <v>96</v>
+      </c>
+      <c r="C98" s="5"/>
     </row>
     <row r="99" hidden="1" spans="2:3">
       <c r="B99" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C99" s="4"/>
+        <v>97</v>
+      </c>
+      <c r="C99" s="5"/>
     </row>
     <row r="100" hidden="1" spans="2:3">
       <c r="B100" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C100" s="4"/>
+        <v>98</v>
+      </c>
+      <c r="C100" s="5"/>
     </row>
     <row r="101" hidden="1" spans="2:3">
       <c r="B101" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C101" s="4"/>
+        <v>99</v>
+      </c>
+      <c r="C101" s="5"/>
     </row>
     <row r="102" hidden="1" spans="2:3">
       <c r="B102" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C102" s="4"/>
+        <v>100</v>
+      </c>
+      <c r="C102" s="5"/>
     </row>
     <row r="103" hidden="1" spans="2:3">
       <c r="B103" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C103" s="4"/>
+        <v>101</v>
+      </c>
+      <c r="C103" s="5"/>
     </row>
     <row r="104" hidden="1" spans="2:3">
       <c r="B104" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C104" s="4"/>
+        <v>102</v>
+      </c>
+      <c r="C104" s="5"/>
     </row>
     <row r="105" hidden="1" spans="2:3">
       <c r="B105" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C105" s="4"/>
+        <v>103</v>
+      </c>
+      <c r="C105" s="5"/>
     </row>
     <row r="106" hidden="1" spans="2:3">
       <c r="B106" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C106" s="4"/>
+        <v>95</v>
+      </c>
+      <c r="C106" s="5"/>
     </row>
     <row r="107" hidden="1" spans="2:3">
       <c r="B107" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C107" s="4"/>
+        <v>104</v>
+      </c>
+      <c r="C107" s="5"/>
     </row>
     <row r="108" hidden="1" spans="2:3">
       <c r="B108" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C108" s="4"/>
+        <v>105</v>
+      </c>
+      <c r="C108" s="5"/>
     </row>
     <row r="109" hidden="1" spans="2:3">
       <c r="B109" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C109" s="4"/>
+        <v>106</v>
+      </c>
+      <c r="C109" s="5"/>
     </row>
     <row r="110" hidden="1" spans="2:3">
       <c r="B110" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C110" s="4"/>
+        <v>107</v>
+      </c>
+      <c r="C110" s="5"/>
     </row>
     <row r="111" hidden="1" spans="2:3">
       <c r="B111" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C111" s="4"/>
+        <v>108</v>
+      </c>
+      <c r="C111" s="5"/>
     </row>
     <row r="112" hidden="1" spans="2:3">
       <c r="B112" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C112" s="4"/>
+        <v>109</v>
+      </c>
+      <c r="C112" s="5"/>
     </row>
     <row r="113" hidden="1" spans="2:3">
       <c r="B113" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C113" s="4"/>
+        <v>110</v>
+      </c>
+      <c r="C113" s="5"/>
     </row>
     <row r="114" hidden="1" spans="2:3">
       <c r="B114" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C114" s="4"/>
+        <v>111</v>
+      </c>
+      <c r="C114" s="5"/>
     </row>
     <row r="115" hidden="1" spans="2:3">
       <c r="B115" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C115" s="4"/>
+        <v>112</v>
+      </c>
+      <c r="C115" s="5"/>
     </row>
     <row r="116" hidden="1" spans="2:3">
       <c r="B116" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C116" s="4"/>
+        <v>113</v>
+      </c>
+      <c r="C116" s="5"/>
     </row>
     <row r="117" hidden="1" spans="2:3">
       <c r="B117" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C117" s="4"/>
+        <v>114</v>
+      </c>
+      <c r="C117" s="5"/>
     </row>
     <row r="118" hidden="1" spans="2:3">
       <c r="B118" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C118" s="4"/>
+        <v>115</v>
+      </c>
+      <c r="C118" s="5"/>
     </row>
     <row r="119" hidden="1" spans="2:3">
       <c r="B119" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C119" s="4"/>
+        <v>116</v>
+      </c>
+      <c r="C119" s="5"/>
     </row>
     <row r="120" hidden="1" spans="2:3">
       <c r="B120" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C120" s="4"/>
+        <v>117</v>
+      </c>
+      <c r="C120" s="5"/>
     </row>
     <row r="121" hidden="1" spans="2:3">
       <c r="B121" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C121" s="4"/>
+        <v>118</v>
+      </c>
+      <c r="C121" s="5"/>
     </row>
     <row r="122" hidden="1" spans="2:3">
       <c r="B122" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C122" s="4"/>
+        <v>119</v>
+      </c>
+      <c r="C122" s="5"/>
     </row>
     <row r="123" hidden="1" spans="2:3">
       <c r="B123" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C123" s="4"/>
+        <v>120</v>
+      </c>
+      <c r="C123" s="5"/>
     </row>
     <row r="124" hidden="1" spans="2:3">
       <c r="B124" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C124" s="5"/>
+    </row>
+    <row r="125" spans="2:3">
+      <c r="B125" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C125" s="5"/>
+    </row>
+    <row r="126" spans="2:3">
+      <c r="B126" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C124" s="4"/>
-    </row>
-    <row r="125" hidden="1" spans="2:3">
-      <c r="B125" s="4" t="s">
+      <c r="C126" s="5"/>
+    </row>
+    <row r="127" spans="2:3">
+      <c r="B127" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C125" s="4"/>
-    </row>
-    <row r="126" hidden="1" spans="2:3">
-      <c r="B126" s="4" t="s">
+      <c r="C127" s="5"/>
+    </row>
+    <row r="128" spans="2:3">
+      <c r="B128" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C126" s="4"/>
-    </row>
-    <row r="127" hidden="1" spans="2:3">
-      <c r="B127" s="4" t="s">
+      <c r="C128" s="5"/>
+    </row>
+    <row r="129" spans="2:3">
+      <c r="B129" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C127" s="4"/>
-    </row>
-    <row r="128" hidden="1" spans="2:3">
-      <c r="B128" s="4" t="s">
+      <c r="C129" s="5"/>
+    </row>
+    <row r="130" spans="2:3">
+      <c r="B130" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C128" s="4"/>
-    </row>
-    <row r="129" hidden="1" spans="2:3">
-      <c r="B129" s="4" t="s">
+      <c r="C130" s="5"/>
+    </row>
+    <row r="131" spans="2:3">
+      <c r="B131" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C129" s="4"/>
-    </row>
-    <row r="130" hidden="1" spans="2:3">
-      <c r="B130" s="4" t="s">
+      <c r="C131" s="5"/>
+    </row>
+    <row r="132" spans="2:3">
+      <c r="B132" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C130" s="4"/>
-    </row>
-    <row r="131" hidden="1" spans="2:3">
-      <c r="B131" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C131" s="4"/>
-    </row>
-    <row r="132" hidden="1" spans="2:3">
-      <c r="B132" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C132" s="4"/>
+      <c r="C132" s="5"/>
     </row>
     <row r="133" spans="2:3">
       <c r="B133" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C133" s="4"/>
+        <v>130</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="134" spans="2:3">
       <c r="B134" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C134" s="4"/>
+        <v>132</v>
+      </c>
+      <c r="C134" s="5"/>
     </row>
     <row r="135" spans="2:3">
       <c r="B135" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C135" s="4"/>
+        <v>133</v>
+      </c>
+      <c r="C135" s="5"/>
     </row>
     <row r="136" spans="2:3">
       <c r="B136" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C136" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C136" s="4"/>
     </row>
     <row r="137" spans="2:3">
       <c r="B137" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C137" s="4"/>
+      <c r="C137" s="5"/>
     </row>
     <row r="138" spans="2:3">
       <c r="B138" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C138" s="4"/>
+      <c r="C138" s="5"/>
     </row>
     <row r="139" spans="2:3">
       <c r="B139" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C139" s="4"/>
+      <c r="C139" s="5"/>
     </row>
     <row r="140" spans="2:3">
       <c r="B140" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C140" s="4"/>
+      <c r="C140" s="5"/>
     </row>
     <row r="141" spans="2:3">
       <c r="B141" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C141" s="4" t="s">
-        <v>141</v>
-      </c>
+      <c r="C141" s="5"/>
     </row>
     <row r="142" spans="2:3">
       <c r="B142" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>143</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="C142" s="5"/>
     </row>
     <row r="143" spans="2:3">
       <c r="B143" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C143" s="4"/>
+        <v>133</v>
+      </c>
+      <c r="C143" s="5"/>
     </row>
     <row r="144" spans="2:3">
       <c r="B144" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="145" spans="2:3">
       <c r="B145" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C145" s="4" t="s">
-        <v>148</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="C145" s="5"/>
     </row>
     <row r="146" spans="2:3">
       <c r="B146" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C146" s="6" t="s">
-        <v>150</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="C146" s="4"/>
     </row>
     <row r="147" spans="2:3">
       <c r="B147" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C147" s="4" t="s">
-        <v>152</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="C147" s="5"/>
     </row>
     <row r="148" spans="2:3">
       <c r="B148" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C148" s="4" t="s">
-        <v>154</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="C148" s="5"/>
     </row>
     <row r="149" spans="2:3">
       <c r="B149" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>156</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="C149" s="5"/>
     </row>
     <row r="150" spans="2:3">
       <c r="B150" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C150" s="4" t="s">
-        <v>158</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="C150" s="5"/>
     </row>
     <row r="151" spans="2:3">
       <c r="B151" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C151" s="4"/>
+        <v>150</v>
+      </c>
+      <c r="C151" s="5"/>
     </row>
     <row r="152" spans="2:3">
       <c r="B152" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>160</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="C152" s="5"/>
     </row>
     <row r="153" spans="2:3">
-      <c r="B153" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="C153" s="6" t="s">
-        <v>162</v>
-      </c>
+      <c r="B153" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C153" s="4"/>
     </row>
     <row r="154" spans="2:3">
-      <c r="B154" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="C154" s="6" t="s">
-        <v>164</v>
-      </c>
+      <c r="B154" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C154" s="4"/>
     </row>
     <row r="155" spans="2:3">
-      <c r="B155" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="C155" s="6" t="s">
-        <v>166</v>
-      </c>
+      <c r="B155" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C155" s="4"/>
     </row>
     <row r="156" spans="2:3">
-      <c r="B156" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="C156" s="6" t="s">
-        <v>168</v>
-      </c>
+      <c r="B156" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C156" s="4"/>
     </row>
     <row r="157" spans="2:3">
       <c r="B157" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C157" s="4" t="s">
-        <v>170</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="C157" s="5"/>
     </row>
     <row r="158" spans="2:3">
       <c r="B158" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C158" s="4"/>
+        <v>157</v>
+      </c>
+      <c r="C158" s="5"/>
     </row>
     <row r="159" spans="2:3">
       <c r="B159" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C159" s="5"/>
+    </row>
+    <row r="160" spans="2:3">
+      <c r="B160" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C160" s="4"/>
+    </row>
+    <row r="161" spans="2:3">
+      <c r="B161" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C161" s="4"/>
+    </row>
+    <row r="162" spans="2:3">
+      <c r="B162" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C162" s="4"/>
+    </row>
+    <row r="163" spans="2:3">
+      <c r="B163" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C163" s="4"/>
+    </row>
+    <row r="164" spans="2:3">
+      <c r="B164" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C164" s="4"/>
+    </row>
+    <row r="165" spans="2:3">
+      <c r="B165" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C165" s="4"/>
+    </row>
+    <row r="166" spans="2:3">
+      <c r="B166" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C166" s="4"/>
+    </row>
+    <row r="167" spans="2:3">
+      <c r="B167" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C167" s="4"/>
+    </row>
+    <row r="168" spans="2:3">
+      <c r="B168" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3">
+      <c r="B169" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C169" s="4"/>
+    </row>
+    <row r="170" spans="2:3">
+      <c r="B170" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C170" s="4"/>
+    </row>
+    <row r="171" spans="2:3">
+      <c r="B171" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C171" s="4"/>
+    </row>
+    <row r="172" spans="2:3">
+      <c r="B172" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C159" s="4" t="s">
+      <c r="C172" s="4"/>
+    </row>
+    <row r="173" spans="2:3">
+      <c r="B173" s="4" t="s">
         <v>172</v>
-      </c>
-    </row>
-    <row r="160" spans="2:3">
-      <c r="B160" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="C160" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="161" spans="2:3">
-      <c r="B161" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="C161" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="162" spans="2:3">
-      <c r="B162" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C162" s="6"/>
-    </row>
-    <row r="163" spans="2:3">
-      <c r="B163" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C163" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="164" spans="2:3">
-      <c r="B164" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="C164" s="6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="165" spans="2:3">
-      <c r="B165" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="C165" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="166" spans="2:3">
-      <c r="B166" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C166" s="6"/>
-    </row>
-    <row r="167" spans="2:3">
-      <c r="B167" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="C167" s="6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="168" spans="2:3">
-      <c r="B168" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="C168" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="169" spans="2:3">
-      <c r="B169" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="C169" s="6"/>
-    </row>
-    <row r="170" spans="2:3">
-      <c r="B170" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="C170" s="6"/>
-    </row>
-    <row r="171" spans="2:3">
-      <c r="B171" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="C171" s="6" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="172" spans="2:3">
-      <c r="B172" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C172" s="6"/>
-    </row>
-    <row r="173" spans="2:3">
-      <c r="B173" s="6" t="s">
-        <v>192</v>
       </c>
       <c r="C173" s="4"/>
     </row>
     <row r="174" spans="2:3">
       <c r="B174" s="4" t="s">
-        <v>193</v>
+        <v>133</v>
       </c>
       <c r="C174" s="4"/>
     </row>
     <row r="175" spans="2:3">
       <c r="B175" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C175" s="4"/>
+        <v>173</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="176" spans="2:3">
       <c r="B176" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C176" s="4" t="s">
-        <v>196</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="C176" s="4"/>
     </row>
     <row r="177" spans="2:3">
       <c r="B177" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C177" s="6" t="s">
-        <v>198</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="C177" s="4"/>
     </row>
     <row r="178" spans="2:3">
       <c r="B178" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C178" s="6"/>
+        <v>177</v>
+      </c>
+      <c r="C178" s="4"/>
     </row>
     <row r="179" spans="2:3">
       <c r="B179" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C179" s="6"/>
+        <v>178</v>
+      </c>
+      <c r="C179" s="4"/>
     </row>
     <row r="180" spans="2:3">
       <c r="B180" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C180" s="6" t="s">
-        <v>202</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="C180" s="4"/>
     </row>
     <row r="181" spans="2:3">
       <c r="B181" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C181" s="6"/>
+        <v>180</v>
+      </c>
+      <c r="C181" s="4"/>
     </row>
     <row r="182" spans="2:3">
       <c r="B182" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C182" s="6" t="s">
-        <v>205</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="C182" s="4"/>
     </row>
     <row r="183" spans="2:3">
       <c r="B183" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C183" s="6"/>
+        <v>181</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="184" spans="2:3">
       <c r="B184" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C184" s="6" t="s">
-        <v>208</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="C184" s="4"/>
     </row>
     <row r="185" spans="2:3">
       <c r="B185" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C185" s="6"/>
+        <v>184</v>
+      </c>
+      <c r="C185" s="4"/>
     </row>
     <row r="186" spans="2:3">
       <c r="B186" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C186" s="6"/>
+        <v>185</v>
+      </c>
+      <c r="C186" s="5"/>
     </row>
     <row r="187" spans="2:3">
       <c r="B187" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C187" s="6"/>
+        <v>186</v>
+      </c>
+      <c r="C187" s="5"/>
     </row>
     <row r="188" spans="2:3">
       <c r="B188" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="C188" s="6" t="s">
-        <v>213</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="C188" s="5"/>
     </row>
     <row r="189" spans="2:3">
-      <c r="B189" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="C189" s="6" t="s">
-        <v>215</v>
-      </c>
+      <c r="B189" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C189" s="5"/>
     </row>
     <row r="190" spans="2:3">
       <c r="B190" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C190" s="6" t="s">
-        <v>217</v>
+        <v>189</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="191" spans="2:3">
       <c r="B191" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="C191" s="6" t="s">
-        <v>219</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="C191" s="4"/>
     </row>
     <row r="192" spans="2:3">
       <c r="B192" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="C192" s="6" t="s">
-        <v>221</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="C192" s="4"/>
     </row>
     <row r="193" spans="2:3">
       <c r="B193" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C193" s="4" t="s">
-        <v>223</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="C193" s="4"/>
     </row>
     <row r="194" spans="2:3">
       <c r="B194" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="C194" s="4" t="s">
-        <v>225</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="C194" s="4"/>
     </row>
     <row r="195" spans="2:3">
       <c r="B195" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="C195" s="4" t="s">
-        <v>227</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="C195" s="4"/>
     </row>
     <row r="196" spans="2:3">
       <c r="B196" s="4" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="C196" s="4"/>
     </row>
     <row r="197" spans="2:3">
       <c r="B197" s="4" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="C197" s="4"/>
     </row>
     <row r="198" spans="2:3">
       <c r="B198" s="4" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="C198" s="4"/>
     </row>
     <row r="199" spans="2:3">
       <c r="B199" s="4" t="s">
-        <v>129</v>
+        <v>199</v>
       </c>
       <c r="C199" s="4"/>
     </row>
     <row r="200" spans="2:3">
       <c r="B200" s="4" t="s">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="C200" s="4"/>
     </row>
     <row r="201" spans="2:3">
       <c r="B201" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C201" s="4"/>
+        <v>201</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="202" spans="2:3">
       <c r="B202" s="4" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="C202" s="4"/>
     </row>
     <row r="203" spans="2:3">
       <c r="B203" s="4" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="C203" s="4"/>
     </row>
     <row r="204" spans="2:3">
       <c r="B204" s="4" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="C204" s="4"/>
     </row>
     <row r="205" spans="2:3">
       <c r="B205" s="4" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="C205" s="4"/>
     </row>
     <row r="206" spans="2:3">
       <c r="B206" s="4" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="C206" s="4"/>
     </row>
     <row r="207" spans="2:3">
       <c r="B207" s="4" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="C207" s="4"/>
     </row>
     <row r="208" spans="2:3">
       <c r="B208" s="4" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="C208" s="4"/>
     </row>
     <row r="209" spans="2:3">
       <c r="B209" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C209" s="4"/>
+        <v>210</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="210" spans="2:3">
       <c r="B210" s="4" t="s">
-        <v>239</v>
+        <v>212</v>
       </c>
       <c r="C210" s="4"/>
     </row>
     <row r="211" spans="2:3">
       <c r="B211" s="4" t="s">
-        <v>240</v>
+        <v>213</v>
       </c>
       <c r="C211" s="4"/>
     </row>
     <row r="212" spans="2:3">
       <c r="B212" s="4" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="C212" s="4"/>
     </row>
     <row r="213" spans="2:3">
       <c r="B213" s="4" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="2:3">
       <c r="B214" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="C214" s="4"/>
+        <v>216</v>
+      </c>
+      <c r="C214" s="5"/>
     </row>
     <row r="215" spans="2:3">
       <c r="B215" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C215" s="4"/>
+        <v>217</v>
+      </c>
+      <c r="C215" s="5"/>
     </row>
     <row r="216" spans="2:3">
       <c r="B216" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="C216" s="4"/>
+        <v>218</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="217" spans="2:3">
       <c r="B217" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C217" s="4"/>
+        <v>220</v>
+      </c>
+      <c r="C217" s="5"/>
     </row>
     <row r="218" spans="2:3">
       <c r="B218" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C218" s="4"/>
+        <v>221</v>
+      </c>
+      <c r="C218" s="5"/>
     </row>
     <row r="219" spans="2:3">
       <c r="B219" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C219" s="4"/>
+        <v>222</v>
+      </c>
+      <c r="C219" s="5"/>
     </row>
     <row r="220" spans="2:3">
       <c r="B220" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="C220" s="4"/>
+        <v>223</v>
+      </c>
+      <c r="C220" s="5"/>
     </row>
     <row r="221" spans="2:3">
       <c r="B221" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="C221" s="4"/>
+        <v>224</v>
+      </c>
+      <c r="C221" s="5"/>
     </row>
     <row r="222" spans="2:3">
       <c r="B222" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="C222" s="4"/>
+        <v>225</v>
+      </c>
+      <c r="C222" s="5"/>
     </row>
     <row r="223" spans="2:3">
       <c r="B223" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C223" s="4"/>
+        <v>226</v>
+      </c>
+      <c r="C223" s="5"/>
     </row>
     <row r="224" spans="2:3">
       <c r="B224" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C224" s="4"/>
+        <v>227</v>
+      </c>
+      <c r="C224" s="5"/>
     </row>
     <row r="225" spans="2:3">
       <c r="B225" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="C225" s="4"/>
+        <v>228</v>
+      </c>
+      <c r="C225" s="5"/>
     </row>
     <row r="226" spans="2:3">
       <c r="B226" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="C226" s="4"/>
+        <v>229</v>
+      </c>
+      <c r="C226" s="5"/>
     </row>
     <row r="227" spans="2:3">
       <c r="B227" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="C227" s="4"/>
+        <v>230</v>
+      </c>
+      <c r="C227" s="5"/>
     </row>
     <row r="228" spans="2:3">
       <c r="B228" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="C228" s="4"/>
+        <v>231</v>
+      </c>
+      <c r="C228" s="5"/>
     </row>
     <row r="229" spans="2:3">
       <c r="B229" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="C229" s="4"/>
+        <v>232</v>
+      </c>
+      <c r="C229" s="5"/>
     </row>
     <row r="230" spans="2:3">
       <c r="B230" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C230" s="4"/>
+        <v>233</v>
+      </c>
+      <c r="C230" s="5"/>
     </row>
     <row r="231" spans="2:3">
       <c r="B231" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C231" s="4"/>
+        <v>234</v>
+      </c>
+      <c r="C231" s="5"/>
     </row>
     <row r="232" spans="2:3">
       <c r="B232" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="C232" s="4"/>
+        <v>235</v>
+      </c>
+      <c r="C232" s="5"/>
     </row>
     <row r="233" spans="2:3">
       <c r="B233" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C233" s="4"/>
+        <v>236</v>
+      </c>
+      <c r="C233" s="5"/>
     </row>
     <row r="234" spans="2:3">
       <c r="B234" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="C234" s="4"/>
+        <v>237</v>
+      </c>
+      <c r="C234" s="5"/>
     </row>
     <row r="235" spans="2:3">
       <c r="B235" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C235" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="C235" s="5"/>
     </row>
     <row r="236" spans="2:3">
       <c r="B236" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C236" s="4"/>
+        <v>239</v>
+      </c>
+      <c r="C236" s="5"/>
     </row>
     <row r="237" spans="2:3">
       <c r="B237" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="C237" s="4"/>
+        <v>240</v>
+      </c>
+      <c r="C237" s="5"/>
     </row>
     <row r="238" spans="2:3">
       <c r="B238" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="C238" s="4"/>
+        <v>241</v>
+      </c>
+      <c r="C238" s="5"/>
     </row>
     <row r="239" spans="2:3">
       <c r="B239" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C239" s="4"/>
+        <v>242</v>
+      </c>
+      <c r="C239" s="5"/>
     </row>
     <row r="240" spans="2:3">
       <c r="B240" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C240" s="4"/>
+        <v>243</v>
+      </c>
+      <c r="C240" s="5"/>
     </row>
     <row r="241" spans="2:3">
       <c r="B241" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C241" s="4"/>
+        <v>244</v>
+      </c>
+      <c r="C241" s="5"/>
     </row>
     <row r="242" spans="2:3">
       <c r="B242" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C242" s="4"/>
+        <v>245</v>
+      </c>
+      <c r="C242" s="5"/>
     </row>
     <row r="243" spans="2:3">
       <c r="B243" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="C243" s="4"/>
+        <v>246</v>
+      </c>
+      <c r="C243" s="5"/>
     </row>
     <row r="244" spans="2:3">
       <c r="B244" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="C244" s="4"/>
+        <v>247</v>
+      </c>
+      <c r="C244" s="5"/>
     </row>
     <row r="245" spans="2:3">
       <c r="B245" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="C245" s="4"/>
+        <v>248</v>
+      </c>
+      <c r="C245" s="5"/>
     </row>
     <row r="246" spans="2:3">
       <c r="B246" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="C246" s="4"/>
+        <v>249</v>
+      </c>
+      <c r="C246" s="5"/>
     </row>
     <row r="247" spans="2:3">
       <c r="B247" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="C247" s="4"/>
+        <v>250</v>
+      </c>
+      <c r="C247" s="5"/>
     </row>
     <row r="248" spans="2:3">
       <c r="B248" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="C248" s="4"/>
+        <v>251</v>
+      </c>
+      <c r="C248" s="5"/>
     </row>
     <row r="249" spans="2:3">
       <c r="B249" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="C249" s="4"/>
+        <v>252</v>
+      </c>
+      <c r="C249" s="5"/>
     </row>
     <row r="250" spans="2:3">
       <c r="B250" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="C250" s="4"/>
+        <v>253</v>
+      </c>
+      <c r="C250" s="5"/>
     </row>
     <row r="251" spans="2:3">
       <c r="B251" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C251" s="4"/>
+        <v>254</v>
+      </c>
+      <c r="C251" s="5"/>
     </row>
     <row r="252" spans="2:3">
       <c r="B252" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="C252" s="4"/>
+        <v>255</v>
+      </c>
+      <c r="C252" s="5"/>
     </row>
     <row r="253" spans="2:3">
       <c r="B253" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="C253" s="4"/>
+        <v>256</v>
+      </c>
+      <c r="C253" s="5"/>
     </row>
     <row r="254" spans="2:3">
       <c r="B254" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="C254" s="4"/>
+        <v>257</v>
+      </c>
+      <c r="C254" s="5"/>
     </row>
     <row r="255" spans="2:3">
       <c r="B255" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="C255" s="4"/>
+        <v>258</v>
+      </c>
+      <c r="C255" s="5"/>
     </row>
     <row r="256" spans="2:3">
       <c r="B256" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="C256" s="4"/>
+        <v>259</v>
+      </c>
+      <c r="C256" s="5"/>
     </row>
     <row r="257" spans="2:3">
       <c r="B257" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="C257" s="4"/>
+        <v>260</v>
+      </c>
+      <c r="C257" s="5"/>
     </row>
     <row r="258" spans="2:3">
       <c r="B258" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="C258" s="4"/>
+        <v>261</v>
+      </c>
+      <c r="C258" s="5"/>
     </row>
     <row r="259" spans="2:3">
       <c r="B259" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="C259" s="4"/>
+        <v>254</v>
+      </c>
+      <c r="C259" s="5"/>
     </row>
     <row r="260" spans="2:3">
       <c r="B260" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="C260" s="4"/>
+        <v>262</v>
+      </c>
+      <c r="C260" s="5"/>
     </row>
     <row r="261" spans="2:3">
       <c r="B261" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="C261" s="4"/>
+        <v>263</v>
+      </c>
+      <c r="C261" s="5"/>
     </row>
     <row r="262" spans="2:3">
       <c r="B262" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="C262" s="4"/>
+        <v>264</v>
+      </c>
+      <c r="C262" s="5"/>
     </row>
     <row r="263" spans="2:3">
       <c r="B263" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="C263" s="4"/>
+        <v>265</v>
+      </c>
+      <c r="C263" s="5"/>
     </row>
     <row r="264" spans="2:3">
       <c r="B264" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="C264" s="4"/>
+        <v>266</v>
+      </c>
+      <c r="C264" s="5"/>
     </row>
     <row r="265" spans="2:3">
       <c r="B265" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="C265" s="4"/>
+        <v>267</v>
+      </c>
+      <c r="C265" s="5"/>
     </row>
     <row r="266" spans="2:3">
       <c r="B266" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="C266" s="4"/>
+        <v>268</v>
+      </c>
+      <c r="C266" s="5"/>
     </row>
     <row r="267" spans="2:3">
       <c r="B267" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="C267" s="4"/>
+        <v>269</v>
+      </c>
+      <c r="C267" s="5"/>
     </row>
     <row r="268" spans="2:3">
       <c r="B268" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="C268" s="4"/>
+        <v>270</v>
+      </c>
+      <c r="C268" s="5"/>
     </row>
     <row r="269" spans="2:3">
       <c r="B269" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="C269" s="4"/>
+        <v>271</v>
+      </c>
+      <c r="C269" s="5"/>
     </row>
     <row r="270" spans="2:3">
       <c r="B270" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="C270" s="4"/>
+        <v>272</v>
+      </c>
+      <c r="C270" s="5"/>
     </row>
     <row r="271" spans="2:3">
       <c r="B271" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="C271" s="4"/>
+        <v>273</v>
+      </c>
+      <c r="C271" s="5"/>
     </row>
     <row r="272" spans="2:3">
       <c r="B272" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="C272" s="4"/>
+        <v>274</v>
+      </c>
+      <c r="C272" s="5"/>
     </row>
     <row r="273" spans="2:3">
       <c r="B273" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C273" s="5"/>
+    </row>
+    <row r="274" spans="2:3">
+      <c r="B274" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C274" s="5"/>
+    </row>
+    <row r="275" spans="2:3">
+      <c r="B275" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C275" s="5"/>
+    </row>
+    <row r="276" spans="2:3">
+      <c r="B276" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C276" s="5"/>
+    </row>
+    <row r="277" spans="2:3">
+      <c r="B277" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C277" s="5"/>
+    </row>
+    <row r="278" spans="2:3">
+      <c r="B278" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="C278" s="5"/>
+    </row>
+    <row r="279" spans="2:3">
+      <c r="B279" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C279" s="5"/>
+    </row>
+    <row r="280" spans="2:3">
+      <c r="B280" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C280" s="5"/>
+    </row>
+    <row r="281" spans="2:3">
+      <c r="B281" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C281" s="5"/>
+    </row>
+    <row r="282" spans="2:3">
+      <c r="B282" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C282" s="5"/>
+    </row>
+    <row r="283" spans="2:3">
+      <c r="B283" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C283" s="5"/>
+    </row>
+    <row r="284" spans="2:3">
+      <c r="B284" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C284" s="5"/>
+    </row>
+    <row r="285" spans="2:3">
+      <c r="B285" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="C285" s="5"/>
+    </row>
+    <row r="286" spans="2:3">
+      <c r="B286" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="C286" s="5"/>
+    </row>
+    <row r="287" spans="2:3">
+      <c r="B287" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="C287" s="5"/>
+    </row>
+    <row r="288" spans="2:3">
+      <c r="B288" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="C288" s="5"/>
+    </row>
+    <row r="289" spans="2:3">
+      <c r="B289" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="C289" s="5"/>
+    </row>
+    <row r="290" spans="2:3">
+      <c r="B290" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="C290" s="5"/>
+    </row>
+    <row r="291" spans="2:3">
+      <c r="B291" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="C291" s="5"/>
+    </row>
+    <row r="292" spans="2:3">
+      <c r="B292" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="C292" s="5"/>
+    </row>
+    <row r="293" spans="2:3">
+      <c r="B293" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C293" s="5"/>
+    </row>
+    <row r="294" spans="2:3">
+      <c r="B294" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="C294" s="5"/>
+    </row>
+    <row r="295" spans="2:3">
+      <c r="B295" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C295" s="5"/>
+    </row>
+    <row r="296" spans="2:3">
+      <c r="B296" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="C296" s="9"/>
+    </row>
+    <row r="297" spans="2:3">
+      <c r="B297" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="C273" s="4"/>
-    </row>
-    <row r="274" spans="2:3">
-      <c r="B274" s="7" t="s">
+      <c r="C297" s="9"/>
+    </row>
+    <row r="298" spans="2:3">
+      <c r="B298" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="C274" s="7"/>
-    </row>
-    <row r="275" spans="2:2">
-      <c r="B275" s="1" t="s">
+      <c r="C298" s="9"/>
+    </row>
+    <row r="299" spans="2:3">
+      <c r="B299" s="8" t="s">
         <v>299</v>
       </c>
+      <c r="C299" s="9"/>
+    </row>
+    <row r="300" spans="2:3">
+      <c r="B300" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="C300" s="9"/>
+    </row>
+    <row r="301" spans="2:3">
+      <c r="B301" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="C301" s="9"/>
+    </row>
+    <row r="302" spans="2:3">
+      <c r="B302" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="C302" s="9"/>
+    </row>
+    <row r="303" spans="2:3">
+      <c r="B303" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C303" s="9"/>
+    </row>
+    <row r="304" spans="2:3">
+      <c r="B304" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C304" s="9"/>
+    </row>
+    <row r="305" spans="2:3">
+      <c r="B305" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="C305" s="9"/>
+    </row>
+    <row r="306" spans="2:3">
+      <c r="B306" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="C306" s="9"/>
+    </row>
+    <row r="307" spans="2:3">
+      <c r="B307" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="C307" s="9"/>
+    </row>
+    <row r="308" spans="2:3">
+      <c r="B308" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="C308" s="9"/>
+    </row>
+    <row r="309" spans="2:3">
+      <c r="B309" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C309" s="9"/>
+    </row>
+    <row r="310" spans="2:3">
+      <c r="B310" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="C310" s="9"/>
+    </row>
+    <row r="311" spans="2:3">
+      <c r="B311" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="C311" s="9"/>
+    </row>
+    <row r="312" spans="2:3">
+      <c r="B312" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="C312" s="9"/>
+    </row>
+    <row r="313" spans="2:3">
+      <c r="B313" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="C313" s="9"/>
+    </row>
+    <row r="314" spans="2:3">
+      <c r="B314" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C314" s="9"/>
+    </row>
+    <row r="315" spans="2:3">
+      <c r="B315" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="C315" s="9"/>
+    </row>
+    <row r="316" spans="2:3">
+      <c r="B316" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="C316" s="9"/>
+    </row>
+    <row r="317" spans="2:3">
+      <c r="B317" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="C317" s="9"/>
+    </row>
+    <row r="318" spans="2:3">
+      <c r="B318" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C318" s="9"/>
+    </row>
+    <row r="319" spans="2:3">
+      <c r="B319" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="C319" s="9"/>
+    </row>
+    <row r="320" spans="2:3">
+      <c r="B320" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="C320" s="9"/>
+    </row>
+    <row r="321" spans="2:3">
+      <c r="B321" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="C321" s="9"/>
+    </row>
+    <row r="322" spans="2:3">
+      <c r="B322" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="C322" s="9"/>
+    </row>
+    <row r="323" spans="2:3">
+      <c r="B323" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="C323" s="9"/>
+    </row>
+    <row r="324" spans="2:3">
+      <c r="B324" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="C324" s="9"/>
+    </row>
+    <row r="325" spans="2:3">
+      <c r="B325" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="C325" s="9"/>
+    </row>
+    <row r="326" spans="2:3">
+      <c r="B326" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="C326" s="9"/>
+    </row>
+    <row r="327" spans="2:3">
+      <c r="B327" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="C327" s="9"/>
+    </row>
+    <row r="328" spans="2:3">
+      <c r="B328" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="C328" s="9"/>
+    </row>
+    <row r="329" spans="2:3">
+      <c r="B329" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="C329" s="9"/>
+    </row>
+    <row r="330" spans="2:3">
+      <c r="B330" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="C330" s="9"/>
+    </row>
+    <row r="331" spans="2:3">
+      <c r="B331" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="C331" s="9"/>
+    </row>
+    <row r="332" spans="2:3">
+      <c r="B332" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="C332" s="9"/>
+    </row>
+    <row r="333" spans="2:3">
+      <c r="B333" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="C333" s="9"/>
+    </row>
+    <row r="334" spans="2:3">
+      <c r="B334" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="C334" s="9"/>
+    </row>
+    <row r="335" spans="2:3">
+      <c r="B335" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="C335" s="9"/>
+    </row>
+    <row r="336" spans="2:3">
+      <c r="B336" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="C336" s="9"/>
+    </row>
+    <row r="337" spans="2:3">
+      <c r="B337" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="C337" s="9"/>
+    </row>
+    <row r="338" spans="2:3">
+      <c r="B338" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="C338" s="9"/>
+    </row>
+    <row r="339" spans="2:3">
+      <c r="B339" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="C339" s="9"/>
+    </row>
+    <row r="340" spans="2:3">
+      <c r="B340" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="C340" s="9"/>
+    </row>
+    <row r="341" spans="2:3">
+      <c r="B341" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="C341" s="9"/>
+    </row>
+    <row r="342" spans="2:3">
+      <c r="B342" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="C342" s="9"/>
+    </row>
+    <row r="343" spans="2:3">
+      <c r="B343" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="C343" s="9"/>
+    </row>
+    <row r="344" spans="2:3">
+      <c r="B344" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C344" s="9"/>
+    </row>
+    <row r="345" spans="2:3">
+      <c r="B345" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="C345" s="9"/>
+    </row>
+    <row r="346" spans="2:3">
+      <c r="B346" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="C346" s="9"/>
+    </row>
+    <row r="347" spans="2:3">
+      <c r="B347" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="C347" s="9"/>
+    </row>
+    <row r="348" spans="2:3">
+      <c r="B348" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="C348" s="9"/>
+    </row>
+    <row r="349" spans="2:3">
+      <c r="B349" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="C349" s="9"/>
+    </row>
+    <row r="350" spans="2:3">
+      <c r="B350" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="C350" s="9"/>
+    </row>
+    <row r="351" spans="2:3">
+      <c r="B351" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="C351" s="9"/>
+    </row>
+    <row r="352" spans="2:3">
+      <c r="B352" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="C352" s="9"/>
+    </row>
+    <row r="353" spans="2:3">
+      <c r="B353" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="C353" s="9"/>
+    </row>
+    <row r="354" spans="2:3">
+      <c r="B354" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="C354" s="9"/>
+    </row>
+    <row r="355" spans="2:3">
+      <c r="B355" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="C355" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.357638888888889" right="0.357638888888889" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -3693,7 +4295,7 @@
     <oddFooter>&amp;Cページ &amp;p of &amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="203" max="2" man="1"/>
+    <brk id="215" max="2" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Project-diagram-of-dummy-insurance-system.xlsx
+++ b/Project-diagram-of-dummy-insurance-system.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22451" windowHeight="9840"/>
+    <workbookView windowWidth="28200" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$232</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$239</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371">
   <si>
     <t>「dummy-insurance-system」のプロジェクト構成図</t>
   </si>
@@ -451,6 +451,21 @@
     <t>レイアウトを管理するクラスを格納する</t>
   </si>
   <si>
+    <t>│  │  │              │      CmKActuarial.java</t>
+  </si>
+  <si>
+    <t>│  │  │              │      CmKTcActuarial.java</t>
+  </si>
+  <si>
+    <t>│  │  │              │      CmKTlActuarial.java</t>
+  </si>
+  <si>
+    <t>│  │  │              │      CmKWcActuarial.java</t>
+  </si>
+  <si>
+    <t>│  │  │              │      CmKWlActuarial.java</t>
+  </si>
+  <si>
     <t>│  │  │              │      CmTcActuarial.java</t>
   </si>
   <si>
@@ -526,6 +541,9 @@
     <t>│  │  │              │      CmActuarialMapper.java</t>
   </si>
   <si>
+    <t>│  │  │              │      CmKActuarialMapper.java</t>
+  </si>
+  <si>
     <t>│  │  │              │      TcMapper.java</t>
   </si>
   <si>
@@ -538,15 +556,18 @@
     <t>│  │  │              │      WlMapper.java</t>
   </si>
   <si>
+    <t>サービスクラス（DBアクセス処理の呼出し機能を保持したクラス）を格納する</t>
+  </si>
+  <si>
     <t>│  │  │              ├─service</t>
   </si>
   <si>
-    <t>サービスクラス（DBアクセス処理の呼出し機能を保持したクラス）を格納する</t>
-  </si>
-  <si>
     <t>│  │  │              │      CmActuarialService.java</t>
   </si>
   <si>
+    <t>│  │  │              │      CmKActuarialService.java</t>
+  </si>
+  <si>
     <t>│  │  │              │      TcService.java</t>
   </si>
   <si>
@@ -589,21 +610,24 @@
     <t>│  │      ├─com</t>
   </si>
   <si>
+    <t>│  │      │  └─insurance</t>
+  </si>
+  <si>
+    <t>│  │      │      └─app</t>
+  </si>
+  <si>
+    <t>│  │      │          └─mapper</t>
+  </si>
+  <si>
     <t>マッピング用のインターフェイスに対応するxmlファイルを格納する</t>
   </si>
   <si>
-    <t>│  │      │  └─insurance</t>
-  </si>
-  <si>
-    <t>│  │      │      └─app</t>
-  </si>
-  <si>
-    <t>│  │      │          └─mapper</t>
-  </si>
-  <si>
     <t>│  │      │                  CmActuarialMapper.xml</t>
   </si>
   <si>
+    <t>│  │      │                  CmKActuarialMapper.xml</t>
+  </si>
+  <si>
     <t>│  │      │                  TcMapper.xml</t>
   </si>
   <si>
@@ -808,6 +832,21 @@
     <t xml:space="preserve">    │  │          ├─domain</t>
   </si>
   <si>
+    <t xml:space="preserve">    │  │          │      CmKActuarial.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      CmKTcActuarial.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      CmKTlActuarial.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      CmKWcActuarial.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      CmKWlActuarial.class</t>
+  </si>
+  <si>
     <t xml:space="preserve">    │  │          │      CmTcActuarial.class</t>
   </si>
   <si>
@@ -883,6 +922,12 @@
     <t xml:space="preserve">    │  │          │      CmActuarialMapper.xml</t>
   </si>
   <si>
+    <t xml:space="preserve">    │  │          │      CmKActuarialMapper.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      CmKActuarialMapper.xml</t>
+  </si>
+  <si>
     <t xml:space="preserve">    │  │          │      TcMapper.class</t>
   </si>
   <si>
@@ -911,6 +956,12 @@
   </si>
   <si>
     <t xml:space="preserve">    │  │          │      CmActuarialService.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      CmKActuarialService$1.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      CmKActuarialService.class</t>
   </si>
   <si>
     <t xml:space="preserve">    │  │          │      TcService.class</t>
@@ -1086,10 +1137,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1150,11 +1201,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1168,6 +1219,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1189,9 +1248,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1226,16 +1292,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1243,13 +1301,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1301,7 +1352,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1313,25 +1370,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1373,37 +1448,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1427,19 +1478,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1451,7 +1496,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1461,8 +1506,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1498,6 +1549,24 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -1508,12 +1577,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
         <color auto="1"/>
-      </left>
-      <right/>
+      </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1552,6 +1623,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1597,17 +1679,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1622,25 +1693,25 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1649,122 +1720,122 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1786,19 +1857,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2117,7 +2185,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C355"/>
+  <dimension ref="A1:C372"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -2125,15 +2193,15 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="10.8" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="11.25" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="3.22222222222222" style="1" customWidth="1"/>
-    <col min="2" max="2" width="69.4444444444444" style="1" customWidth="1"/>
-    <col min="3" max="3" width="80.4444444444444" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88888888888889" style="1"/>
+    <col min="1" max="1" width="3.225" style="1" customWidth="1"/>
+    <col min="2" max="2" width="69.4416666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="80.4416666666667" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.89166666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.2" spans="1:2">
+    <row r="1" ht="17.25" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3141,17 +3209,15 @@
     </row>
     <row r="167" spans="2:3">
       <c r="B167" s="4" t="s">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="C167" s="4"/>
     </row>
     <row r="168" spans="2:3">
       <c r="B168" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C168" s="5" t="s">
         <v>167</v>
       </c>
+      <c r="C168" s="4"/>
     </row>
     <row r="169" spans="2:3">
       <c r="B169" s="4" t="s">
@@ -3173,29 +3239,29 @@
     </row>
     <row r="172" spans="2:3">
       <c r="B172" s="4" t="s">
-        <v>171</v>
+        <v>133</v>
       </c>
       <c r="C172" s="4"/>
     </row>
     <row r="173" spans="2:3">
       <c r="B173" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C173" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="C173" s="4"/>
     </row>
     <row r="174" spans="2:3">
       <c r="B174" s="4" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="C174" s="4"/>
     </row>
     <row r="175" spans="2:3">
       <c r="B175" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C175" s="4" t="s">
         <v>174</v>
       </c>
+      <c r="C175" s="4"/>
     </row>
     <row r="176" spans="2:3">
       <c r="B176" s="4" t="s">
@@ -3223,9 +3289,11 @@
     </row>
     <row r="180" spans="2:3">
       <c r="B180" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C180" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C180" s="4"/>
     </row>
     <row r="181" spans="2:3">
       <c r="B181" s="4" t="s">
@@ -3235,17 +3303,15 @@
     </row>
     <row r="182" spans="2:3">
       <c r="B182" s="4" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
       <c r="C182" s="4"/>
     </row>
     <row r="183" spans="2:3">
       <c r="B183" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C183" s="4" t="s">
         <v>182</v>
       </c>
+      <c r="C183" s="4"/>
     </row>
     <row r="184" spans="2:3">
       <c r="B184" s="4" t="s">
@@ -3263,243 +3329,245 @@
       <c r="B186" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C186" s="5"/>
+      <c r="C186" s="4"/>
     </row>
     <row r="187" spans="2:3">
       <c r="B187" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C187" s="5"/>
+      <c r="C187" s="4"/>
     </row>
     <row r="188" spans="2:3">
       <c r="B188" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C188" s="5"/>
+      <c r="C188" s="4"/>
     </row>
     <row r="189" spans="2:3">
       <c r="B189" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C189" s="5"/>
+        <v>133</v>
+      </c>
+      <c r="C189" s="4"/>
     </row>
     <row r="190" spans="2:3">
       <c r="B190" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C190" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="C190" s="5" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="191" spans="2:3">
       <c r="B191" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C191" s="4"/>
     </row>
     <row r="192" spans="2:3">
       <c r="B192" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C192" s="4"/>
     </row>
     <row r="193" spans="2:3">
       <c r="B193" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C193" s="4"/>
+        <v>192</v>
+      </c>
+      <c r="C193" s="5"/>
     </row>
     <row r="194" spans="2:3">
       <c r="B194" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C194" s="4"/>
+        <v>193</v>
+      </c>
+      <c r="C194" s="5"/>
     </row>
     <row r="195" spans="2:3">
       <c r="B195" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C195" s="4"/>
+        <v>194</v>
+      </c>
+      <c r="C195" s="5"/>
     </row>
     <row r="196" spans="2:3">
       <c r="B196" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C196" s="4"/>
+        <v>195</v>
+      </c>
+      <c r="C196" s="5"/>
     </row>
     <row r="197" spans="2:3">
       <c r="B197" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C197" s="4"/>
+        <v>196</v>
+      </c>
+      <c r="C197" s="5"/>
     </row>
     <row r="198" spans="2:3">
       <c r="B198" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C198" s="4"/>
+        <v>197</v>
+      </c>
+      <c r="C198" s="5"/>
     </row>
     <row r="199" spans="2:3">
       <c r="B199" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C199" s="4"/>
+        <v>198</v>
+      </c>
+      <c r="C199" s="5"/>
     </row>
     <row r="200" spans="2:3">
       <c r="B200" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C200" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C200" s="4"/>
     </row>
     <row r="201" spans="2:3">
       <c r="B201" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C201" s="4" t="s">
-        <v>202</v>
-      </c>
+      <c r="C201" s="4"/>
     </row>
     <row r="202" spans="2:3">
       <c r="B202" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C202" s="4"/>
     </row>
     <row r="203" spans="2:3">
       <c r="B203" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C203" s="4"/>
     </row>
     <row r="204" spans="2:3">
       <c r="B204" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C204" s="4"/>
     </row>
     <row r="205" spans="2:3">
       <c r="B205" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C205" s="4"/>
     </row>
     <row r="206" spans="2:3">
       <c r="B206" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C206" s="4"/>
     </row>
     <row r="207" spans="2:3">
       <c r="B207" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C207" s="4"/>
     </row>
     <row r="208" spans="2:3">
       <c r="B208" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C208" s="4"/>
     </row>
     <row r="209" spans="2:3">
       <c r="B209" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C209" s="4" t="s">
         <v>210</v>
-      </c>
-      <c r="C209" s="4" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="210" spans="2:3">
       <c r="B210" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C210" s="4"/>
     </row>
     <row r="211" spans="2:3">
       <c r="B211" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C211" s="4"/>
     </row>
     <row r="212" spans="2:3">
       <c r="B212" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C212" s="4"/>
     </row>
     <row r="213" spans="2:3">
       <c r="B213" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="2:3">
       <c r="B214" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C214" s="5"/>
+        <v>215</v>
+      </c>
+      <c r="C214" s="4"/>
     </row>
     <row r="215" spans="2:3">
       <c r="B215" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C215" s="5"/>
+        <v>216</v>
+      </c>
+      <c r="C215" s="4"/>
     </row>
     <row r="216" spans="2:3">
       <c r="B216" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="C216" s="4" t="s">
-        <v>219</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="C216" s="4"/>
     </row>
     <row r="217" spans="2:3">
       <c r="B217" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="C217" s="5"/>
+        <v>218</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="218" spans="2:3">
       <c r="B218" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="C218" s="5"/>
+        <v>220</v>
+      </c>
+      <c r="C218" s="4"/>
     </row>
     <row r="219" spans="2:3">
       <c r="B219" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C219" s="5"/>
+        <v>221</v>
+      </c>
+      <c r="C219" s="4"/>
     </row>
     <row r="220" spans="2:3">
       <c r="B220" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="C220" s="5"/>
+        <v>222</v>
+      </c>
+      <c r="C220" s="4"/>
     </row>
     <row r="221" spans="2:3">
       <c r="B221" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="C221" s="5"/>
+        <v>223</v>
+      </c>
+      <c r="C221" s="4"/>
     </row>
     <row r="222" spans="2:3">
       <c r="B222" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C222" s="5"/>
     </row>
     <row r="223" spans="2:3">
       <c r="B223" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C223" s="5"/>
     </row>
     <row r="224" spans="2:3">
       <c r="B224" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C224" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="C224" s="5"/>
     </row>
     <row r="225" spans="2:3">
       <c r="B225" s="4" t="s">
@@ -3707,55 +3775,55 @@
     </row>
     <row r="259" spans="2:3">
       <c r="B259" s="4" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="C259" s="5"/>
     </row>
     <row r="260" spans="2:3">
       <c r="B260" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C260" s="5"/>
     </row>
     <row r="261" spans="2:3">
       <c r="B261" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C261" s="5"/>
     </row>
     <row r="262" spans="2:3">
       <c r="B262" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C262" s="5"/>
     </row>
     <row r="263" spans="2:3">
       <c r="B263" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C263" s="5"/>
     </row>
     <row r="264" spans="2:3">
       <c r="B264" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C264" s="5"/>
     </row>
     <row r="265" spans="2:3">
       <c r="B265" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C265" s="5"/>
     </row>
     <row r="266" spans="2:3">
       <c r="B266" s="4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C266" s="5"/>
     </row>
     <row r="267" spans="2:3">
       <c r="B267" s="4" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C267" s="5"/>
     </row>
@@ -3796,496 +3864,597 @@
       <c r="C273" s="5"/>
     </row>
     <row r="274" spans="2:3">
-      <c r="B274" s="6" t="s">
+      <c r="B274" s="4" t="s">
         <v>276</v>
       </c>
       <c r="C274" s="5"/>
     </row>
     <row r="275" spans="2:3">
-      <c r="B275" s="7" t="s">
+      <c r="B275" s="6" t="s">
         <v>277</v>
       </c>
       <c r="C275" s="5"/>
     </row>
     <row r="276" spans="2:3">
-      <c r="B276" s="7" t="s">
+      <c r="B276" s="6" t="s">
         <v>278</v>
       </c>
       <c r="C276" s="5"/>
     </row>
     <row r="277" spans="2:3">
-      <c r="B277" s="7" t="s">
+      <c r="B277" s="6" t="s">
         <v>279</v>
       </c>
       <c r="C277" s="5"/>
     </row>
     <row r="278" spans="2:3">
-      <c r="B278" s="7" t="s">
+      <c r="B278" s="6" t="s">
         <v>280</v>
       </c>
       <c r="C278" s="5"/>
     </row>
     <row r="279" spans="2:3">
-      <c r="B279" s="7" t="s">
+      <c r="B279" s="6" t="s">
         <v>281</v>
       </c>
       <c r="C279" s="5"/>
     </row>
     <row r="280" spans="2:3">
-      <c r="B280" s="7" t="s">
+      <c r="B280" s="6" t="s">
         <v>282</v>
       </c>
       <c r="C280" s="5"/>
     </row>
     <row r="281" spans="2:3">
-      <c r="B281" s="7" t="s">
+      <c r="B281" s="6" t="s">
         <v>283</v>
       </c>
       <c r="C281" s="5"/>
     </row>
     <row r="282" spans="2:3">
-      <c r="B282" s="7" t="s">
+      <c r="B282" s="6" t="s">
         <v>284</v>
       </c>
       <c r="C282" s="5"/>
     </row>
     <row r="283" spans="2:3">
-      <c r="B283" s="7" t="s">
-        <v>254</v>
+      <c r="B283" s="6" t="s">
+        <v>285</v>
       </c>
       <c r="C283" s="5"/>
     </row>
     <row r="284" spans="2:3">
-      <c r="B284" s="7" t="s">
-        <v>285</v>
+      <c r="B284" s="6" t="s">
+        <v>286</v>
       </c>
       <c r="C284" s="5"/>
     </row>
     <row r="285" spans="2:3">
-      <c r="B285" s="7" t="s">
-        <v>286</v>
+      <c r="B285" s="6" t="s">
+        <v>287</v>
       </c>
       <c r="C285" s="5"/>
     </row>
     <row r="286" spans="2:3">
-      <c r="B286" s="7" t="s">
-        <v>287</v>
+      <c r="B286" s="6" t="s">
+        <v>288</v>
       </c>
       <c r="C286" s="5"/>
     </row>
     <row r="287" spans="2:3">
-      <c r="B287" s="7" t="s">
-        <v>288</v>
+      <c r="B287" s="6" t="s">
+        <v>289</v>
       </c>
       <c r="C287" s="5"/>
     </row>
     <row r="288" spans="2:3">
-      <c r="B288" s="7" t="s">
-        <v>289</v>
+      <c r="B288" s="6" t="s">
+        <v>290</v>
       </c>
       <c r="C288" s="5"/>
     </row>
     <row r="289" spans="2:3">
-      <c r="B289" s="7" t="s">
-        <v>290</v>
+      <c r="B289" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="C289" s="5"/>
     </row>
     <row r="290" spans="2:3">
-      <c r="B290" s="7" t="s">
-        <v>291</v>
+      <c r="B290" s="6" t="s">
+        <v>292</v>
       </c>
       <c r="C290" s="5"/>
     </row>
     <row r="291" spans="2:3">
-      <c r="B291" s="7" t="s">
-        <v>292</v>
+      <c r="B291" s="6" t="s">
+        <v>293</v>
       </c>
       <c r="C291" s="5"/>
     </row>
     <row r="292" spans="2:3">
-      <c r="B292" s="7" t="s">
-        <v>293</v>
+      <c r="B292" s="6" t="s">
+        <v>294</v>
       </c>
       <c r="C292" s="5"/>
     </row>
     <row r="293" spans="2:3">
-      <c r="B293" s="7" t="s">
-        <v>294</v>
+      <c r="B293" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="C293" s="5"/>
     </row>
     <row r="294" spans="2:3">
-      <c r="B294" s="7" t="s">
-        <v>295</v>
+      <c r="B294" s="6" t="s">
+        <v>296</v>
       </c>
       <c r="C294" s="5"/>
     </row>
     <row r="295" spans="2:3">
-      <c r="B295" s="7" t="s">
-        <v>254</v>
+      <c r="B295" s="6" t="s">
+        <v>297</v>
       </c>
       <c r="C295" s="5"/>
     </row>
     <row r="296" spans="2:3">
-      <c r="B296" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="C296" s="9"/>
+      <c r="B296" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C296" s="5"/>
     </row>
     <row r="297" spans="2:3">
-      <c r="B297" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="C297" s="9"/>
+      <c r="B297" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C297" s="5"/>
     </row>
     <row r="298" spans="2:3">
-      <c r="B298" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C298" s="9"/>
+      <c r="B298" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C298" s="5"/>
     </row>
     <row r="299" spans="2:3">
-      <c r="B299" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="C299" s="9"/>
+      <c r="B299" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C299" s="5"/>
     </row>
     <row r="300" spans="2:3">
-      <c r="B300" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="C300" s="9"/>
+      <c r="B300" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C300" s="5"/>
     </row>
     <row r="301" spans="2:3">
-      <c r="B301" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="C301" s="9"/>
+      <c r="B301" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C301" s="5"/>
     </row>
     <row r="302" spans="2:3">
-      <c r="B302" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="C302" s="9"/>
+      <c r="B302" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C302" s="5"/>
     </row>
     <row r="303" spans="2:3">
-      <c r="B303" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="C303" s="9"/>
+      <c r="B303" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C303" s="5"/>
     </row>
     <row r="304" spans="2:3">
-      <c r="B304" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="C304" s="9"/>
+      <c r="B304" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C304" s="5"/>
     </row>
     <row r="305" spans="2:3">
-      <c r="B305" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="C305" s="9"/>
+      <c r="B305" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C305" s="5"/>
     </row>
     <row r="306" spans="2:3">
-      <c r="B306" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="C306" s="9"/>
+      <c r="B306" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C306" s="5"/>
     </row>
     <row r="307" spans="2:3">
-      <c r="B307" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="C307" s="9"/>
+      <c r="B307" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C307" s="5"/>
     </row>
     <row r="308" spans="2:3">
-      <c r="B308" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="C308" s="9"/>
+      <c r="B308" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C308" s="5"/>
     </row>
     <row r="309" spans="2:3">
-      <c r="B309" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="C309" s="9"/>
+      <c r="B309" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C309" s="5"/>
     </row>
     <row r="310" spans="2:3">
-      <c r="B310" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="C310" s="9"/>
+      <c r="B310" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C310" s="5"/>
     </row>
     <row r="311" spans="2:3">
-      <c r="B311" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="C311" s="9"/>
+      <c r="B311" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C311" s="5"/>
     </row>
     <row r="312" spans="2:3">
-      <c r="B312" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="C312" s="9"/>
+      <c r="B312" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C312" s="5"/>
     </row>
     <row r="313" spans="2:3">
-      <c r="B313" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="C313" s="9"/>
+      <c r="B313" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C313" s="5"/>
     </row>
     <row r="314" spans="2:3">
-      <c r="B314" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="C314" s="9"/>
+      <c r="B314" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C314" s="5"/>
     </row>
     <row r="315" spans="2:3">
-      <c r="B315" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="C315" s="9"/>
+      <c r="B315" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C315" s="5"/>
     </row>
     <row r="316" spans="2:3">
-      <c r="B316" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="C316" s="9"/>
+      <c r="B316" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C316" s="5"/>
     </row>
     <row r="317" spans="2:3">
-      <c r="B317" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="C317" s="9"/>
+      <c r="B317" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C317" s="5"/>
     </row>
     <row r="318" spans="2:3">
-      <c r="B318" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="C318" s="9"/>
+      <c r="B318" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C318" s="5"/>
     </row>
     <row r="319" spans="2:3">
-      <c r="B319" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="C319" s="9"/>
+      <c r="B319" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C319" s="5"/>
     </row>
     <row r="320" spans="2:3">
-      <c r="B320" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="C320" s="9"/>
+      <c r="B320" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C320" s="5"/>
     </row>
     <row r="321" spans="2:3">
-      <c r="B321" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="C321" s="9"/>
+      <c r="B321" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C321" s="5"/>
     </row>
     <row r="322" spans="2:3">
-      <c r="B322" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="C322" s="9"/>
+      <c r="B322" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C322" s="5"/>
     </row>
     <row r="323" spans="2:3">
-      <c r="B323" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="C323" s="9"/>
+      <c r="B323" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C323" s="5"/>
     </row>
     <row r="324" spans="2:3">
-      <c r="B324" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="C324" s="9"/>
+      <c r="B324" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C324" s="5"/>
     </row>
     <row r="325" spans="2:3">
-      <c r="B325" s="8" t="s">
+      <c r="B325" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C325" s="5"/>
+    </row>
+    <row r="326" spans="2:3">
+      <c r="B326" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C326" s="5"/>
+    </row>
+    <row r="327" spans="2:3">
+      <c r="B327" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C327" s="5"/>
+    </row>
+    <row r="328" spans="2:3">
+      <c r="B328" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C328" s="5"/>
+    </row>
+    <row r="329" spans="2:3">
+      <c r="B329" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C329" s="5"/>
+    </row>
+    <row r="330" spans="2:3">
+      <c r="B330" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C330" s="5"/>
+    </row>
+    <row r="331" spans="2:3">
+      <c r="B331" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="C331" s="5"/>
+    </row>
+    <row r="332" spans="2:3">
+      <c r="B332" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C332" s="5"/>
+    </row>
+    <row r="333" spans="2:3">
+      <c r="B333" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="C325" s="9"/>
-    </row>
-    <row r="326" spans="2:3">
-      <c r="B326" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="C326" s="9"/>
-    </row>
-    <row r="327" spans="2:3">
-      <c r="B327" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="C327" s="9"/>
-    </row>
-    <row r="328" spans="2:3">
-      <c r="B328" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="C328" s="9"/>
-    </row>
-    <row r="329" spans="2:3">
-      <c r="B329" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="C329" s="9"/>
-    </row>
-    <row r="330" spans="2:3">
-      <c r="B330" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="C330" s="9"/>
-    </row>
-    <row r="331" spans="2:3">
-      <c r="B331" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="C331" s="9"/>
-    </row>
-    <row r="332" spans="2:3">
-      <c r="B332" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="C332" s="9"/>
-    </row>
-    <row r="333" spans="2:3">
-      <c r="B333" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="C333" s="9"/>
+      <c r="C333" s="5"/>
     </row>
     <row r="334" spans="2:3">
-      <c r="B334" s="8" t="s">
+      <c r="B334" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="C334" s="9"/>
+      <c r="C334" s="5"/>
     </row>
     <row r="335" spans="2:3">
-      <c r="B335" s="8" t="s">
+      <c r="B335" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="C335" s="9"/>
+      <c r="C335" s="5"/>
     </row>
     <row r="336" spans="2:3">
-      <c r="B336" s="8" t="s">
+      <c r="B336" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="C336" s="9"/>
+      <c r="C336" s="5"/>
     </row>
     <row r="337" spans="2:3">
-      <c r="B337" s="8" t="s">
+      <c r="B337" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="C337" s="9"/>
+      <c r="C337" s="5"/>
     </row>
     <row r="338" spans="2:3">
-      <c r="B338" s="8" t="s">
+      <c r="B338" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="C338" s="9"/>
+      <c r="C338" s="5"/>
     </row>
     <row r="339" spans="2:3">
-      <c r="B339" s="8" t="s">
+      <c r="B339" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="C339" s="9"/>
+      <c r="C339" s="5"/>
     </row>
     <row r="340" spans="2:3">
-      <c r="B340" s="8" t="s">
+      <c r="B340" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="C340" s="9"/>
+      <c r="C340" s="5"/>
     </row>
     <row r="341" spans="2:3">
-      <c r="B341" s="8" t="s">
+      <c r="B341" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="C341" s="9"/>
+      <c r="C341" s="5"/>
     </row>
     <row r="342" spans="2:3">
-      <c r="B342" s="8" t="s">
+      <c r="B342" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="C342" s="9"/>
+      <c r="C342" s="5"/>
     </row>
     <row r="343" spans="2:3">
-      <c r="B343" s="8" t="s">
+      <c r="B343" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="C343" s="9"/>
+      <c r="C343" s="5"/>
     </row>
     <row r="344" spans="2:3">
-      <c r="B344" s="8" t="s">
+      <c r="B344" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="C344" s="9"/>
+      <c r="C344" s="5"/>
     </row>
     <row r="345" spans="2:3">
-      <c r="B345" s="8" t="s">
+      <c r="B345" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="C345" s="9"/>
+      <c r="C345" s="5"/>
     </row>
     <row r="346" spans="2:3">
-      <c r="B346" s="8" t="s">
+      <c r="B346" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="C346" s="9"/>
+      <c r="C346" s="5"/>
     </row>
     <row r="347" spans="2:3">
-      <c r="B347" s="8" t="s">
+      <c r="B347" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="C347" s="9"/>
+      <c r="C347" s="5"/>
     </row>
     <row r="348" spans="2:3">
-      <c r="B348" s="8" t="s">
+      <c r="B348" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="C348" s="9"/>
+      <c r="C348" s="5"/>
     </row>
     <row r="349" spans="2:3">
-      <c r="B349" s="8" t="s">
+      <c r="B349" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="C349" s="9"/>
+      <c r="C349" s="5"/>
     </row>
     <row r="350" spans="2:3">
-      <c r="B350" s="8" t="s">
+      <c r="B350" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="C350" s="9"/>
+      <c r="C350" s="5"/>
     </row>
     <row r="351" spans="2:3">
-      <c r="B351" s="8" t="s">
+      <c r="B351" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="C351" s="9"/>
+      <c r="C351" s="5"/>
     </row>
     <row r="352" spans="2:3">
-      <c r="B352" s="8" t="s">
+      <c r="B352" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="C352" s="9"/>
+      <c r="C352" s="5"/>
     </row>
     <row r="353" spans="2:3">
-      <c r="B353" s="8" t="s">
+      <c r="B353" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="C353" s="9"/>
+      <c r="C353" s="5"/>
     </row>
     <row r="354" spans="2:3">
-      <c r="B354" s="8" t="s">
+      <c r="B354" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="C354" s="9"/>
+      <c r="C354" s="5"/>
     </row>
     <row r="355" spans="2:3">
-      <c r="B355" s="10" t="s">
+      <c r="B355" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="C355" s="11"/>
+      <c r="C355" s="5"/>
+    </row>
+    <row r="356" spans="2:3">
+      <c r="B356" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="C356" s="5"/>
+    </row>
+    <row r="357" spans="2:3">
+      <c r="B357" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="C357" s="5"/>
+    </row>
+    <row r="358" spans="2:3">
+      <c r="B358" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="C358" s="5"/>
+    </row>
+    <row r="359" spans="2:3">
+      <c r="B359" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="C359" s="5"/>
+    </row>
+    <row r="360" spans="2:3">
+      <c r="B360" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="C360" s="5"/>
+    </row>
+    <row r="361" spans="2:3">
+      <c r="B361" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="C361" s="5"/>
+    </row>
+    <row r="362" spans="2:3">
+      <c r="B362" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="C362" s="5"/>
+    </row>
+    <row r="363" spans="2:3">
+      <c r="B363" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="C363" s="5"/>
+    </row>
+    <row r="364" spans="2:3">
+      <c r="B364" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="C364" s="8"/>
+    </row>
+    <row r="365" spans="2:3">
+      <c r="B365" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="C365" s="8"/>
+    </row>
+    <row r="366" spans="2:3">
+      <c r="B366" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="C366" s="8"/>
+    </row>
+    <row r="367" spans="2:3">
+      <c r="B367" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="C367" s="8"/>
+    </row>
+    <row r="368" spans="2:3">
+      <c r="B368" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="C368" s="8"/>
+    </row>
+    <row r="369" spans="2:3">
+      <c r="B369" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="C369" s="8"/>
+    </row>
+    <row r="370" spans="2:3">
+      <c r="B370" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C370" s="8"/>
+    </row>
+    <row r="371" spans="2:3">
+      <c r="B371" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="C371" s="10"/>
+    </row>
+    <row r="372" spans="2:2">
+      <c r="B372" s="1" t="s">
+        <v>370</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.357638888888889" right="0.357638888888889" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -4295,7 +4464,7 @@
     <oddFooter>&amp;Cページ &amp;p of &amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="215" max="2" man="1"/>
+    <brk id="207" max="2" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Project-diagram-of-dummy-insurance-system.xlsx
+++ b/Project-diagram-of-dummy-insurance-system.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="13065"/>
+    <workbookView windowWidth="22451" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$239</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$324</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564">
   <si>
     <t>「dummy-insurance-system」のプロジェクト構成図</t>
   </si>
@@ -427,6 +427,9 @@
     <t>コントローラーとなるモジュールを格納する</t>
   </si>
   <si>
+    <t>│  │  │              │      CmLogin.java</t>
+  </si>
+  <si>
     <t>│  │  │              │      CmSecurityTypeController.java</t>
   </si>
   <si>
@@ -436,15 +439,36 @@
     <t>│  │  │              │      TcInputController.java</t>
   </si>
   <si>
+    <t>│  │  │              │      TcKController.java</t>
+  </si>
+  <si>
+    <t>│  │  │              │      TcSController.java</t>
+  </si>
+  <si>
     <t>│  │  │              │      TlInputController.java</t>
   </si>
   <si>
+    <t>│  │  │              │      TlSSearchController.java</t>
+  </si>
+  <si>
     <t>│  │  │              │      WcController.java</t>
   </si>
   <si>
+    <t>│  │  │              │      WcKController.java</t>
+  </si>
+  <si>
+    <t>│  │  │              │      WcSController.java</t>
+  </si>
+  <si>
     <t>│  │  │              │      WIController.java</t>
   </si>
   <si>
+    <t>│  │  │              │      WlKController.java</t>
+  </si>
+  <si>
+    <t>│  │  │              │      WlSController.java</t>
+  </si>
+  <si>
     <t>│  │  │              ├─domain</t>
   </si>
   <si>
@@ -493,6 +517,27 @@
     <t>│  │  │              │      TcInsuredPersons.java</t>
   </si>
   <si>
+    <t>│  │  │              │      TcKConfimation.java</t>
+  </si>
+  <si>
+    <t>│  │  │              │      TcKInput.java</t>
+  </si>
+  <si>
+    <t>│  │  │              │      TcPayment.java</t>
+  </si>
+  <si>
+    <t>│  │  │              │      TcPaymentIdx.java</t>
+  </si>
+  <si>
+    <t>│  │  │              │      TcSContract.java</t>
+  </si>
+  <si>
+    <t>│  │  │              │      TcSList.java</t>
+  </si>
+  <si>
+    <t>│  │  │              │      TcSSearch.java</t>
+  </si>
+  <si>
     <t>│  │  │              │      TlContracts.java</t>
   </si>
   <si>
@@ -502,6 +547,18 @@
     <t>│  │  │              │      TlInsuredPersons.java</t>
   </si>
   <si>
+    <t>│  │  │              │      TlSContracts.java</t>
+  </si>
+  <si>
+    <t>│  │  │              │      TlSList.java</t>
+  </si>
+  <si>
+    <t>│  │  │              │      TlSPayment.java</t>
+  </si>
+  <si>
+    <t>│  │  │              │      TlSSearch.java</t>
+  </si>
+  <si>
     <t>│  │  │              │      WcCompletion.java</t>
   </si>
   <si>
@@ -517,6 +574,27 @@
     <t>│  │  │              │      WcInsuredPersons.java</t>
   </si>
   <si>
+    <t>│  │  │              │      WcKConfimation.java</t>
+  </si>
+  <si>
+    <t>│  │  │              │      WcKInput.java</t>
+  </si>
+  <si>
+    <t>│  │  │              │      WcPayment.java</t>
+  </si>
+  <si>
+    <t>│  │  │              │      WcPaymentIdx.java</t>
+  </si>
+  <si>
+    <t>│  │  │              │      WcSList.java</t>
+  </si>
+  <si>
+    <t>│  │  │              │      WcSReference.java</t>
+  </si>
+  <si>
+    <t>│  │  │              │      WcSSearch.java</t>
+  </si>
+  <si>
     <t>│  │  │              │      WlCompletion.java</t>
   </si>
   <si>
@@ -532,6 +610,27 @@
     <t>│  │  │              │      WlInsuredPersons.java</t>
   </si>
   <si>
+    <t>│  │  │              │      WlKConfimation.java</t>
+  </si>
+  <si>
+    <t>│  │  │              │      WlKInput.java</t>
+  </si>
+  <si>
+    <t>│  │  │              │      WlPayment.java</t>
+  </si>
+  <si>
+    <t>│  │  │              │      WlPaymentIdx.java</t>
+  </si>
+  <si>
+    <t>│  │  │              │      WlSContract.java</t>
+  </si>
+  <si>
+    <t>│  │  │              │      WlSList.java</t>
+  </si>
+  <si>
+    <t>│  │  │              │      WlSSearch.java</t>
+  </si>
+  <si>
     <t>│  │  │              ├─mapper</t>
   </si>
   <si>
@@ -544,45 +643,93 @@
     <t>│  │  │              │      CmKActuarialMapper.java</t>
   </si>
   <si>
+    <t>│  │  │              │      TcKMapper.java</t>
+  </si>
+  <si>
     <t>│  │  │              │      TcMapper.java</t>
   </si>
   <si>
+    <t>│  │  │              │      TcSMapper.java</t>
+  </si>
+  <si>
     <t>│  │  │              │      TlMapper.java</t>
   </si>
   <si>
+    <t>│  │  │              │      TlSMapper.java</t>
+  </si>
+  <si>
+    <t>│  │  │              │      WcKMapper.java</t>
+  </si>
+  <si>
     <t>│  │  │              │      WcMapper.java</t>
   </si>
   <si>
+    <t>│  │  │              │      WcSMapper.java</t>
+  </si>
+  <si>
+    <t>│  │  │              │      WlKMapper.java</t>
+  </si>
+  <si>
     <t>│  │  │              │      WlMapper.java</t>
   </si>
   <si>
+    <t>│  │  │              │      WlSMapper.java</t>
+  </si>
+  <si>
+    <t>│  │  │              ├─service</t>
+  </si>
+  <si>
     <t>サービスクラス（DBアクセス処理の呼出し機能を保持したクラス）を格納する</t>
   </si>
   <si>
-    <t>│  │  │              ├─service</t>
-  </si>
-  <si>
     <t>│  │  │              │      CmActuarialService.java</t>
   </si>
   <si>
     <t>│  │  │              │      CmKActuarialService.java</t>
   </si>
   <si>
+    <t>│  │  │              │      TcKService.java</t>
+  </si>
+  <si>
     <t>│  │  │              │      TcService.java</t>
   </si>
   <si>
+    <t>│  │  │              │      TcSService.java</t>
+  </si>
+  <si>
     <t>│  │  │              │      TlEntryService.java</t>
   </si>
   <si>
     <t>│  │  │              │      TlInputService.java</t>
   </si>
   <si>
+    <t>│  │  │              │      TlSContractsService.java</t>
+  </si>
+  <si>
+    <t>│  │  │              │      TlSRefundService.java</t>
+  </si>
+  <si>
+    <t>│  │  │              │      TlSSearchService.java</t>
+  </si>
+  <si>
+    <t>│  │  │              │      WcKService.java</t>
+  </si>
+  <si>
     <t>│  │  │              │      WcService.java</t>
   </si>
   <si>
+    <t>│  │  │              │      WcSService.java</t>
+  </si>
+  <si>
+    <t>│  │  │              │      WlKService.java</t>
+  </si>
+  <si>
     <t>│  │  │              │      WlService.java</t>
   </si>
   <si>
+    <t>│  │  │              │      WlSService.java</t>
+  </si>
+  <si>
     <t>│  │  │              └─validation</t>
   </si>
   <si>
@@ -592,9 +739,27 @@
     <t>│  │  │                      TcInputValidation.java</t>
   </si>
   <si>
+    <t>│  │  │                      TcKInputValidation.java</t>
+  </si>
+  <si>
+    <t>│  │  │                      TcSSearchValidation.java</t>
+  </si>
+  <si>
+    <t>│  │  │                      WcKInputValidation.java</t>
+  </si>
+  <si>
+    <t>│  │  │                      WcSSearchValidation.java</t>
+  </si>
+  <si>
     <t>│  │  │                      WlInputValidation.java</t>
   </si>
   <si>
+    <t>│  │  │                      WlKInputValidation.java</t>
+  </si>
+  <si>
+    <t>│  │  │                      WlSSearchValidation.java</t>
+  </si>
+  <si>
     <t xml:space="preserve">│  │  │                      </t>
   </si>
   <si>
@@ -610,6 +775,9 @@
     <t>│  │      ├─com</t>
   </si>
   <si>
+    <t>マッピング用のインターフェイスに対応するxmlファイルを格納する</t>
+  </si>
+  <si>
     <t>│  │      │  └─insurance</t>
   </si>
   <si>
@@ -619,27 +787,45 @@
     <t>│  │      │          └─mapper</t>
   </si>
   <si>
-    <t>マッピング用のインターフェイスに対応するxmlファイルを格納する</t>
-  </si>
-  <si>
     <t>│  │      │                  CmActuarialMapper.xml</t>
   </si>
   <si>
     <t>│  │      │                  CmKActuarialMapper.xml</t>
   </si>
   <si>
+    <t>│  │      │                  TcKMapper.xml</t>
+  </si>
+  <si>
     <t>│  │      │                  TcMapper.xml</t>
   </si>
   <si>
+    <t>│  │      │                  TcSMapper.xml</t>
+  </si>
+  <si>
     <t>│  │      │                  TlMapper.xml</t>
   </si>
   <si>
+    <t>│  │      │                  TlSMapper.xml</t>
+  </si>
+  <si>
+    <t>│  │      │                  WcKMapper.xml</t>
+  </si>
+  <si>
     <t>│  │      │                  WcMapper.xml</t>
   </si>
   <si>
+    <t>│  │      │                  WcSMapper.xml</t>
+  </si>
+  <si>
+    <t>│  │      │                  WlKMapper.xml</t>
+  </si>
+  <si>
     <t>│  │      │                  WlMapper.xml</t>
   </si>
   <si>
+    <t>│  │      │                  WlSMapper.xml</t>
+  </si>
+  <si>
     <t xml:space="preserve">│  │      │                  </t>
   </si>
   <si>
@@ -685,12 +871,21 @@
     <t>│  │      │          jquery-3.6.0.min.js</t>
   </si>
   <si>
+    <t>│  │      │          tc_common.js</t>
+  </si>
+  <si>
     <t>│  │      │          tl_input.js</t>
   </si>
   <si>
     <t>│  │      │          wc_input.js</t>
   </si>
   <si>
+    <t>│  │      │          wc_reference.js</t>
+  </si>
+  <si>
+    <t>│  │      │          wl_common.js</t>
+  </si>
+  <si>
     <t>│  │      │          wl_input.js</t>
   </si>
   <si>
@@ -706,6 +901,9 @@
     <t>│  │              cm_error.html</t>
   </si>
   <si>
+    <t>│  │              cm_login.html</t>
+  </si>
+  <si>
     <t>│  │              cm_security.html</t>
   </si>
   <si>
@@ -721,6 +919,21 @@
     <t>│  │              tc_input.html</t>
   </si>
   <si>
+    <t>│  │              tc_k_confirmation.html</t>
+  </si>
+  <si>
+    <t>│  │              tc_k_input.html</t>
+  </si>
+  <si>
+    <t>│  │              tc_s_contract.html</t>
+  </si>
+  <si>
+    <t>│  │              tc_s_list.html</t>
+  </si>
+  <si>
+    <t>│  │              tc_s_search.html</t>
+  </si>
+  <si>
     <t>│  │              tl_completion.html</t>
   </si>
   <si>
@@ -730,6 +943,15 @@
     <t>│  │              tl_input.html</t>
   </si>
   <si>
+    <t>│  │              tl_s_contracts.html</t>
+  </si>
+  <si>
+    <t>│  │              tl_s_list.html</t>
+  </si>
+  <si>
+    <t>│  │              tl_s_search.html</t>
+  </si>
+  <si>
     <t>│  │              wc_completion.html</t>
   </si>
   <si>
@@ -739,6 +961,21 @@
     <t>│  │              wc_input.html</t>
   </si>
   <si>
+    <t>│  │              wc_k_confirmation.html</t>
+  </si>
+  <si>
+    <t>│  │              wc_k_input.html</t>
+  </si>
+  <si>
+    <t>│  │              wc_s_list.html</t>
+  </si>
+  <si>
+    <t>│  │              wc_s_reference.html</t>
+  </si>
+  <si>
+    <t>│  │              wc_s_search.html</t>
+  </si>
+  <si>
     <t>│  │              wl_completion.html</t>
   </si>
   <si>
@@ -748,6 +985,21 @@
     <t>│  │              wl_input.html</t>
   </si>
   <si>
+    <t>│  │              wl_k_confirmation.html</t>
+  </si>
+  <si>
+    <t>│  │              wl_k_input.html</t>
+  </si>
+  <si>
+    <t>│  │              wl_s_contract.html</t>
+  </si>
+  <si>
+    <t>│  │              wl_s_list.html</t>
+  </si>
+  <si>
+    <t>│  │              wl_s_search.html</t>
+  </si>
+  <si>
     <t xml:space="preserve">│  │              </t>
   </si>
   <si>
@@ -775,6 +1027,15 @@
     <t>└─target</t>
   </si>
   <si>
+    <t xml:space="preserve">    │  dummy-insurance-system-0.0.1-SNAPSHOT.jar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  dummy-insurance-system-0.0.1-SNAPSHOT.jar.original</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  </t>
+  </si>
+  <si>
     <t xml:space="preserve">    ├─classes</t>
   </si>
   <si>
@@ -811,6 +1072,9 @@
     <t xml:space="preserve">    │  │          ├─controller</t>
   </si>
   <si>
+    <t xml:space="preserve">    │  │          │      CmLogin.class</t>
+  </si>
+  <si>
     <t xml:space="preserve">    │  │          │      CmSecurityTypeController.class</t>
   </si>
   <si>
@@ -820,15 +1084,36 @@
     <t xml:space="preserve">    │  │          │      TcInputController.class</t>
   </si>
   <si>
+    <t xml:space="preserve">    │  │          │      TcKController.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      TcSController.class</t>
+  </si>
+  <si>
     <t xml:space="preserve">    │  │          │      TlInputController.class</t>
   </si>
   <si>
+    <t xml:space="preserve">    │  │          │      TlSSearchController.class</t>
+  </si>
+  <si>
     <t xml:space="preserve">    │  │          │      WcController.class</t>
   </si>
   <si>
+    <t xml:space="preserve">    │  │          │      WcKController.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      WcSController.class</t>
+  </si>
+  <si>
     <t xml:space="preserve">    │  │          │      WIController.class</t>
   </si>
   <si>
+    <t xml:space="preserve">    │  │          │      WlKController.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      WlSController.class</t>
+  </si>
+  <si>
     <t xml:space="preserve">    │  │          ├─domain</t>
   </si>
   <si>
@@ -874,6 +1159,27 @@
     <t xml:space="preserve">    │  │          │      TcInsuredPersons.class</t>
   </si>
   <si>
+    <t xml:space="preserve">    │  │          │      TcKConfimation.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      TcKInput.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      TcPayment.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      TcPaymentIdx.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      TcSContract.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      TcSList.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      TcSSearch.class</t>
+  </si>
+  <si>
     <t xml:space="preserve">    │  │          │      TlContracts.class</t>
   </si>
   <si>
@@ -883,6 +1189,18 @@
     <t xml:space="preserve">    │  │          │      TlInsuredPersons.class</t>
   </si>
   <si>
+    <t xml:space="preserve">    │  │          │      TlSContracts.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      TlSList.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      TlSPayment.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      TlSSearch.class</t>
+  </si>
+  <si>
     <t xml:space="preserve">    │  │          │      WcCompletion.class</t>
   </si>
   <si>
@@ -898,6 +1216,27 @@
     <t xml:space="preserve">    │  │          │      WcInsuredPersons.class</t>
   </si>
   <si>
+    <t xml:space="preserve">    │  │          │      WcKConfimation.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      WcKInput.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      WcPayment.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      WcPaymentIdx.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      WcSList.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      WcSReference.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      WcSSearch.class</t>
+  </si>
+  <si>
     <t xml:space="preserve">    │  │          │      WlCompletion.class</t>
   </si>
   <si>
@@ -913,6 +1252,27 @@
     <t xml:space="preserve">    │  │          │      WlInsuredPersons.class</t>
   </si>
   <si>
+    <t xml:space="preserve">    │  │          │      WlKConfimation.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      WlKInput.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      WlPayment.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      WlPaymentIdx.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      WlSContract.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      WlSList.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      WlSSearch.class</t>
+  </si>
+  <si>
     <t xml:space="preserve">    │  │          ├─mapper</t>
   </si>
   <si>
@@ -928,30 +1288,72 @@
     <t xml:space="preserve">    │  │          │      CmKActuarialMapper.xml</t>
   </si>
   <si>
+    <t xml:space="preserve">    │  │          │      TcKMapper.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      TcKMapper.xml</t>
+  </si>
+  <si>
     <t xml:space="preserve">    │  │          │      TcMapper.class</t>
   </si>
   <si>
     <t xml:space="preserve">    │  │          │      TcMapper.xml</t>
   </si>
   <si>
+    <t xml:space="preserve">    │  │          │      TcSMapper.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      TcSMapper.xml</t>
+  </si>
+  <si>
     <t xml:space="preserve">    │  │          │      TlMapper.class</t>
   </si>
   <si>
     <t xml:space="preserve">    │  │          │      TlMapper.xml</t>
   </si>
   <si>
+    <t xml:space="preserve">    │  │          │      TlSMapper.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      TlSMapper.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      WcKMapper.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      WcKMapper.xml</t>
+  </si>
+  <si>
     <t xml:space="preserve">    │  │          │      WcMapper.class</t>
   </si>
   <si>
     <t xml:space="preserve">    │  │          │      WcMapper.xml</t>
   </si>
   <si>
+    <t xml:space="preserve">    │  │          │      WcSMapper.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      WcSMapper.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      WlKMapper.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      WlKMapper.xml</t>
+  </si>
+  <si>
     <t xml:space="preserve">    │  │          │      WlMapper.class</t>
   </si>
   <si>
     <t xml:space="preserve">    │  │          │      WlMapper.xml</t>
   </si>
   <si>
+    <t xml:space="preserve">    │  │          │      WlSMapper.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      WlSMapper.xml</t>
+  </si>
+  <si>
     <t xml:space="preserve">    │  │          ├─service</t>
   </si>
   <si>
@@ -964,30 +1366,75 @@
     <t xml:space="preserve">    │  │          │      CmKActuarialService.class</t>
   </si>
   <si>
+    <t xml:space="preserve">    │  │          │      TcKService.class</t>
+  </si>
+  <si>
     <t xml:space="preserve">    │  │          │      TcService.class</t>
   </si>
   <si>
+    <t xml:space="preserve">    │  │          │      TcSService.class</t>
+  </si>
+  <si>
     <t xml:space="preserve">    │  │          │      TlEntryService.class</t>
   </si>
   <si>
     <t xml:space="preserve">    │  │          │      TlInputService.class</t>
   </si>
   <si>
+    <t xml:space="preserve">    │  │          │      TlSContractsService.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      TlSRefundService.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      TlSSearchService.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      WcKService.class</t>
+  </si>
+  <si>
     <t xml:space="preserve">    │  │          │      WcService.class</t>
   </si>
   <si>
+    <t xml:space="preserve">    │  │          │      WcSService.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          │      WlKService.class</t>
+  </si>
+  <si>
     <t xml:space="preserve">    │  │          │      WlService.class</t>
   </si>
   <si>
+    <t xml:space="preserve">    │  │          │      WlSService.class</t>
+  </si>
+  <si>
     <t xml:space="preserve">    │  │          └─validation</t>
   </si>
   <si>
     <t xml:space="preserve">    │  │                  TcInputValidation.class</t>
   </si>
   <si>
+    <t xml:space="preserve">    │  │                  TcKInputValidation.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │                  TcSSearchValidation.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │                  WcKInputValidation.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │                  WcSSearchValidation.class</t>
+  </si>
+  <si>
     <t xml:space="preserve">    │  │                  WlInputValidation.class</t>
   </si>
   <si>
+    <t xml:space="preserve">    │  │                  WlKInputValidation.class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │                  WlSSearchValidation.class</t>
+  </si>
+  <si>
     <t xml:space="preserve">    │  │                  </t>
   </si>
   <si>
@@ -1051,12 +1498,21 @@
     <t xml:space="preserve">    │  │          jquery-3.6.0.min.js</t>
   </si>
   <si>
+    <t xml:space="preserve">    │  │          tc_common.js</t>
+  </si>
+  <si>
     <t xml:space="preserve">    │  │          tl_input.js</t>
   </si>
   <si>
     <t xml:space="preserve">    │  │          wc_input.js</t>
   </si>
   <si>
+    <t xml:space="preserve">    │  │          wc_reference.js</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  │          wl_common.js</t>
+  </si>
+  <si>
     <t xml:space="preserve">    │  │          wl_input.js</t>
   </si>
   <si>
@@ -1069,6 +1525,9 @@
     <t xml:space="preserve">    │          cm_error.html</t>
   </si>
   <si>
+    <t xml:space="preserve">    │          cm_login.html</t>
+  </si>
+  <si>
     <t xml:space="preserve">    │          cm_security.html</t>
   </si>
   <si>
@@ -1084,6 +1543,21 @@
     <t xml:space="preserve">    │          tc_input.html</t>
   </si>
   <si>
+    <t xml:space="preserve">    │          tc_k_confirmation.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │          tc_k_input.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │          tc_s_contract.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │          tc_s_list.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │          tc_s_search.html</t>
+  </si>
+  <si>
     <t xml:space="preserve">    │          tl_completion.html</t>
   </si>
   <si>
@@ -1093,6 +1567,15 @@
     <t xml:space="preserve">    │          tl_input.html</t>
   </si>
   <si>
+    <t xml:space="preserve">    │          tl_s_contracts.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │          tl_s_list.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │          tl_s_search.html</t>
+  </si>
+  <si>
     <t xml:space="preserve">    │          wc_completion.html</t>
   </si>
   <si>
@@ -1102,6 +1585,21 @@
     <t xml:space="preserve">    │          wc_input.html</t>
   </si>
   <si>
+    <t xml:space="preserve">    │          wc_k_confirmation.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │          wc_k_input.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │          wc_s_list.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │          wc_s_reference.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │          wc_s_search.html</t>
+  </si>
+  <si>
     <t xml:space="preserve">    │          wl_completion.html</t>
   </si>
   <si>
@@ -1111,7 +1609,88 @@
     <t xml:space="preserve">    │          wl_input.html</t>
   </si>
   <si>
+    <t xml:space="preserve">    │          wl_k_confirmation.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │          wl_k_input.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │          wl_s_contract.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │          wl_s_list.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │          wl_s_search.html</t>
+  </si>
+  <si>
     <t xml:space="preserve">    │          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ├─generated-sources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  └─annotations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ├─generated-test-sources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  └─test-annotations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ├─maven-archiver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │      pom.properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ├─maven-status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │  └─maven-compiler-plugin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │      ├─compile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │      │  └─default-compile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │      │          createdFiles.lst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │      │          inputFiles.lst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │      │          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │      └─testCompile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │          └─default-testCompile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │                  createdFiles.lst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │                  inputFiles.lst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ├─surefire-reports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │      com.insurance.app.DummyInsuranceSystemApplicationTests.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    │      TEST-com.insurance.app.DummyInsuranceSystemApplicationTests.xml</t>
   </si>
   <si>
     <t xml:space="preserve">    └─test-classes</t>
@@ -1137,10 +1716,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1169,9 +1748,60 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1182,6 +1812,52 @@
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1210,104 +1886,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1328,19 +1907,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1358,7 +1961,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1370,55 +1979,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1448,19 +2015,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1478,19 +2039,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1502,13 +2081,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1555,15 +2134,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -1582,32 +2152,17 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1623,17 +2178,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1679,6 +2223,41 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1693,145 +2272,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2185,7 +2764,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C372"/>
+  <dimension ref="A1:C566"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -2193,15 +2772,15 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="11.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="10.8" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="3.225" style="1" customWidth="1"/>
-    <col min="2" max="2" width="69.4416666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="80.4416666666667" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.89166666666667" style="1"/>
+    <col min="1" max="1" width="3.22222222222222" style="1" customWidth="1"/>
+    <col min="2" max="2" width="69.4444444444444" style="1" customWidth="1"/>
+    <col min="3" max="3" width="80.4444444444444" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.25" spans="1:2">
+    <row r="1" ht="16.2" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3063,17 +3642,15 @@
     </row>
     <row r="143" spans="2:3">
       <c r="B143" s="4" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C143" s="5"/>
     </row>
     <row r="144" spans="2:3">
       <c r="B144" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C144" s="5" t="s">
         <v>143</v>
       </c>
+      <c r="C144" s="5"/>
     </row>
     <row r="145" spans="2:3">
       <c r="B145" s="4" t="s">
@@ -3085,7 +3662,7 @@
       <c r="B146" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C146" s="4"/>
+      <c r="C146" s="5"/>
     </row>
     <row r="147" spans="2:3">
       <c r="B147" s="4" t="s">
@@ -3113,21 +3690,23 @@
     </row>
     <row r="151" spans="2:3">
       <c r="B151" s="4" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="C151" s="5"/>
     </row>
     <row r="152" spans="2:3">
       <c r="B152" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C152" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C152" s="5"/>
     </row>
     <row r="153" spans="2:3">
       <c r="B153" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C153" s="4"/>
+      <c r="C153" s="5"/>
     </row>
     <row r="154" spans="2:3">
       <c r="B154" s="4" t="s">
@@ -3139,13 +3718,13 @@
       <c r="B155" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C155" s="4"/>
+      <c r="C155" s="5"/>
     </row>
     <row r="156" spans="2:3">
       <c r="B156" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C156" s="4"/>
+      <c r="C156" s="5"/>
     </row>
     <row r="157" spans="2:3">
       <c r="B157" s="4" t="s">
@@ -3169,7 +3748,7 @@
       <c r="B160" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C160" s="4"/>
+      <c r="C160" s="5"/>
     </row>
     <row r="161" spans="2:3">
       <c r="B161" s="4" t="s">
@@ -3199,19 +3778,19 @@
       <c r="B165" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C165" s="4"/>
+      <c r="C165" s="5"/>
     </row>
     <row r="166" spans="2:3">
       <c r="B166" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C166" s="4"/>
+      <c r="C166" s="5"/>
     </row>
     <row r="167" spans="2:3">
       <c r="B167" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C167" s="4"/>
+      <c r="C167" s="5"/>
     </row>
     <row r="168" spans="2:3">
       <c r="B168" s="4" t="s">
@@ -3239,17 +3818,15 @@
     </row>
     <row r="172" spans="2:3">
       <c r="B172" s="4" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="C172" s="4"/>
     </row>
     <row r="173" spans="2:3">
       <c r="B173" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C173" s="5" t="s">
         <v>172</v>
       </c>
+      <c r="C173" s="4"/>
     </row>
     <row r="174" spans="2:3">
       <c r="B174" s="4" t="s">
@@ -3289,11 +3866,9 @@
     </row>
     <row r="180" spans="2:3">
       <c r="B180" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C180" s="4" t="s">
         <v>179</v>
       </c>
+      <c r="C180" s="4"/>
     </row>
     <row r="181" spans="2:3">
       <c r="B181" s="4" t="s">
@@ -3345,17 +3920,15 @@
     </row>
     <row r="189" spans="2:3">
       <c r="B189" s="4" t="s">
-        <v>133</v>
+        <v>188</v>
       </c>
       <c r="C189" s="4"/>
     </row>
     <row r="190" spans="2:3">
       <c r="B190" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C190" s="4" t="s">
         <v>189</v>
       </c>
+      <c r="C190" s="4"/>
     </row>
     <row r="191" spans="2:3">
       <c r="B191" s="4" t="s">
@@ -3373,555 +3946,559 @@
       <c r="B193" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C193" s="5"/>
+      <c r="C193" s="4"/>
     </row>
     <row r="194" spans="2:3">
       <c r="B194" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C194" s="5"/>
+      <c r="C194" s="4"/>
     </row>
     <row r="195" spans="2:3">
       <c r="B195" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C195" s="5"/>
+      <c r="C195" s="4"/>
     </row>
     <row r="196" spans="2:3">
       <c r="B196" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C196" s="5"/>
+      <c r="C196" s="4"/>
     </row>
     <row r="197" spans="2:3">
       <c r="B197" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C197" s="5"/>
+      <c r="C197" s="4"/>
     </row>
     <row r="198" spans="2:3">
       <c r="B198" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="C198" s="5"/>
+      <c r="C198" s="4"/>
     </row>
     <row r="199" spans="2:3">
       <c r="B199" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C199" s="5"/>
+      <c r="C199" s="4"/>
     </row>
     <row r="200" spans="2:3">
       <c r="B200" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="C200" s="5" t="s">
-        <v>200</v>
-      </c>
+      <c r="C200" s="4"/>
     </row>
     <row r="201" spans="2:3">
       <c r="B201" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C201" s="4"/>
     </row>
     <row r="202" spans="2:3">
       <c r="B202" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C202" s="4"/>
     </row>
     <row r="203" spans="2:3">
       <c r="B203" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C203" s="4"/>
     </row>
     <row r="204" spans="2:3">
       <c r="B204" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C204" s="4"/>
     </row>
     <row r="205" spans="2:3">
       <c r="B205" s="4" t="s">
-        <v>205</v>
+        <v>133</v>
       </c>
       <c r="C205" s="4"/>
     </row>
     <row r="206" spans="2:3">
       <c r="B206" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C206" s="4"/>
+        <v>204</v>
+      </c>
+      <c r="C206" s="5" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="207" spans="2:3">
       <c r="B207" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C207" s="4"/>
     </row>
     <row r="208" spans="2:3">
       <c r="B208" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C208" s="4"/>
     </row>
     <row r="209" spans="2:3">
       <c r="B209" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C209" s="4" t="s">
-        <v>210</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="C209" s="4"/>
     </row>
     <row r="210" spans="2:3">
       <c r="B210" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C210" s="4"/>
     </row>
     <row r="211" spans="2:3">
       <c r="B211" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C211" s="4"/>
     </row>
     <row r="212" spans="2:3">
       <c r="B212" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C212" s="4"/>
     </row>
     <row r="213" spans="2:3">
       <c r="B213" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="2:3">
       <c r="B214" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C214" s="4"/>
     </row>
     <row r="215" spans="2:3">
       <c r="B215" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C215" s="4"/>
     </row>
     <row r="216" spans="2:3">
       <c r="B216" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C216" s="4"/>
     </row>
     <row r="217" spans="2:3">
       <c r="B217" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="C217" s="4" t="s">
-        <v>219</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="C217" s="4"/>
     </row>
     <row r="218" spans="2:3">
       <c r="B218" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C218" s="4"/>
     </row>
     <row r="219" spans="2:3">
       <c r="B219" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C219" s="4"/>
     </row>
     <row r="220" spans="2:3">
       <c r="B220" s="4" t="s">
-        <v>222</v>
+        <v>133</v>
       </c>
       <c r="C220" s="4"/>
     </row>
     <row r="221" spans="2:3">
       <c r="B221" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="C221" s="4"/>
+        <v>219</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="222" spans="2:3">
       <c r="B222" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="C222" s="5"/>
+        <v>221</v>
+      </c>
+      <c r="C222" s="4"/>
     </row>
     <row r="223" spans="2:3">
       <c r="B223" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="C223" s="5"/>
+        <v>222</v>
+      </c>
+      <c r="C223" s="4"/>
     </row>
     <row r="224" spans="2:3">
       <c r="B224" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="C224" s="4" t="s">
-        <v>227</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="C224" s="4"/>
     </row>
     <row r="225" spans="2:3">
       <c r="B225" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C225" s="5"/>
+        <v>224</v>
+      </c>
+      <c r="C225" s="4"/>
     </row>
     <row r="226" spans="2:3">
       <c r="B226" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="C226" s="5"/>
+        <v>225</v>
+      </c>
+      <c r="C226" s="4"/>
     </row>
     <row r="227" spans="2:3">
       <c r="B227" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="C227" s="5"/>
+        <v>226</v>
+      </c>
+      <c r="C227" s="4"/>
     </row>
     <row r="228" spans="2:3">
       <c r="B228" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="C228" s="5"/>
+        <v>227</v>
+      </c>
+      <c r="C228" s="4"/>
     </row>
     <row r="229" spans="2:3">
       <c r="B229" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C229" s="5"/>
+        <v>228</v>
+      </c>
+      <c r="C229" s="4"/>
     </row>
     <row r="230" spans="2:3">
       <c r="B230" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="C230" s="5"/>
+        <v>229</v>
+      </c>
+      <c r="C230" s="4"/>
     </row>
     <row r="231" spans="2:3">
       <c r="B231" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="C231" s="5"/>
+        <v>230</v>
+      </c>
+      <c r="C231" s="4"/>
     </row>
     <row r="232" spans="2:3">
       <c r="B232" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="C232" s="5"/>
+        <v>231</v>
+      </c>
+      <c r="C232" s="4"/>
     </row>
     <row r="233" spans="2:3">
       <c r="B233" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="C233" s="5"/>
+        <v>232</v>
+      </c>
+      <c r="C233" s="4"/>
     </row>
     <row r="234" spans="2:3">
       <c r="B234" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="C234" s="5"/>
+        <v>233</v>
+      </c>
+      <c r="C234" s="4"/>
     </row>
     <row r="235" spans="2:3">
       <c r="B235" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C235" s="5"/>
+        <v>234</v>
+      </c>
+      <c r="C235" s="4"/>
     </row>
     <row r="236" spans="2:3">
       <c r="B236" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C236" s="5"/>
+        <v>235</v>
+      </c>
+      <c r="C236" s="4"/>
     </row>
     <row r="237" spans="2:3">
       <c r="B237" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="C237" s="5"/>
+        <v>236</v>
+      </c>
+      <c r="C237" s="4"/>
     </row>
     <row r="238" spans="2:3">
       <c r="B238" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="C238" s="5"/>
+        <v>133</v>
+      </c>
+      <c r="C238" s="4"/>
     </row>
     <row r="239" spans="2:3">
       <c r="B239" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="C239" s="5"/>
+        <v>237</v>
+      </c>
+      <c r="C239" s="4" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="240" spans="2:3">
       <c r="B240" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="C240" s="5"/>
+        <v>239</v>
+      </c>
+      <c r="C240" s="4"/>
     </row>
     <row r="241" spans="2:3">
       <c r="B241" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C241" s="5"/>
+        <v>240</v>
+      </c>
+      <c r="C241" s="4"/>
     </row>
     <row r="242" spans="2:3">
       <c r="B242" s="4" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C242" s="5"/>
     </row>
     <row r="243" spans="2:3">
       <c r="B243" s="4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C243" s="5"/>
     </row>
     <row r="244" spans="2:3">
       <c r="B244" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C244" s="5"/>
     </row>
     <row r="245" spans="2:3">
       <c r="B245" s="4" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C245" s="5"/>
     </row>
     <row r="246" spans="2:3">
       <c r="B246" s="4" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C246" s="5"/>
     </row>
     <row r="247" spans="2:3">
       <c r="B247" s="4" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C247" s="5"/>
     </row>
     <row r="248" spans="2:3">
       <c r="B248" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C248" s="5"/>
     </row>
     <row r="249" spans="2:3">
       <c r="B249" s="4" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C249" s="5"/>
     </row>
     <row r="250" spans="2:3">
       <c r="B250" s="4" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C250" s="5"/>
     </row>
     <row r="251" spans="2:3">
       <c r="B251" s="4" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C251" s="5"/>
     </row>
     <row r="252" spans="2:3">
       <c r="B252" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="C252" s="5"/>
+        <v>251</v>
+      </c>
+      <c r="C252" s="5" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="253" spans="2:3">
       <c r="B253" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="C253" s="5"/>
+        <v>253</v>
+      </c>
+      <c r="C253" s="4"/>
     </row>
     <row r="254" spans="2:3">
       <c r="B254" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="C254" s="5"/>
+        <v>254</v>
+      </c>
+      <c r="C254" s="4"/>
     </row>
     <row r="255" spans="2:3">
       <c r="B255" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C255" s="5"/>
+        <v>255</v>
+      </c>
+      <c r="C255" s="4"/>
     </row>
     <row r="256" spans="2:3">
       <c r="B256" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="C256" s="5"/>
+        <v>256</v>
+      </c>
+      <c r="C256" s="4"/>
     </row>
     <row r="257" spans="2:3">
       <c r="B257" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C257" s="5"/>
+        <v>257</v>
+      </c>
+      <c r="C257" s="4"/>
     </row>
     <row r="258" spans="2:3">
       <c r="B258" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="C258" s="5"/>
+        <v>258</v>
+      </c>
+      <c r="C258" s="4"/>
     </row>
     <row r="259" spans="2:3">
       <c r="B259" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C259" s="5"/>
+        <v>259</v>
+      </c>
+      <c r="C259" s="4"/>
     </row>
     <row r="260" spans="2:3">
       <c r="B260" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="C260" s="5"/>
+        <v>260</v>
+      </c>
+      <c r="C260" s="4"/>
     </row>
     <row r="261" spans="2:3">
       <c r="B261" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="C261" s="5"/>
+        <v>261</v>
+      </c>
+      <c r="C261" s="4"/>
     </row>
     <row r="262" spans="2:3">
       <c r="B262" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C262" s="5"/>
+        <v>262</v>
+      </c>
+      <c r="C262" s="4"/>
     </row>
     <row r="263" spans="2:3">
       <c r="B263" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="C263" s="5"/>
+        <v>263</v>
+      </c>
+      <c r="C263" s="4"/>
     </row>
     <row r="264" spans="2:3">
       <c r="B264" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="C264" s="5"/>
+        <v>264</v>
+      </c>
+      <c r="C264" s="4"/>
     </row>
     <row r="265" spans="2:3">
       <c r="B265" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="C265" s="5"/>
+        <v>265</v>
+      </c>
+      <c r="C265" s="4"/>
     </row>
     <row r="266" spans="2:3">
       <c r="B266" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="C266" s="5"/>
+        <v>266</v>
+      </c>
+      <c r="C266" s="4"/>
     </row>
     <row r="267" spans="2:3">
       <c r="B267" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C267" s="5"/>
+        <v>267</v>
+      </c>
+      <c r="C267" s="4"/>
     </row>
     <row r="268" spans="2:3">
       <c r="B268" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="C268" s="5"/>
+        <v>268</v>
+      </c>
+      <c r="C268" s="4"/>
     </row>
     <row r="269" spans="2:3">
       <c r="B269" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="C269" s="5"/>
+        <v>269</v>
+      </c>
+      <c r="C269" s="4"/>
     </row>
     <row r="270" spans="2:3">
       <c r="B270" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="C270" s="5"/>
+        <v>270</v>
+      </c>
+      <c r="C270" s="4"/>
     </row>
     <row r="271" spans="2:3">
       <c r="B271" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="C271" s="5"/>
+        <v>271</v>
+      </c>
+      <c r="C271" s="4" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="272" spans="2:3">
       <c r="B272" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="C272" s="5"/>
+        <v>273</v>
+      </c>
+      <c r="C272" s="4"/>
     </row>
     <row r="273" spans="2:3">
       <c r="B273" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="C273" s="5"/>
+        <v>274</v>
+      </c>
+      <c r="C273" s="4"/>
     </row>
     <row r="274" spans="2:3">
       <c r="B274" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="C274" s="5"/>
+        <v>275</v>
+      </c>
+      <c r="C274" s="4"/>
     </row>
     <row r="275" spans="2:3">
       <c r="B275" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="C275" s="5"/>
+        <v>276</v>
+      </c>
+      <c r="C275" s="4"/>
     </row>
     <row r="276" spans="2:3">
       <c r="B276" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="C276" s="5"/>
+        <v>277</v>
+      </c>
+      <c r="C276" s="4"/>
     </row>
     <row r="277" spans="2:3">
       <c r="B277" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="C277" s="5"/>
+        <v>278</v>
+      </c>
+      <c r="C277" s="4"/>
     </row>
     <row r="278" spans="2:3">
       <c r="B278" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="C278" s="5"/>
+        <v>279</v>
+      </c>
+      <c r="C278" s="4"/>
     </row>
     <row r="279" spans="2:3">
       <c r="B279" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="C279" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="C279" s="5"/>
     </row>
     <row r="280" spans="2:3">
       <c r="B280" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="C280" s="5"/>
+      <c r="C280" s="4"/>
     </row>
     <row r="281" spans="2:3">
       <c r="B281" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="C281" s="5"/>
+      <c r="C281" s="4"/>
     </row>
     <row r="282" spans="2:3">
       <c r="B282" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="C282" s="5"/>
+      <c r="C282" s="4"/>
     </row>
     <row r="283" spans="2:3">
       <c r="B283" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="C283" s="5"/>
+      <c r="C283" s="4"/>
     </row>
     <row r="284" spans="2:3">
       <c r="B284" s="6" t="s">
@@ -3939,7 +4516,7 @@
       <c r="B286" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="C286" s="5"/>
+      <c r="C286" s="4"/>
     </row>
     <row r="287" spans="2:3">
       <c r="B287" s="6" t="s">
@@ -3957,503 +4534,1537 @@
       <c r="B289" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="C289" s="5"/>
+      <c r="C289" s="4" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="290" spans="2:3">
       <c r="B290" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C290" s="5"/>
     </row>
     <row r="291" spans="2:3">
       <c r="B291" s="6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C291" s="5"/>
     </row>
     <row r="292" spans="2:3">
       <c r="B292" s="6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C292" s="5"/>
     </row>
     <row r="293" spans="2:3">
       <c r="B293" s="6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C293" s="5"/>
     </row>
     <row r="294" spans="2:3">
       <c r="B294" s="6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C294" s="5"/>
     </row>
     <row r="295" spans="2:3">
       <c r="B295" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C295" s="5"/>
     </row>
     <row r="296" spans="2:3">
       <c r="B296" s="4" t="s">
-        <v>262</v>
+        <v>299</v>
       </c>
       <c r="C296" s="5"/>
     </row>
     <row r="297" spans="2:3">
       <c r="B297" s="4" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C297" s="5"/>
     </row>
     <row r="298" spans="2:3">
       <c r="B298" s="4" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C298" s="5"/>
     </row>
     <row r="299" spans="2:3">
       <c r="B299" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C299" s="5"/>
     </row>
     <row r="300" spans="2:3">
       <c r="B300" s="4" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C300" s="5"/>
     </row>
     <row r="301" spans="2:3">
       <c r="B301" s="4" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C301" s="5"/>
     </row>
     <row r="302" spans="2:3">
       <c r="B302" s="4" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C302" s="5"/>
     </row>
     <row r="303" spans="2:3">
       <c r="B303" s="4" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C303" s="5"/>
     </row>
     <row r="304" spans="2:3">
       <c r="B304" s="4" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C304" s="5"/>
     </row>
     <row r="305" spans="2:3">
       <c r="B305" s="4" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C305" s="5"/>
     </row>
     <row r="306" spans="2:3">
       <c r="B306" s="4" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C306" s="5"/>
     </row>
     <row r="307" spans="2:3">
       <c r="B307" s="4" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C307" s="5"/>
     </row>
     <row r="308" spans="2:3">
       <c r="B308" s="4" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C308" s="5"/>
     </row>
     <row r="309" spans="2:3">
       <c r="B309" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C309" s="5"/>
     </row>
     <row r="310" spans="2:3">
       <c r="B310" s="4" t="s">
-        <v>262</v>
+        <v>313</v>
       </c>
       <c r="C310" s="5"/>
     </row>
     <row r="311" spans="2:3">
       <c r="B311" s="4" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C311" s="5"/>
     </row>
     <row r="312" spans="2:3">
       <c r="B312" s="4" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C312" s="5"/>
     </row>
     <row r="313" spans="2:3">
       <c r="B313" s="4" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C313" s="5"/>
     </row>
     <row r="314" spans="2:3">
       <c r="B314" s="4" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C314" s="5"/>
     </row>
     <row r="315" spans="2:3">
       <c r="B315" s="4" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C315" s="5"/>
     </row>
     <row r="316" spans="2:3">
       <c r="B316" s="4" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C316" s="5"/>
     </row>
     <row r="317" spans="2:3">
       <c r="B317" s="4" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C317" s="5"/>
     </row>
     <row r="318" spans="2:3">
       <c r="B318" s="4" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C318" s="5"/>
     </row>
     <row r="319" spans="2:3">
       <c r="B319" s="4" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C319" s="5"/>
     </row>
     <row r="320" spans="2:3">
       <c r="B320" s="4" t="s">
-        <v>262</v>
+        <v>323</v>
       </c>
       <c r="C320" s="5"/>
     </row>
     <row r="321" spans="2:3">
       <c r="B321" s="4" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C321" s="5"/>
     </row>
     <row r="322" spans="2:3">
       <c r="B322" s="4" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C322" s="5"/>
     </row>
     <row r="323" spans="2:3">
       <c r="B323" s="4" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C323" s="5"/>
     </row>
     <row r="324" spans="2:3">
       <c r="B324" s="4" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C324" s="5"/>
     </row>
     <row r="325" spans="2:3">
       <c r="B325" s="4" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C325" s="5"/>
     </row>
     <row r="326" spans="2:3">
       <c r="B326" s="4" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C326" s="5"/>
     </row>
     <row r="327" spans="2:3">
       <c r="B327" s="4" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C327" s="5"/>
     </row>
     <row r="328" spans="2:3">
       <c r="B328" s="4" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C328" s="5"/>
     </row>
     <row r="329" spans="2:3">
       <c r="B329" s="4" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C329" s="5"/>
     </row>
     <row r="330" spans="2:3">
       <c r="B330" s="4" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C330" s="5"/>
     </row>
     <row r="331" spans="2:3">
       <c r="B331" s="4" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C331" s="5"/>
     </row>
     <row r="332" spans="2:3">
       <c r="B332" s="4" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C332" s="5"/>
     </row>
     <row r="333" spans="2:3">
       <c r="B333" s="4" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="C333" s="5"/>
     </row>
     <row r="334" spans="2:3">
       <c r="B334" s="4" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="C334" s="5"/>
     </row>
     <row r="335" spans="2:3">
       <c r="B335" s="4" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="C335" s="5"/>
     </row>
     <row r="336" spans="2:3">
       <c r="B336" s="4" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="C336" s="5"/>
     </row>
     <row r="337" spans="2:3">
       <c r="B337" s="4" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="C337" s="5"/>
     </row>
     <row r="338" spans="2:3">
       <c r="B338" s="4" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="C338" s="5"/>
     </row>
     <row r="339" spans="2:3">
       <c r="B339" s="4" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="C339" s="5"/>
     </row>
     <row r="340" spans="2:3">
       <c r="B340" s="4" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="C340" s="5"/>
     </row>
     <row r="341" spans="2:3">
       <c r="B341" s="4" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="C341" s="5"/>
     </row>
     <row r="342" spans="2:3">
       <c r="B342" s="4" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C342" s="5"/>
     </row>
     <row r="343" spans="2:3">
       <c r="B343" s="4" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="C343" s="5"/>
     </row>
     <row r="344" spans="2:3">
       <c r="B344" s="4" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="C344" s="5"/>
     </row>
     <row r="345" spans="2:3">
       <c r="B345" s="4" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="C345" s="5"/>
     </row>
     <row r="346" spans="2:3">
       <c r="B346" s="4" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C346" s="5"/>
     </row>
     <row r="347" spans="2:3">
       <c r="B347" s="4" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="C347" s="5"/>
     </row>
     <row r="348" spans="2:3">
       <c r="B348" s="4" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="C348" s="5"/>
     </row>
     <row r="349" spans="2:3">
       <c r="B349" s="4" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="C349" s="5"/>
     </row>
     <row r="350" spans="2:3">
       <c r="B350" s="4" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="C350" s="5"/>
     </row>
     <row r="351" spans="2:3">
       <c r="B351" s="4" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="C351" s="5"/>
     </row>
     <row r="352" spans="2:3">
       <c r="B352" s="4" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="C352" s="5"/>
     </row>
     <row r="353" spans="2:3">
       <c r="B353" s="4" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="C353" s="5"/>
     </row>
     <row r="354" spans="2:3">
       <c r="B354" s="4" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C354" s="5"/>
     </row>
     <row r="355" spans="2:3">
       <c r="B355" s="4" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="C355" s="5"/>
     </row>
     <row r="356" spans="2:3">
       <c r="B356" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="C356" s="5"/>
     </row>
     <row r="357" spans="2:3">
       <c r="B357" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="C357" s="5"/>
     </row>
     <row r="358" spans="2:3">
       <c r="B358" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="C358" s="5"/>
     </row>
     <row r="359" spans="2:3">
       <c r="B359" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C359" s="5"/>
     </row>
     <row r="360" spans="2:3">
       <c r="B360" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="C360" s="5"/>
     </row>
     <row r="361" spans="2:3">
       <c r="B361" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="C361" s="5"/>
     </row>
     <row r="362" spans="2:3">
       <c r="B362" s="7" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="C362" s="5"/>
     </row>
     <row r="363" spans="2:3">
       <c r="B363" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C363" s="5"/>
     </row>
     <row r="364" spans="2:3">
       <c r="B364" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="C364" s="8"/>
+        <v>366</v>
+      </c>
+      <c r="C364" s="5"/>
     </row>
     <row r="365" spans="2:3">
       <c r="B365" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="C365" s="8"/>
+        <v>367</v>
+      </c>
+      <c r="C365" s="5"/>
     </row>
     <row r="366" spans="2:3">
       <c r="B366" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="C366" s="8"/>
+        <v>368</v>
+      </c>
+      <c r="C366" s="5"/>
     </row>
     <row r="367" spans="2:3">
       <c r="B367" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="C367" s="8"/>
+        <v>369</v>
+      </c>
+      <c r="C367" s="5"/>
     </row>
     <row r="368" spans="2:3">
       <c r="B368" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="C368" s="8"/>
+        <v>370</v>
+      </c>
+      <c r="C368" s="5"/>
     </row>
     <row r="369" spans="2:3">
       <c r="B369" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="C369" s="8"/>
+        <v>371</v>
+      </c>
+      <c r="C369" s="5"/>
     </row>
     <row r="370" spans="2:3">
       <c r="B370" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="C370" s="8"/>
+        <v>372</v>
+      </c>
+      <c r="C370" s="5"/>
     </row>
     <row r="371" spans="2:3">
-      <c r="B371" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="C371" s="10"/>
-    </row>
-    <row r="372" spans="2:2">
+      <c r="B371" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="C371" s="5"/>
+    </row>
+    <row r="372" spans="2:3">
       <c r="B372" s="1" t="s">
-        <v>370</v>
+        <v>374</v>
+      </c>
+      <c r="C372" s="5"/>
+    </row>
+    <row r="373" spans="2:3">
+      <c r="B373" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C373" s="5"/>
+    </row>
+    <row r="374" spans="2:3">
+      <c r="B374" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C374" s="5"/>
+    </row>
+    <row r="375" spans="2:3">
+      <c r="B375" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C375" s="5"/>
+    </row>
+    <row r="376" spans="2:3">
+      <c r="B376" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C376" s="5"/>
+    </row>
+    <row r="377" spans="2:3">
+      <c r="B377" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C377" s="5"/>
+    </row>
+    <row r="378" spans="2:3">
+      <c r="B378" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C378" s="5"/>
+    </row>
+    <row r="379" spans="2:3">
+      <c r="B379" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C379" s="5"/>
+    </row>
+    <row r="380" spans="2:3">
+      <c r="B380" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C380" s="5"/>
+    </row>
+    <row r="381" spans="2:3">
+      <c r="B381" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C381" s="5"/>
+    </row>
+    <row r="382" spans="2:3">
+      <c r="B382" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C382" s="5"/>
+    </row>
+    <row r="383" spans="2:3">
+      <c r="B383" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C383" s="5"/>
+    </row>
+    <row r="384" spans="2:3">
+      <c r="B384" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C384" s="5"/>
+    </row>
+    <row r="385" spans="2:3">
+      <c r="B385" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C385" s="5"/>
+    </row>
+    <row r="386" spans="2:3">
+      <c r="B386" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C386" s="5"/>
+    </row>
+    <row r="387" spans="2:3">
+      <c r="B387" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C387" s="5"/>
+    </row>
+    <row r="388" spans="2:3">
+      <c r="B388" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C388" s="5"/>
+    </row>
+    <row r="389" spans="2:3">
+      <c r="B389" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C389" s="5"/>
+    </row>
+    <row r="390" spans="2:3">
+      <c r="B390" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C390" s="5"/>
+    </row>
+    <row r="391" spans="2:3">
+      <c r="B391" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C391" s="5"/>
+    </row>
+    <row r="392" spans="2:3">
+      <c r="B392" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C392" s="5"/>
+    </row>
+    <row r="393" spans="2:3">
+      <c r="B393" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C393" s="5"/>
+    </row>
+    <row r="394" spans="2:3">
+      <c r="B394" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C394" s="5"/>
+    </row>
+    <row r="395" spans="2:3">
+      <c r="B395" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C395" s="5"/>
+    </row>
+    <row r="396" spans="2:3">
+      <c r="B396" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C396" s="5"/>
+    </row>
+    <row r="397" spans="2:3">
+      <c r="B397" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C397" s="5"/>
+    </row>
+    <row r="398" spans="2:3">
+      <c r="B398" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C398" s="5"/>
+    </row>
+    <row r="399" spans="2:3">
+      <c r="B399" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C399" s="5"/>
+    </row>
+    <row r="400" spans="2:3">
+      <c r="B400" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C400" s="5"/>
+    </row>
+    <row r="401" spans="2:3">
+      <c r="B401" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C401" s="5"/>
+    </row>
+    <row r="402" spans="2:3">
+      <c r="B402" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C402" s="5"/>
+    </row>
+    <row r="403" spans="2:3">
+      <c r="B403" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C403" s="5"/>
+    </row>
+    <row r="404" spans="2:3">
+      <c r="B404" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C404" s="5"/>
+    </row>
+    <row r="405" spans="2:3">
+      <c r="B405" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C405" s="5"/>
+    </row>
+    <row r="406" spans="2:3">
+      <c r="B406" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C406" s="5"/>
+    </row>
+    <row r="407" spans="2:3">
+      <c r="B407" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C407" s="5"/>
+    </row>
+    <row r="408" spans="2:3">
+      <c r="B408" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C408" s="5"/>
+    </row>
+    <row r="409" spans="2:3">
+      <c r="B409" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C409" s="5"/>
+    </row>
+    <row r="410" spans="2:3">
+      <c r="B410" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C410" s="5"/>
+    </row>
+    <row r="411" spans="2:3">
+      <c r="B411" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C411" s="5"/>
+    </row>
+    <row r="412" spans="2:3">
+      <c r="B412" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C412" s="5"/>
+    </row>
+    <row r="413" spans="2:3">
+      <c r="B413" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C413" s="5"/>
+    </row>
+    <row r="414" spans="2:3">
+      <c r="B414" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C414" s="5"/>
+    </row>
+    <row r="415" spans="2:3">
+      <c r="B415" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C415" s="5"/>
+    </row>
+    <row r="416" spans="2:3">
+      <c r="B416" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C416" s="5"/>
+    </row>
+    <row r="417" spans="2:3">
+      <c r="B417" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C417" s="5"/>
+    </row>
+    <row r="418" spans="2:3">
+      <c r="B418" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C418" s="5"/>
+    </row>
+    <row r="419" spans="2:3">
+      <c r="B419" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C419" s="5"/>
+    </row>
+    <row r="420" spans="2:3">
+      <c r="B420" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C420" s="5"/>
+    </row>
+    <row r="421" spans="2:3">
+      <c r="B421" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C421" s="5"/>
+    </row>
+    <row r="422" spans="2:3">
+      <c r="B422" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C422" s="5"/>
+    </row>
+    <row r="423" spans="2:3">
+      <c r="B423" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C423" s="5"/>
+    </row>
+    <row r="424" spans="2:3">
+      <c r="B424" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C424" s="5"/>
+    </row>
+    <row r="425" spans="2:3">
+      <c r="B425" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C425" s="5"/>
+    </row>
+    <row r="426" spans="2:3">
+      <c r="B426" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C426" s="9"/>
+    </row>
+    <row r="427" spans="2:3">
+      <c r="B427" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C427" s="9"/>
+    </row>
+    <row r="428" spans="2:3">
+      <c r="B428" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C428" s="9"/>
+    </row>
+    <row r="429" spans="2:3">
+      <c r="B429" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C429" s="9"/>
+    </row>
+    <row r="430" spans="2:3">
+      <c r="B430" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C430" s="9"/>
+    </row>
+    <row r="431" spans="2:3">
+      <c r="B431" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C431" s="9"/>
+    </row>
+    <row r="432" spans="2:3">
+      <c r="B432" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C432" s="9"/>
+    </row>
+    <row r="433" spans="2:3">
+      <c r="B433" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C433" s="10"/>
+    </row>
+    <row r="434" spans="2:2">
+      <c r="B434" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="435" spans="2:2">
+      <c r="B435" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="436" spans="2:2">
+      <c r="B436" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="437" spans="2:2">
+      <c r="B437" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="438" spans="2:2">
+      <c r="B438" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="439" spans="2:2">
+      <c r="B439" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="440" spans="2:2">
+      <c r="B440" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="441" spans="2:2">
+      <c r="B441" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="442" spans="2:2">
+      <c r="B442" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="443" spans="2:2">
+      <c r="B443" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="444" spans="2:2">
+      <c r="B444" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="445" spans="2:2">
+      <c r="B445" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="446" spans="2:2">
+      <c r="B446" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="447" spans="2:2">
+      <c r="B447" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="448" spans="2:2">
+      <c r="B448" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="449" spans="2:2">
+      <c r="B449" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="450" spans="2:2">
+      <c r="B450" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="451" spans="2:2">
+      <c r="B451" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="452" spans="2:2">
+      <c r="B452" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="453" spans="2:2">
+      <c r="B453" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="454" spans="2:2">
+      <c r="B454" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="455" spans="2:2">
+      <c r="B455" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="456" spans="2:2">
+      <c r="B456" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="457" spans="2:2">
+      <c r="B457" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="458" spans="2:2">
+      <c r="B458" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="459" spans="2:2">
+      <c r="B459" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="460" spans="2:2">
+      <c r="B460" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="461" spans="2:2">
+      <c r="B461" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="462" spans="2:2">
+      <c r="B462" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="463" spans="2:2">
+      <c r="B463" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="464" spans="2:2">
+      <c r="B464" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="465" spans="2:2">
+      <c r="B465" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="466" spans="2:2">
+      <c r="B466" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="467" spans="2:2">
+      <c r="B467" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="468" spans="2:2">
+      <c r="B468" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="469" spans="2:2">
+      <c r="B469" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="470" spans="2:2">
+      <c r="B470" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="471" spans="2:2">
+      <c r="B471" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="472" spans="2:2">
+      <c r="B472" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="473" spans="2:2">
+      <c r="B473" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="474" spans="2:2">
+      <c r="B474" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="475" spans="2:2">
+      <c r="B475" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="476" spans="2:2">
+      <c r="B476" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="477" spans="2:2">
+      <c r="B477" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="478" spans="2:2">
+      <c r="B478" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="479" spans="2:2">
+      <c r="B479" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="480" spans="2:2">
+      <c r="B480" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="481" spans="2:2">
+      <c r="B481" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="482" spans="2:2">
+      <c r="B482" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="483" spans="2:2">
+      <c r="B483" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="484" spans="2:2">
+      <c r="B484" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="485" spans="2:2">
+      <c r="B485" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="486" spans="2:2">
+      <c r="B486" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="487" spans="2:2">
+      <c r="B487" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="488" spans="2:2">
+      <c r="B488" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="489" spans="2:2">
+      <c r="B489" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="490" spans="2:2">
+      <c r="B490" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="491" spans="2:2">
+      <c r="B491" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="492" spans="2:2">
+      <c r="B492" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="493" spans="2:2">
+      <c r="B493" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="494" spans="2:2">
+      <c r="B494" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="495" spans="2:2">
+      <c r="B495" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="496" spans="2:2">
+      <c r="B496" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="497" spans="2:2">
+      <c r="B497" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="498" spans="2:2">
+      <c r="B498" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="499" spans="2:2">
+      <c r="B499" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="500" spans="2:2">
+      <c r="B500" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="501" spans="2:2">
+      <c r="B501" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="502" spans="2:2">
+      <c r="B502" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="503" spans="2:2">
+      <c r="B503" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="504" spans="2:2">
+      <c r="B504" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="505" spans="2:2">
+      <c r="B505" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="506" spans="2:2">
+      <c r="B506" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="507" spans="2:2">
+      <c r="B507" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="508" spans="2:2">
+      <c r="B508" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="509" spans="2:2">
+      <c r="B509" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="510" spans="2:2">
+      <c r="B510" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="511" spans="2:2">
+      <c r="B511" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="512" spans="2:2">
+      <c r="B512" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="513" spans="2:2">
+      <c r="B513" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="514" spans="2:2">
+      <c r="B514" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="515" spans="2:2">
+      <c r="B515" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="516" spans="2:2">
+      <c r="B516" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="517" spans="2:2">
+      <c r="B517" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="518" spans="2:2">
+      <c r="B518" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="519" spans="2:2">
+      <c r="B519" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="520" spans="2:2">
+      <c r="B520" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="521" spans="2:2">
+      <c r="B521" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="522" spans="2:2">
+      <c r="B522" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="523" spans="2:2">
+      <c r="B523" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="524" spans="2:2">
+      <c r="B524" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="525" spans="2:2">
+      <c r="B525" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="526" spans="2:2">
+      <c r="B526" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="527" spans="2:2">
+      <c r="B527" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="528" spans="2:2">
+      <c r="B528" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="529" spans="2:2">
+      <c r="B529" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="530" spans="2:2">
+      <c r="B530" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="531" spans="2:2">
+      <c r="B531" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="532" spans="2:2">
+      <c r="B532" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="533" spans="2:2">
+      <c r="B533" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="534" spans="2:2">
+      <c r="B534" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="535" spans="2:2">
+      <c r="B535" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="536" spans="2:2">
+      <c r="B536" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="537" spans="2:2">
+      <c r="B537" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="538" spans="2:2">
+      <c r="B538" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="539" spans="2:2">
+      <c r="B539" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="540" spans="2:2">
+      <c r="B540" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="541" spans="2:2">
+      <c r="B541" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="542" spans="2:2">
+      <c r="B542" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="543" spans="2:2">
+      <c r="B543" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="544" spans="2:2">
+      <c r="B544" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="545" spans="2:2">
+      <c r="B545" s="1" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="546" spans="2:2">
+      <c r="B546" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="547" spans="2:2">
+      <c r="B547" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="548" spans="2:2">
+      <c r="B548" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="549" spans="2:2">
+      <c r="B549" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="550" spans="2:2">
+      <c r="B550" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="551" spans="2:2">
+      <c r="B551" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="552" spans="2:2">
+      <c r="B552" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="553" spans="2:2">
+      <c r="B553" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="554" spans="2:2">
+      <c r="B554" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="555" spans="2:2">
+      <c r="B555" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="556" spans="2:2">
+      <c r="B556" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="557" spans="2:2">
+      <c r="B557" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="558" spans="2:2">
+      <c r="B558" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="559" spans="2:2">
+      <c r="B559" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="560" spans="2:2">
+      <c r="B560" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="561" spans="2:2">
+      <c r="B561" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="562" spans="2:2">
+      <c r="B562" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="563" spans="2:2">
+      <c r="B563" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="564" spans="2:2">
+      <c r="B564" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="565" spans="2:2">
+      <c r="B565" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="566" spans="2:2">
+      <c r="B566" s="1" t="s">
+        <v>563</v>
       </c>
     </row>
   </sheetData>
@@ -4463,8 +6074,5 @@
     <oddHeader>&amp;C&amp;F</oddHeader>
     <oddFooter>&amp;Cページ &amp;p of &amp;N</oddFooter>
   </headerFooter>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="207" max="2" man="1"/>
-  </rowBreaks>
 </worksheet>
 </file>